--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -6481,8 +6481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7176,15 +7176,15 @@
         <v>512</v>
       </c>
       <c r="N13" s="6">
-        <f>$B14/C14</f>
+        <f t="shared" ref="N13:N19" si="0">$B14/C14</f>
         <v>1.625</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" ref="O13:P13" si="0">$B14/D14</f>
+        <f t="shared" ref="O13:P13" si="1">$B14/D14</f>
         <v>2.6</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R13" s="14">
@@ -7199,7 +7199,7 @@
         <v>0.65</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="T13:U13" si="1">P13/U$12</f>
+        <f t="shared" ref="U13" si="2">P13/U$12</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
         <v>1024</v>
       </c>
       <c r="N14" s="6">
-        <f>$B15/C15</f>
+        <f t="shared" si="0"/>
         <v>4.9090909090909092</v>
       </c>
       <c r="O14" s="6">
@@ -7269,11 +7269,11 @@
         <v>11</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" ref="M15:M22" si="2">M14*2</f>
+        <f t="shared" ref="M15:M19" si="3">M14*2</f>
         <v>2048</v>
       </c>
       <c r="N15" s="6">
-        <f>$B16/C16</f>
+        <f t="shared" si="0"/>
         <v>4.6956521739130439</v>
       </c>
       <c r="O15" s="6">
@@ -7281,23 +7281,23 @@
         <v>4.5957446808510642</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" ref="P14:P19" si="3">$B16/E16</f>
+        <f t="shared" ref="P15:P19" si="4">$B16/E16</f>
         <v>4.6956521739130439</v>
       </c>
       <c r="R15" s="14">
-        <f t="shared" ref="R15:R19" si="4">R14*2</f>
+        <f t="shared" ref="R15:R19" si="5">R14*2</f>
         <v>2048</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15:S19" si="5">N15/S$12</f>
+        <f t="shared" ref="S15:S19" si="6">N15/S$12</f>
         <v>2.347826086956522</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" ref="T15:T19" si="6">O15/T$12</f>
+        <f t="shared" ref="T15:T19" si="7">O15/T$12</f>
         <v>1.1489361702127661</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" ref="U15:U19" si="7">P15/U$12</f>
+        <f t="shared" ref="U15:U19" si="8">P15/U$12</f>
         <v>0.58695652173913049</v>
       </c>
     </row>
@@ -7318,11 +7318,11 @@
         <v>46</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4096</v>
       </c>
       <c r="N16" s="6">
-        <f>$B17/C17</f>
+        <f t="shared" si="0"/>
         <v>5.8445945945945947</v>
       </c>
       <c r="O16" s="6">
@@ -7330,23 +7330,23 @@
         <v>5.8053691275167782</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8445945945945947</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9222972972972974</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4513422818791946</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.73057432432432434</v>
       </c>
     </row>
@@ -7367,11 +7367,11 @@
         <v>148</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8192</v>
       </c>
       <c r="N17" s="6">
-        <f>$B18/C18</f>
+        <f t="shared" si="0"/>
         <v>6.3614678899082566</v>
       </c>
       <c r="O17" s="6">
@@ -7379,23 +7379,23 @@
         <v>6.3848987108655617</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3498168498168495</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1807339449541283</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5962246777163904</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.79372710622710618</v>
       </c>
     </row>
@@ -7416,11 +7416,11 @@
         <v>546</v>
       </c>
       <c r="M18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16384</v>
       </c>
       <c r="N18" s="6">
-        <f>$B19/C19</f>
+        <f t="shared" si="0"/>
         <v>6.5361702127659571</v>
       </c>
       <c r="O18" s="6">
@@ -7428,23 +7428,23 @@
         <v>6.4688816097332706</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5238319962246338</v>
       </c>
       <c r="R18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2680851063829786</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6172204024333177</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81547899952807923</v>
       </c>
     </row>
@@ -7465,11 +7465,11 @@
         <v>2119</v>
       </c>
       <c r="M19" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32768</v>
       </c>
       <c r="N19" s="8">
-        <f>$B20/C20</f>
+        <f t="shared" si="0"/>
         <v>6.2978213756130943</v>
       </c>
       <c r="O19" s="8">
@@ -7477,23 +7477,23 @@
         <v>6.5379514505624634</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6107519157088124</v>
       </c>
       <c r="R19" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32768</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1489106878065471</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6344878626406159</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.82634398946360155</v>
       </c>
     </row>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -736,11 +736,371 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$39</c:f>
+              <c:f>Sheet1!$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$40:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3721-4F18-A565-A35D78511B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$40:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3721-4F18-A565-A35D78511B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$40:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3721-4F18-A565-A35D78511B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$40:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3721-4F18-A565-A35D78511B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -791,7 +1151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$46</c:f>
+              <c:f>Sheet1!$D$40:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -826,22 +1186,22 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -886,52 +1246,54 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.9</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.1</c:v>
+                  <c:v>43.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.80000000000001</c:v>
+                  <c:v>165.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3721-4F18-A565-A35D78511B45}"/>
+              <c16:uniqueId val="{00000000-F373-49D4-AF90-8787A45377BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$39</c:f>
+              <c:f>Sheet1!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -971,7 +1333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$40:$D$46</c:f>
+              <c:f>Sheet1!$B$40:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -982,206 +1344,26 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.7</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.69999999999999</c:v>
+                  <c:v>185.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$40:$E$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$40:$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>156.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3721-4F18-A565-A35D78511B45}"/>
+              <c16:uniqueId val="{00000001-F373-49D4-AF90-8787A45377BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1437,7 +1619,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.38642633526230907"/>
           <c:y val="0.94845650851433683"/>
-          <c:w val="0.22636125328429724"/>
+          <c:w val="0.29938580939229481"/>
           <c:h val="4.1558301538041499E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -5816,16 +5998,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804301</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>870976</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5864,8 +6046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5681662" y="1409700"/>
-          <a:ext cx="7672388" cy="4726042"/>
+          <a:off x="5696790" y="1409700"/>
+          <a:ext cx="7699282" cy="4741170"/>
           <a:chOff x="5696790" y="1409700"/>
           <a:chExt cx="7699282" cy="4741170"/>
         </a:xfrm>
@@ -6003,8 +6185,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20698385" y="3754531"/>
-          <a:ext cx="4558553" cy="2739838"/>
+          <a:off x="20764500" y="3766297"/>
+          <a:ext cx="4572000" cy="2743200"/>
           <a:chOff x="20764500" y="3766297"/>
           <a:chExt cx="4572000" cy="2743200"/>
         </a:xfrm>
@@ -6159,8 +6341,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2775445" y="7040649"/>
-          <a:ext cx="1743309" cy="383541"/>
+          <a:off x="2578166" y="6557413"/>
+          <a:ext cx="1619395" cy="357217"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6481,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7770,18 +7952,24 @@
     <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1">
         <v>64</v>
       </c>
-      <c r="C39" s="1">
+      <c r="E39" s="1">
         <v>128</v>
       </c>
-      <c r="D39" s="1">
+      <c r="F39" s="1">
         <v>256</v>
       </c>
-      <c r="E39" s="1">
+      <c r="G39" s="1">
         <v>512</v>
       </c>
-      <c r="F39" s="1">
+      <c r="H39" s="1">
         <v>1024</v>
       </c>
     </row>
@@ -7793,15 +7981,21 @@
         <v>1.5</v>
       </c>
       <c r="C40">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="D40">
         <v>1.5</v>
       </c>
       <c r="E40">
+        <v>1.9</v>
+      </c>
+      <c r="F40">
+        <v>1.5</v>
+      </c>
+      <c r="G40">
         <v>1.4</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.5</v>
       </c>
     </row>
@@ -7810,18 +8004,24 @@
         <v>1024</v>
       </c>
       <c r="B41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C41">
         <v>1.9</v>
       </c>
       <c r="D41">
+        <v>1.9</v>
+      </c>
+      <c r="E41">
+        <v>1.9</v>
+      </c>
+      <c r="F41">
         <v>1.8</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>1.8</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>2.1</v>
       </c>
     </row>
@@ -7833,15 +8033,21 @@
         <v>2.8</v>
       </c>
       <c r="C42">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D42">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E42">
         <v>2.9</v>
       </c>
       <c r="F42">
+        <v>2.9</v>
+      </c>
+      <c r="G42">
+        <v>2.9</v>
+      </c>
+      <c r="H42">
         <v>3.3</v>
       </c>
     </row>
@@ -7853,15 +8059,21 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="D43">
         <v>4.9000000000000004</v>
       </c>
       <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G43">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>6</v>
       </c>
     </row>
@@ -7870,18 +8082,24 @@
         <v>8192</v>
       </c>
       <c r="B44">
+        <v>12.8</v>
+      </c>
+      <c r="C44">
+        <v>13.8</v>
+      </c>
+      <c r="D44">
         <v>13.6</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>12.9</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>13</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>13.3</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>12.7</v>
       </c>
     </row>
@@ -7890,18 +8108,24 @@
         <v>16384</v>
       </c>
       <c r="B45">
+        <v>47.4</v>
+      </c>
+      <c r="C45">
+        <v>43.6</v>
+      </c>
+      <c r="D45">
         <v>43.5</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>42.1</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>41.7</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>43.3</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>42.8</v>
       </c>
     </row>
@@ -7910,18 +8134,24 @@
         <v>32768</v>
       </c>
       <c r="B46">
+        <v>185.7</v>
+      </c>
+      <c r="C46">
+        <v>165.6</v>
+      </c>
+      <c r="D46">
         <v>157.9</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>157.80000000000001</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>157.69999999999999</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>158.1</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>156.9</v>
       </c>
     </row>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -1852,7 +1852,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C70F-4768-9377-E46470A04882}"/>
@@ -1922,30 +1922,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>545</c:v>
+                  <c:v>1614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2115</c:v>
+                  <c:v>6469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8767</c:v>
+                  <c:v>25910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C70F-4768-9377-E46470A04882}"/>
@@ -2015,30 +2015,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2137</c:v>
+                  <c:v>3376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8445</c:v>
+                  <c:v>14009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C70F-4768-9377-E46470A04882}"/>
@@ -2108,30 +2108,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>546</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2119</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8352</c:v>
+                  <c:v>8652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C70F-4768-9377-E46470A04882}"/>
@@ -2585,30 +2585,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.625</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9090909090909092</c:v>
+                  <c:v>2.0769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6956521739130439</c:v>
+                  <c:v>2.1386138613861387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8445945945945947</c:v>
+                  <c:v>2.1358024691358026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3614678899082566</c:v>
+                  <c:v>2.148079306071871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5361702127659571</c:v>
+                  <c:v>2.136960890400371</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2978213756130943</c:v>
+                  <c:v>2.1309532998842147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-35D2-4B2B-8226-BA71B2FA3435}"/>
@@ -2678,30 +2678,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5957446808510642</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8053691275167782</c:v>
+                  <c:v>4.0995260663507107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3848987108655617</c:v>
+                  <c:v>4.1520958083832333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4688816097332706</c:v>
+                  <c:v>4.0947867298578196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5379514505624634</c:v>
+                  <c:v>3.9412520522521235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35D2-4B2B-8226-BA71B2FA3435}"/>
@@ -2771,30 +2771,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.1666666666666665</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9090909090909092</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6956521739130439</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8445945945945947</c:v>
+                  <c:v>6.1785714285714288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3498168498168495</c:v>
+                  <c:v>6.3966789667896675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5238319962246338</c:v>
+                  <c:v>6.355862068965517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6107519157088124</c:v>
+                  <c:v>6.3815302820157189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-35D2-4B2B-8226-BA71B2FA3435}"/>
@@ -3249,30 +3249,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.8125</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4545454545454546</c:v>
+                  <c:v>1.0384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.347826086956522</c:v>
+                  <c:v>1.0693069306930694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9222972972972974</c:v>
+                  <c:v>1.0679012345679013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1807339449541283</c:v>
+                  <c:v>1.0740396530359355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2680851063829786</c:v>
+                  <c:v>1.0684804452001855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1489106878065471</c:v>
+                  <c:v>1.0654766499421073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C32-45D9-92E7-7ED55AC7E04C}"/>
@@ -3342,30 +3342,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1489361702127661</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4513422818791946</c:v>
+                  <c:v>1.0248815165876777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5962246777163904</c:v>
+                  <c:v>1.0380239520958083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6172204024333177</c:v>
+                  <c:v>1.0236966824644549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6344878626406159</c:v>
+                  <c:v>0.98531301306303087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C32-45D9-92E7-7ED55AC7E04C}"/>
@@ -3435,30 +3435,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.27083333333333331</c:v>
+                  <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61363636363636365</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58695652173913049</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73057432432432434</c:v>
+                  <c:v>0.7723214285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79372710622710618</c:v>
+                  <c:v>0.79958487084870844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81547899952807923</c:v>
+                  <c:v>0.79448275862068962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82634398946360155</c:v>
+                  <c:v>0.79769128525196487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7C32-45D9-92E7-7ED55AC7E04C}"/>
@@ -6046,8 +6046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5696790" y="1409700"/>
-          <a:ext cx="7699282" cy="4741170"/>
+          <a:off x="5677580" y="1409700"/>
+          <a:ext cx="7656059" cy="4762781"/>
           <a:chOff x="5696790" y="1409700"/>
           <a:chExt cx="7699282" cy="4741170"/>
         </a:xfrm>
@@ -6185,8 +6185,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20764500" y="3766297"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="20654842" y="3783106"/>
+          <a:ext cx="4550389" cy="2748002"/>
           <a:chOff x="20764500" y="3766297"/>
           <a:chExt cx="4572000" cy="2743200"/>
         </a:xfrm>
@@ -6213,7 +6213,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="21829059" y="6185647"/>
+            <a:off x="21829059" y="6185646"/>
             <a:ext cx="713400" cy="264560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6277,7 +6277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15867529" y="6164356"/>
+          <a:off x="15789889" y="6185967"/>
           <a:ext cx="713400" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6663,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7212,43 +7212,43 @@
         <v>55213</v>
       </c>
       <c r="D7">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>8767</v>
+        <v>25910</v>
       </c>
       <c r="I7">
-        <v>2137</v>
+        <v>3376</v>
       </c>
       <c r="J7">
         <v>13</v>
       </c>
       <c r="K7">
-        <v>2119</v>
+        <v>2175</v>
       </c>
       <c r="L7">
-        <v>543</v>
+        <v>835</v>
       </c>
       <c r="M7">
-        <v>8352</v>
+        <v>8652</v>
       </c>
       <c r="N7">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="O7">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <v>14</v>
@@ -7257,13 +7257,13 @@
         <v>13824</v>
       </c>
       <c r="S7">
-        <v>545</v>
+        <v>1614</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="V7">
         <v>3467</v>
@@ -7275,19 +7275,19 @@
         <v>865</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA7">
-        <v>8445</v>
+        <v>14009</v>
       </c>
       <c r="AB7">
-        <v>148</v>
+        <v>405</v>
       </c>
       <c r="AC7">
-        <v>2115</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
@@ -7359,30 +7359,30 @@
       </c>
       <c r="N13" s="6">
         <f t="shared" ref="N13:N19" si="0">$B14/C14</f>
-        <v>1.625</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" ref="O13:P13" si="1">$B14/D14</f>
-        <v>2.6</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="1"/>
-        <v>2.1666666666666665</v>
+        <v>3.25</v>
       </c>
       <c r="R13" s="14">
         <v>512</v>
       </c>
       <c r="S13" s="4">
         <f>N13/S$12</f>
-        <v>0.8125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="T13" s="4">
         <f>O13/T$12</f>
-        <v>0.65</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" ref="U13" si="2">P13/U$12</f>
-        <v>0.27083333333333331</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
@@ -7393,13 +7393,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" s="14">
         <f>M13*2</f>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" si="0"/>
-        <v>4.9090909090909092</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="O14" s="6">
         <f>$B15/D15</f>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="P14" s="7">
         <f>$B15/E15</f>
-        <v>4.9090909090909092</v>
+        <v>5.4</v>
       </c>
       <c r="R14" s="14">
         <f>R13*2</f>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="S14" s="4">
         <f>N14/S$12</f>
-        <v>2.4545454545454546</v>
+        <v>1.0384615384615385</v>
       </c>
       <c r="T14" s="4">
         <f>O14/T$12</f>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="U14" s="5">
         <f>P14/U$12</f>
-        <v>0.61363636363636365</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
@@ -7442,13 +7442,13 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" ref="M15:M19" si="3">M14*2</f>
@@ -7456,15 +7456,15 @@
       </c>
       <c r="N15" s="6">
         <f t="shared" si="0"/>
-        <v>4.6956521739130439</v>
+        <v>2.1386138613861387</v>
       </c>
       <c r="O15" s="6">
         <f>$B16/D16</f>
-        <v>4.5957446808510642</v>
+        <v>4</v>
       </c>
       <c r="P15" s="7">
         <f t="shared" ref="P15:P19" si="4">$B16/E16</f>
-        <v>4.6956521739130439</v>
+        <v>5.4</v>
       </c>
       <c r="R15" s="14">
         <f t="shared" ref="R15:R19" si="5">R14*2</f>
@@ -7472,15 +7472,15 @@
       </c>
       <c r="S15" s="4">
         <f t="shared" ref="S15:S19" si="6">N15/S$12</f>
-        <v>2.347826086956522</v>
+        <v>1.0693069306930694</v>
       </c>
       <c r="T15" s="4">
         <f t="shared" ref="T15:T19" si="7">O15/T$12</f>
-        <v>1.1489361702127661</v>
+        <v>1</v>
       </c>
       <c r="U15" s="5">
         <f t="shared" ref="U15:U19" si="8">P15/U$12</f>
-        <v>0.58695652173913049</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
@@ -7491,13 +7491,13 @@
         <v>216</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="3"/>
@@ -7505,15 +7505,15 @@
       </c>
       <c r="N16" s="6">
         <f t="shared" si="0"/>
-        <v>5.8445945945945947</v>
+        <v>2.1358024691358026</v>
       </c>
       <c r="O16" s="6">
         <f>$B17/D17</f>
-        <v>5.8053691275167782</v>
+        <v>4.0995260663507107</v>
       </c>
       <c r="P16" s="7">
         <f t="shared" si="4"/>
-        <v>5.8445945945945947</v>
+        <v>6.1785714285714288</v>
       </c>
       <c r="R16" s="14">
         <f t="shared" si="5"/>
@@ -7521,15 +7521,15 @@
       </c>
       <c r="S16" s="4">
         <f t="shared" si="6"/>
-        <v>2.9222972972972974</v>
+        <v>1.0679012345679013</v>
       </c>
       <c r="T16" s="4">
         <f t="shared" si="7"/>
-        <v>1.4513422818791946</v>
+        <v>1.0248815165876777</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" si="8"/>
-        <v>0.73057432432432434</v>
+        <v>0.7723214285714286</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7540,13 +7540,13 @@
         <v>865</v>
       </c>
       <c r="C17">
-        <v>148</v>
+        <v>405</v>
       </c>
       <c r="D17">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="E17">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="3"/>
@@ -7554,15 +7554,15 @@
       </c>
       <c r="N17" s="6">
         <f t="shared" si="0"/>
-        <v>6.3614678899082566</v>
+        <v>2.148079306071871</v>
       </c>
       <c r="O17" s="6">
         <f>$B18/D18</f>
-        <v>6.3848987108655617</v>
+        <v>4.1520958083832333</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="4"/>
-        <v>6.3498168498168495</v>
+        <v>6.3966789667896675</v>
       </c>
       <c r="R17" s="14">
         <f t="shared" si="5"/>
@@ -7570,15 +7570,15 @@
       </c>
       <c r="S17" s="4">
         <f t="shared" si="6"/>
-        <v>3.1807339449541283</v>
+        <v>1.0740396530359355</v>
       </c>
       <c r="T17" s="4">
         <f t="shared" si="7"/>
-        <v>1.5962246777163904</v>
+        <v>1.0380239520958083</v>
       </c>
       <c r="U17" s="5">
         <f t="shared" si="8"/>
-        <v>0.79372710622710618</v>
+        <v>0.79958487084870844</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7589,13 +7589,13 @@
         <v>3467</v>
       </c>
       <c r="C18">
-        <v>545</v>
+        <v>1614</v>
       </c>
       <c r="D18">
-        <v>543</v>
+        <v>835</v>
       </c>
       <c r="E18">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" si="3"/>
@@ -7603,15 +7603,15 @@
       </c>
       <c r="N18" s="6">
         <f t="shared" si="0"/>
-        <v>6.5361702127659571</v>
+        <v>2.136960890400371</v>
       </c>
       <c r="O18" s="6">
         <f>$B19/D19</f>
-        <v>6.4688816097332706</v>
+        <v>4.0947867298578196</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" si="4"/>
-        <v>6.5238319962246338</v>
+        <v>6.355862068965517</v>
       </c>
       <c r="R18" s="14">
         <f t="shared" si="5"/>
@@ -7619,15 +7619,15 @@
       </c>
       <c r="S18" s="4">
         <f t="shared" si="6"/>
-        <v>3.2680851063829786</v>
+        <v>1.0684804452001855</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" si="7"/>
-        <v>1.6172204024333177</v>
+        <v>1.0236966824644549</v>
       </c>
       <c r="U18" s="5">
         <f t="shared" si="8"/>
-        <v>0.81547899952807923</v>
+        <v>0.79448275862068962</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7638,13 +7638,13 @@
         <v>13824</v>
       </c>
       <c r="C19">
-        <v>2115</v>
+        <v>6469</v>
       </c>
       <c r="D19">
-        <v>2137</v>
+        <v>3376</v>
       </c>
       <c r="E19">
-        <v>2119</v>
+        <v>2175</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="3"/>
@@ -7652,15 +7652,15 @@
       </c>
       <c r="N19" s="8">
         <f t="shared" si="0"/>
-        <v>6.2978213756130943</v>
+        <v>2.1309532998842147</v>
       </c>
       <c r="O19" s="8">
         <f>$B20/D20</f>
-        <v>6.5379514505624634</v>
+        <v>3.9412520522521235</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="4"/>
-        <v>6.6107519157088124</v>
+        <v>6.3815302820157189</v>
       </c>
       <c r="R19" s="15">
         <f t="shared" si="5"/>
@@ -7668,15 +7668,15 @@
       </c>
       <c r="S19" s="10">
         <f t="shared" si="6"/>
-        <v>3.1489106878065471</v>
+        <v>1.0654766499421073</v>
       </c>
       <c r="T19" s="10">
         <f t="shared" si="7"/>
-        <v>1.6344878626406159</v>
+        <v>0.98531301306303087</v>
       </c>
       <c r="U19" s="11">
         <f t="shared" si="8"/>
-        <v>0.82634398946360155</v>
+        <v>0.79769128525196487</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7687,13 +7687,13 @@
         <v>55213</v>
       </c>
       <c r="C20">
-        <v>8767</v>
+        <v>25910</v>
       </c>
       <c r="D20">
-        <v>8445</v>
+        <v>14009</v>
       </c>
       <c r="E20">
-        <v>8352</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>Average</t>
   </si>
@@ -386,6 +386,9 @@
   <si>
     <t>Speedup</t>
   </si>
+  <si>
+    <t>Total Cores</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -585,11 +588,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,6 +675,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3435,25 +3539,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.40625</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7723214285714286</c:v>
+                  <c:v>1.5446428571428572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79958487084870844</c:v>
+                  <c:v>1.5991697416974169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79448275862068962</c:v>
+                  <c:v>1.5889655172413792</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79769128525196487</c:v>
+                  <c:v>1.5953825705039297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,6 +3885,2085 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.859375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291.64556962025318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>297.32364028002155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.51612903225805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251.231884057971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.06422018348621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.41183574879227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$52:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.9264705882353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.79310344827587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.67067764407852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.8421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268.75968992248062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328.36104513064134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.89226869455001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.69230769230768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>331.51079136690646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350.11414077362082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.2857142857142865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169.60784313725492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260.6766917293233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319.26096997690536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.2283364958887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272.99212598425197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.99065420560748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351.89929891650729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2B12-4574-B53D-BD8D0AAE732C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="437083216"/>
+        <c:axId val="437084856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437083216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437084856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437084856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Multiplier</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437083216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Efficiency - 2048 Available GPU Cores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8214285714285721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.033163265306122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.9287109375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.227848101265824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.582727517501347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$78:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33854166666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88815789473684215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9852941176470589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3598790322580641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8509963768115938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9082568807339442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.419119867149758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$78:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44407894736842107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.205357142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7582908163265305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9832261029411766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4636043381887269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$78:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.3453947368421052E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22203947368421054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5818965517241379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3515625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0996850775193798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5653206650831355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.733533349176172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$78:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3854166666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1171875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29094827586206895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68957270408163263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0417668269230769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2949640287769784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3676333623969563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$78:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8136160714285716E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.859375E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14547413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33126531862745101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50913416353383456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62355658198614328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68208659471853261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$78:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5390625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.511160714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3920454545454544E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14078776041666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26659387303149606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31542056074766356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34365165909815165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-756D-4540-BB90-582EDF4ADE84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="554412472"/>
+        <c:axId val="554398696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554412472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554398696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554398696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554412472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3941,6 +6124,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -5479,6 +7742,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6318,6 +9613,66 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1102179</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6803</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1040946</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>51706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6661,10 +10016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ46"/>
+  <dimension ref="A1:BQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7381,8 +10736,8 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="U13" si="2">P13/U$12</f>
-        <v>0.40625</v>
+        <f>P13/4</f>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
@@ -7430,8 +10785,8 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="U14" s="5">
-        <f>P14/U$12</f>
-        <v>0.67500000000000004</v>
+        <f t="shared" ref="U14:U19" si="2">P14/4</f>
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
@@ -7479,8 +10834,8 @@
         <v>1</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" ref="U15:U19" si="8">P15/U$12</f>
-        <v>0.67500000000000004</v>
+        <f t="shared" si="2"/>
+        <v>1.35</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
@@ -7528,8 +10883,8 @@
         <v>1.0248815165876777</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="8"/>
-        <v>0.7723214285714286</v>
+        <f t="shared" si="2"/>
+        <v>1.5446428571428572</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7577,8 +10932,8 @@
         <v>1.0380239520958083</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="8"/>
-        <v>0.79958487084870844</v>
+        <f t="shared" si="2"/>
+        <v>1.5991697416974169</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7626,8 +10981,8 @@
         <v>1.0236966824644549</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="8"/>
-        <v>0.79448275862068962</v>
+        <f t="shared" si="2"/>
+        <v>1.5889655172413792</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -7674,9 +11029,9 @@
         <f t="shared" si="7"/>
         <v>0.98531301306303087</v>
       </c>
-      <c r="U19" s="11">
-        <f t="shared" si="8"/>
-        <v>0.79769128525196487</v>
+      <c r="U19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5953825705039297</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -8155,6 +11510,542 @@
         <v>156.9</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="33">
+        <v>16</v>
+      </c>
+      <c r="C51" s="34">
+        <v>32</v>
+      </c>
+      <c r="D51" s="34">
+        <v>64</v>
+      </c>
+      <c r="E51" s="34">
+        <v>128</v>
+      </c>
+      <c r="F51" s="34">
+        <v>256</v>
+      </c>
+      <c r="G51" s="34">
+        <v>512</v>
+      </c>
+      <c r="H51" s="35">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="41">
+        <v>512</v>
+      </c>
+      <c r="B52" s="36">
+        <f>$B14/B40</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C52" s="37">
+        <f t="shared" ref="C52:H52" si="8">$B14/C40</f>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="D52" s="37">
+        <f t="shared" si="8"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="E52" s="37">
+        <f t="shared" si="8"/>
+        <v>6.8421052631578947</v>
+      </c>
+      <c r="F52" s="37">
+        <f t="shared" si="8"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G52" s="37">
+        <f t="shared" si="8"/>
+        <v>9.2857142857142865</v>
+      </c>
+      <c r="H52" s="38">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="42">
+        <v>1024</v>
+      </c>
+      <c r="B53" s="39">
+        <f t="shared" ref="B53:H58" si="9">$B15/B41</f>
+        <v>30</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="9"/>
+        <v>28.421052631578949</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="9"/>
+        <v>28.421052631578949</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="9"/>
+        <v>28.421052631578949</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="9"/>
+        <v>25.714285714285712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="42">
+        <v>2048</v>
+      </c>
+      <c r="B54" s="39">
+        <f t="shared" si="9"/>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="9"/>
+        <v>63.529411764705884</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="9"/>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="9"/>
+        <v>74.482758620689651</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="9"/>
+        <v>74.482758620689651</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="9"/>
+        <v>74.482758620689651</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="9"/>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="42">
+        <v>4096</v>
+      </c>
+      <c r="B55" s="39">
+        <f t="shared" si="9"/>
+        <v>176.53061224489795</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="9"/>
+        <v>139.51612903225805</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="9"/>
+        <v>176.53061224489795</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="9"/>
+        <v>176.53061224489795</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="9"/>
+        <v>169.60784313725492</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="9"/>
+        <v>144.16666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="42">
+        <v>8192</v>
+      </c>
+      <c r="B56" s="39">
+        <f t="shared" si="9"/>
+        <v>270.859375</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="9"/>
+        <v>251.231884057971</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="9"/>
+        <v>254.9264705882353</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="9"/>
+        <v>268.75968992248062</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="9"/>
+        <v>266.69230769230768</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="9"/>
+        <v>260.6766917293233</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="9"/>
+        <v>272.99212598425197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="42">
+        <v>16384</v>
+      </c>
+      <c r="B57" s="39">
+        <f t="shared" si="9"/>
+        <v>291.64556962025318</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" si="9"/>
+        <v>317.06422018348621</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="9"/>
+        <v>317.79310344827587</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="9"/>
+        <v>328.36104513064134</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="9"/>
+        <v>331.51079136690646</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="9"/>
+        <v>319.26096997690536</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="9"/>
+        <v>322.99065420560748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>32768</v>
+      </c>
+      <c r="B58" s="40">
+        <f t="shared" si="9"/>
+        <v>297.32364028002155</v>
+      </c>
+      <c r="C58" s="8">
+        <f t="shared" si="9"/>
+        <v>333.41183574879227</v>
+      </c>
+      <c r="D58" s="8">
+        <f t="shared" si="9"/>
+        <v>349.67067764407852</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" si="9"/>
+        <v>349.89226869455001</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="9"/>
+        <v>350.11414077362082</v>
+      </c>
+      <c r="G58" s="8">
+        <f t="shared" si="9"/>
+        <v>349.2283364958887</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="9"/>
+        <v>351.89929891650729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="47">
+        <v>16</v>
+      </c>
+      <c r="C77" s="48">
+        <v>32</v>
+      </c>
+      <c r="D77" s="48">
+        <v>64</v>
+      </c>
+      <c r="E77" s="48">
+        <v>128</v>
+      </c>
+      <c r="F77" s="48">
+        <v>256</v>
+      </c>
+      <c r="G77" s="48">
+        <v>512</v>
+      </c>
+      <c r="H77" s="49">
+        <v>1024</v>
+      </c>
+      <c r="I77" s="51">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="44">
+        <v>512</v>
+      </c>
+      <c r="B78" s="27">
+        <f>B52/B$77</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C78" s="28">
+        <f t="shared" ref="C78:H78" si="10">C52/C$77</f>
+        <v>0.33854166666666669</v>
+      </c>
+      <c r="D78" s="28">
+        <f t="shared" si="10"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E78" s="28">
+        <f t="shared" si="10"/>
+        <v>5.3453947368421052E-2</v>
+      </c>
+      <c r="F78" s="28">
+        <f t="shared" si="10"/>
+        <v>3.3854166666666664E-2</v>
+      </c>
+      <c r="G78" s="28">
+        <f t="shared" si="10"/>
+        <v>1.8136160714285716E-2</v>
+      </c>
+      <c r="H78" s="29">
+        <f t="shared" si="10"/>
+        <v>2.5390625E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="45">
+        <v>1024</v>
+      </c>
+      <c r="B79" s="30">
+        <f t="shared" ref="B79:H79" si="11">B53/B$77</f>
+        <v>1.875</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="11"/>
+        <v>0.88815789473684215</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="11"/>
+        <v>0.44407894736842107</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="11"/>
+        <v>0.22203947368421054</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" si="11"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="G79" s="4">
+        <f t="shared" si="11"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" si="11"/>
+        <v>2.511160714285714E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="45">
+        <v>2048</v>
+      </c>
+      <c r="B80" s="30">
+        <f t="shared" ref="B80:H80" si="12">B54/B$77</f>
+        <v>4.8214285714285721</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="12"/>
+        <v>1.9852941176470589</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="12"/>
+        <v>1.205357142857143</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="12"/>
+        <v>0.5818965517241379</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" si="12"/>
+        <v>0.29094827586206895</v>
+      </c>
+      <c r="G80" s="4">
+        <f t="shared" si="12"/>
+        <v>0.14547413793103448</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="12"/>
+        <v>6.3920454545454544E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="45">
+        <v>4096</v>
+      </c>
+      <c r="B81" s="30">
+        <f t="shared" ref="B81:H81" si="13">B55/B$77</f>
+        <v>11.033163265306122</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="13"/>
+        <v>4.3598790322580641</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="13"/>
+        <v>2.7582908163265305</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3515625</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" si="13"/>
+        <v>0.68957270408163263</v>
+      </c>
+      <c r="G81" s="4">
+        <f t="shared" si="13"/>
+        <v>0.33126531862745101</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="13"/>
+        <v>0.14078776041666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="45">
+        <v>8192</v>
+      </c>
+      <c r="B82" s="30">
+        <f t="shared" ref="B82:H82" si="14">B56/B$77</f>
+        <v>16.9287109375</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="14"/>
+        <v>7.8509963768115938</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="14"/>
+        <v>3.9832261029411766</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="14"/>
+        <v>2.0996850775193798</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" si="14"/>
+        <v>1.0417668269230769</v>
+      </c>
+      <c r="G82" s="4">
+        <f t="shared" si="14"/>
+        <v>0.50913416353383456</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="14"/>
+        <v>0.26659387303149606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="45">
+        <v>16384</v>
+      </c>
+      <c r="B83" s="30">
+        <f t="shared" ref="B83:H83" si="15">B57/B$77</f>
+        <v>18.227848101265824</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="15"/>
+        <v>9.9082568807339442</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="15"/>
+        <v>4.9655172413793105</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="15"/>
+        <v>2.5653206650831355</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="15"/>
+        <v>1.2949640287769784</v>
+      </c>
+      <c r="G83" s="4">
+        <f t="shared" si="15"/>
+        <v>0.62355658198614328</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" si="15"/>
+        <v>0.31542056074766356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="46">
+        <v>32768</v>
+      </c>
+      <c r="B84" s="31">
+        <f t="shared" ref="B84:H84" si="16">B58/B$77</f>
+        <v>18.582727517501347</v>
+      </c>
+      <c r="C84" s="10">
+        <f t="shared" si="16"/>
+        <v>10.419119867149758</v>
+      </c>
+      <c r="D84" s="10">
+        <f t="shared" si="16"/>
+        <v>5.4636043381887269</v>
+      </c>
+      <c r="E84" s="10">
+        <f t="shared" si="16"/>
+        <v>2.733533349176172</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" si="16"/>
+        <v>1.3676333623969563</v>
+      </c>
+      <c r="G84" s="10">
+        <f t="shared" si="16"/>
+        <v>0.68208659471853261</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="16"/>
+        <v>0.34365165909815165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -446,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -592,21 +592,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -627,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -678,18 +663,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -701,32 +677,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,10 +696,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -759,1042 +723,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>GPU Time - Threads Per</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Block</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$40:$H$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>156.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$40:$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$40:$F$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>157.69999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$40:$E$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>157.80000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$40:$D$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>157.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3721-4F18-A565-A35D78511B45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$40:$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>165.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F373-49D4-AF90-8787A45377BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$40:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$40:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>185.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F373-49D4-AF90-8787A45377BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="586305168"/>
-        <c:axId val="586303528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="586305168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Particles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586303528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="586303528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586305168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.38642633526230907"/>
-          <c:y val="0.94845650851433683"/>
-          <c:w val="0.29938580939229481"/>
-          <c:h val="4.1558301538041499E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2550,7 +1478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3214,7 +2142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3885,7 +2813,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3966,7 +2894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>Sheet1!$C$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4019,7 +2947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$58</c:f>
+              <c:f>Sheet1!$C$52:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4059,7 +2987,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
+              <c:f>Sheet1!$D$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4112,7 +3040,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$58</c:f>
+              <c:f>Sheet1!$D$52:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4152,7 +3080,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$51</c:f>
+              <c:f>Sheet1!$E$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4205,7 +3133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$52:$D$58</c:f>
+              <c:f>Sheet1!$E$52:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4245,7 +3173,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$51</c:f>
+              <c:f>Sheet1!$F$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4298,7 +3226,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$E$58</c:f>
+              <c:f>Sheet1!$F$52:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4338,7 +3266,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$51</c:f>
+              <c:f>Sheet1!$G$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4391,7 +3319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$52:$F$58</c:f>
+              <c:f>Sheet1!$G$52:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4431,7 +3359,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$51</c:f>
+              <c:f>Sheet1!$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4484,7 +3412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$52:$G$58</c:f>
+              <c:f>Sheet1!$H$52:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4524,7 +3452,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$51</c:f>
+              <c:f>Sheet1!$I$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4579,7 +3507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:f>Sheet1!$I$52:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4927,7 +3855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5004,11 +3932,76 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.736263736263737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.218658892128282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.796130952380953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.853749766224048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E951-4685-AEC8-A6D401D8500C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5061,7 +4054,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$78:$B$84</c:f>
+              <c:f>Sheet1!$C$78:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5098,10 +4091,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$77</c:f>
+              <c:f>Sheet1!$D$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5154,7 +4147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$78:$C$84</c:f>
+              <c:f>Sheet1!$D$78:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5191,10 +4184,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$77</c:f>
+              <c:f>Sheet1!$E$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5247,7 +4240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$78:$D$84</c:f>
+              <c:f>Sheet1!$E$78:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5284,10 +4277,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$77</c:f>
+              <c:f>Sheet1!$F$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5340,7 +4333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$78:$E$84</c:f>
+              <c:f>Sheet1!$F$78:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5377,10 +4370,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$77</c:f>
+              <c:f>Sheet1!$G$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5433,7 +4426,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$78:$F$84</c:f>
+              <c:f>Sheet1!$G$78:$G$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5470,10 +4463,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$77</c:f>
+              <c:f>Sheet1!$H$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5526,7 +4519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$78:$G$84</c:f>
+              <c:f>Sheet1!$H$78:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5563,10 +4556,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$77</c:f>
+              <c:f>Sheet1!$I$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5621,7 +4614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$78:$H$84</c:f>
+              <c:f>Sheet1!$I$78:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5884,6 +4877,1121 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="554412472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Time - Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Per Block</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.736263736263737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.218658892128282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.796130952380953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.853749766224048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.859375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291.64556962025318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>297.32364028002155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$52:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.51612903225805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251.231884057971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.06422018348621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.41183574879227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.9264705882353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.79310344827587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.67067764407852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.8421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268.75968992248062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328.36104513064134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.89226869455001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.69230769230768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>331.51079136690646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350.11414077362082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.2857142857142865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.482758620689651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169.60784313725492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260.6766917293233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319.26096997690536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.2283364958887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272.99212598425197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.99065420560748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351.89929891650729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5443-4526-976E-09FBC0323427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="634866120"/>
+        <c:axId val="634866448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="634866120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634866448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="634866448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634866120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6205,511 +6313,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7225,7 +6828,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7741,7 +7344,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8257,7 +7860,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8773,7 +8376,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9289,38 +8892,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>804301</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>182655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>870976</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -9358,7 +9434,7 @@
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
@@ -9454,7 +9530,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9497,7 +9573,7 @@
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
@@ -9617,20 +9693,50 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1102179</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>106136</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1197429</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74837</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>84363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1158876</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9647,20 +9753,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6803</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428623</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1040946</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>51706</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>925286</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9676,69 +9782,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.24169</cdr:x>
-      <cdr:y>0.94318</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.3935</cdr:x>
-      <cdr:y>0.99456</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2578166" y="6557413"/>
-          <a:ext cx="1619395" cy="357217"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Threads Per</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Block: </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10016,10 +10059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ84"/>
+  <dimension ref="A1:BQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11306,25 +11349,28 @@
     </row>
     <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1">
+      <c r="B39" s="43">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>16</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>32</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>64</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>128</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>256</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>512</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>1024</v>
       </c>
     </row>
@@ -11336,21 +11382,24 @@
         <v>1.5</v>
       </c>
       <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40">
         <v>1.2</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.5</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1.9</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1.5</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.4</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.5</v>
       </c>
     </row>
@@ -11359,10 +11408,10 @@
         <v>1024</v>
       </c>
       <c r="B41">
+        <v>3.2</v>
+      </c>
+      <c r="C41">
         <v>1.8</v>
-      </c>
-      <c r="C41">
-        <v>1.9</v>
       </c>
       <c r="D41">
         <v>1.9</v>
@@ -11371,12 +11420,15 @@
         <v>1.9</v>
       </c>
       <c r="F41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G41">
         <v>1.8</v>
       </c>
       <c r="H41">
+        <v>1.8</v>
+      </c>
+      <c r="I41">
         <v>2.1</v>
       </c>
     </row>
@@ -11385,16 +11437,16 @@
         <v>2048</v>
       </c>
       <c r="B42">
+        <v>9.1</v>
+      </c>
+      <c r="C42">
         <v>2.8</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>3.4</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2.8</v>
-      </c>
-      <c r="E42">
-        <v>2.9</v>
       </c>
       <c r="F42">
         <v>2.9</v>
@@ -11403,6 +11455,9 @@
         <v>2.9</v>
       </c>
       <c r="H42">
+        <v>2.9</v>
+      </c>
+      <c r="I42">
         <v>3.3</v>
       </c>
     </row>
@@ -11411,24 +11466,27 @@
         <v>4096</v>
       </c>
       <c r="B43">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>6.2</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>5</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>6</v>
       </c>
     </row>
@@ -11437,24 +11495,27 @@
         <v>8192</v>
       </c>
       <c r="B44">
+        <v>134.4</v>
+      </c>
+      <c r="C44">
         <v>12.8</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>13.8</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>13.6</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>12.9</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>13</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>13.3</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>12.7</v>
       </c>
     </row>
@@ -11462,25 +11523,28 @@
       <c r="A45" s="1">
         <v>16384</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
+        <v>534.70000000000005</v>
+      </c>
+      <c r="C45">
         <v>47.4</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>43.6</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>43.5</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>42.1</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>41.7</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>43.3</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>42.8</v>
       </c>
     </row>
@@ -11488,563 +11552,651 @@
       <c r="A46" s="1">
         <v>32768</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="44">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>185.7</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>165.6</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>157.9</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>157.80000000000001</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>157.69999999999999</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>158.1</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>156.9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="28"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="33">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="45">
+        <v>1</v>
+      </c>
+      <c r="C51" s="40">
         <v>16</v>
       </c>
-      <c r="C51" s="34">
+      <c r="D51" s="40">
         <v>32</v>
       </c>
-      <c r="D51" s="34">
+      <c r="E51" s="40">
         <v>64</v>
       </c>
-      <c r="E51" s="34">
+      <c r="F51" s="40">
         <v>128</v>
       </c>
-      <c r="F51" s="34">
+      <c r="G51" s="40">
         <v>256</v>
       </c>
-      <c r="G51" s="34">
+      <c r="H51" s="40">
         <v>512</v>
       </c>
-      <c r="H51" s="35">
+      <c r="I51" s="41">
         <v>1024</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="37">
         <v>512</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="33">
         <f>$B14/B40</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="C52" s="37">
-        <f t="shared" ref="C52:H52" si="8">$B14/C40</f>
+      <c r="C52" s="34">
+        <f>$B14/C40</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="D52" s="34">
+        <f>$B14/D40</f>
         <v>10.833333333333334</v>
       </c>
-      <c r="D52" s="37">
+      <c r="E52" s="34">
+        <f>$B14/E40</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F52" s="34">
+        <f>$B14/F40</f>
+        <v>6.8421052631578947</v>
+      </c>
+      <c r="G52" s="34">
+        <f>$B14/G40</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="H52" s="34">
+        <f>$B14/H40</f>
+        <v>9.2857142857142865</v>
+      </c>
+      <c r="I52" s="35">
+        <f>$B14/I40</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="38">
+        <v>1024</v>
+      </c>
+      <c r="B53" s="36">
+        <f t="shared" ref="B53:B57" si="8">$B15/B41</f>
+        <v>16.875</v>
+      </c>
+      <c r="C53" s="6">
+        <f>$B15/C41</f>
+        <v>30</v>
+      </c>
+      <c r="D53" s="6">
+        <f>$B15/D41</f>
+        <v>28.421052631578949</v>
+      </c>
+      <c r="E53" s="6">
+        <f>$B15/E41</f>
+        <v>28.421052631578949</v>
+      </c>
+      <c r="F53" s="6">
+        <f>$B15/F41</f>
+        <v>28.421052631578949</v>
+      </c>
+      <c r="G53" s="6">
+        <f>$B15/G41</f>
+        <v>30</v>
+      </c>
+      <c r="H53" s="6">
+        <f>$B15/H41</f>
+        <v>30</v>
+      </c>
+      <c r="I53" s="7">
+        <f>$B15/I41</f>
+        <v>25.714285714285712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="38">
+        <v>2048</v>
+      </c>
+      <c r="B54" s="36">
         <f t="shared" si="8"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="E52" s="37">
+        <v>23.736263736263737</v>
+      </c>
+      <c r="C54" s="6">
+        <f>$B16/C42</f>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="D54" s="6">
+        <f>$B16/D42</f>
+        <v>63.529411764705884</v>
+      </c>
+      <c r="E54" s="6">
+        <f>$B16/E42</f>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="F54" s="6">
+        <f>$B16/F42</f>
+        <v>74.482758620689651</v>
+      </c>
+      <c r="G54" s="6">
+        <f>$B16/G42</f>
+        <v>74.482758620689651</v>
+      </c>
+      <c r="H54" s="6">
+        <f>$B16/H42</f>
+        <v>74.482758620689651</v>
+      </c>
+      <c r="I54" s="7">
+        <f>$B16/I42</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="38">
+        <v>4096</v>
+      </c>
+      <c r="B55" s="36">
         <f t="shared" si="8"/>
-        <v>6.8421052631578947</v>
-      </c>
-      <c r="F52" s="37">
+        <v>25.218658892128282</v>
+      </c>
+      <c r="C55" s="6">
+        <f>$B17/C43</f>
+        <v>176.53061224489795</v>
+      </c>
+      <c r="D55" s="6">
+        <f>$B17/D43</f>
+        <v>139.51612903225805</v>
+      </c>
+      <c r="E55" s="6">
+        <f>$B17/E43</f>
+        <v>176.53061224489795</v>
+      </c>
+      <c r="F55" s="6">
+        <f>$B17/F43</f>
+        <v>173</v>
+      </c>
+      <c r="G55" s="6">
+        <f>$B17/G43</f>
+        <v>176.53061224489795</v>
+      </c>
+      <c r="H55" s="6">
+        <f>$B17/H43</f>
+        <v>169.60784313725492</v>
+      </c>
+      <c r="I55" s="7">
+        <f>$B17/I43</f>
+        <v>144.16666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="38">
+        <v>8192</v>
+      </c>
+      <c r="B56" s="36">
         <f t="shared" si="8"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="G52" s="37">
+        <v>25.796130952380953</v>
+      </c>
+      <c r="C56" s="6">
+        <f>$B18/C44</f>
+        <v>270.859375</v>
+      </c>
+      <c r="D56" s="6">
+        <f>$B18/D44</f>
+        <v>251.231884057971</v>
+      </c>
+      <c r="E56" s="6">
+        <f>$B18/E44</f>
+        <v>254.9264705882353</v>
+      </c>
+      <c r="F56" s="6">
+        <f>$B18/F44</f>
+        <v>268.75968992248062</v>
+      </c>
+      <c r="G56" s="6">
+        <f>$B18/G44</f>
+        <v>266.69230769230768</v>
+      </c>
+      <c r="H56" s="6">
+        <f>$B18/H44</f>
+        <v>260.6766917293233</v>
+      </c>
+      <c r="I56" s="7">
+        <f>$B18/I44</f>
+        <v>272.99212598425197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="38">
+        <v>16384</v>
+      </c>
+      <c r="B57" s="36">
         <f t="shared" si="8"/>
-        <v>9.2857142857142865</v>
-      </c>
-      <c r="H52" s="38">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <v>25.853749766224048</v>
+      </c>
+      <c r="C57" s="6">
+        <f>$B19/C45</f>
+        <v>291.64556962025318</v>
+      </c>
+      <c r="D57" s="6">
+        <f>$B19/D45</f>
+        <v>317.06422018348621</v>
+      </c>
+      <c r="E57" s="6">
+        <f>$B19/E45</f>
+        <v>317.79310344827587</v>
+      </c>
+      <c r="F57" s="6">
+        <f>$B19/F45</f>
+        <v>328.36104513064134</v>
+      </c>
+      <c r="G57" s="6">
+        <f>$B19/G45</f>
+        <v>331.51079136690646</v>
+      </c>
+      <c r="H57" s="6">
+        <f>$B19/H45</f>
+        <v>319.26096997690536</v>
+      </c>
+      <c r="I57" s="7">
+        <f>$B19/I45</f>
+        <v>322.99065420560748</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="42">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="39">
+        <v>32768</v>
+      </c>
+      <c r="B58" s="31">
+        <v>0</v>
+      </c>
+      <c r="C58" s="8">
+        <f>$B20/C46</f>
+        <v>297.32364028002155</v>
+      </c>
+      <c r="D58" s="8">
+        <f>$B20/D46</f>
+        <v>333.41183574879227</v>
+      </c>
+      <c r="E58" s="8">
+        <f>$B20/E46</f>
+        <v>349.67067764407852</v>
+      </c>
+      <c r="F58" s="8">
+        <f>$B20/F46</f>
+        <v>349.89226869455001</v>
+      </c>
+      <c r="G58" s="8">
+        <f>$B20/G46</f>
+        <v>350.11414077362082</v>
+      </c>
+      <c r="H58" s="8">
+        <f>$B20/H46</f>
+        <v>349.2283364958887</v>
+      </c>
+      <c r="I58" s="9">
+        <f>$B20/I46</f>
+        <v>351.89929891650729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="27">
+        <v>1</v>
+      </c>
+      <c r="C77" s="40">
+        <v>16</v>
+      </c>
+      <c r="D77" s="40">
+        <v>32</v>
+      </c>
+      <c r="E77" s="40">
+        <v>64</v>
+      </c>
+      <c r="F77" s="40">
+        <v>128</v>
+      </c>
+      <c r="G77" s="40">
+        <v>256</v>
+      </c>
+      <c r="H77" s="40">
+        <v>512</v>
+      </c>
+      <c r="I77" s="41">
         <v>1024</v>
       </c>
-      <c r="B53" s="39">
-        <f t="shared" ref="B53:H58" si="9">$B15/B41</f>
-        <v>30</v>
-      </c>
-      <c r="C53" s="6">
-        <f t="shared" si="9"/>
-        <v>28.421052631578949</v>
-      </c>
-      <c r="D53" s="6">
-        <f t="shared" si="9"/>
-        <v>28.421052631578949</v>
-      </c>
-      <c r="E53" s="6">
-        <f t="shared" si="9"/>
-        <v>28.421052631578949</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="H53" s="7">
-        <f t="shared" si="9"/>
-        <v>25.714285714285712</v>
+      <c r="J77" s="47">
+        <v>2048</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="42">
-        <v>2048</v>
-      </c>
-      <c r="B54" s="39">
-        <f t="shared" si="9"/>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="C54" s="6">
-        <f t="shared" si="9"/>
-        <v>63.529411764705884</v>
-      </c>
-      <c r="D54" s="6">
-        <f t="shared" si="9"/>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="E54" s="6">
-        <f t="shared" si="9"/>
-        <v>74.482758620689651</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" si="9"/>
-        <v>74.482758620689651</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="9"/>
-        <v>74.482758620689651</v>
-      </c>
-      <c r="H54" s="7">
-        <f t="shared" si="9"/>
-        <v>65.454545454545453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
-        <v>4096</v>
-      </c>
-      <c r="B55" s="39">
-        <f t="shared" si="9"/>
-        <v>176.53061224489795</v>
-      </c>
-      <c r="C55" s="6">
-        <f t="shared" si="9"/>
-        <v>139.51612903225805</v>
-      </c>
-      <c r="D55" s="6">
-        <f t="shared" si="9"/>
-        <v>176.53061224489795</v>
-      </c>
-      <c r="E55" s="6">
-        <f t="shared" si="9"/>
-        <v>173</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="9"/>
-        <v>176.53061224489795</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="9"/>
-        <v>169.60784313725492</v>
-      </c>
-      <c r="H55" s="7">
-        <f t="shared" si="9"/>
-        <v>144.16666666666666</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="42">
-        <v>8192</v>
-      </c>
-      <c r="B56" s="39">
-        <f t="shared" si="9"/>
-        <v>270.859375</v>
-      </c>
-      <c r="C56" s="6">
-        <f t="shared" si="9"/>
-        <v>251.231884057971</v>
-      </c>
-      <c r="D56" s="6">
-        <f t="shared" si="9"/>
-        <v>254.9264705882353</v>
-      </c>
-      <c r="E56" s="6">
-        <f t="shared" si="9"/>
-        <v>268.75968992248062</v>
-      </c>
-      <c r="F56" s="6">
-        <f t="shared" si="9"/>
-        <v>266.69230769230768</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="9"/>
-        <v>260.6766917293233</v>
-      </c>
-      <c r="H56" s="7">
-        <f t="shared" si="9"/>
-        <v>272.99212598425197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="42">
-        <v>16384</v>
-      </c>
-      <c r="B57" s="39">
-        <f t="shared" si="9"/>
-        <v>291.64556962025318</v>
-      </c>
-      <c r="C57" s="6">
-        <f t="shared" si="9"/>
-        <v>317.06422018348621</v>
-      </c>
-      <c r="D57" s="6">
-        <f t="shared" si="9"/>
-        <v>317.79310344827587</v>
-      </c>
-      <c r="E57" s="6">
-        <f t="shared" si="9"/>
-        <v>328.36104513064134</v>
-      </c>
-      <c r="F57" s="6">
-        <f t="shared" si="9"/>
-        <v>331.51079136690646</v>
-      </c>
-      <c r="G57" s="6">
-        <f t="shared" si="9"/>
-        <v>319.26096997690536</v>
-      </c>
-      <c r="H57" s="7">
-        <f t="shared" si="9"/>
-        <v>322.99065420560748</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
-        <v>32768</v>
-      </c>
-      <c r="B58" s="40">
-        <f t="shared" si="9"/>
-        <v>297.32364028002155</v>
-      </c>
-      <c r="C58" s="8">
-        <f t="shared" si="9"/>
-        <v>333.41183574879227</v>
-      </c>
-      <c r="D58" s="8">
-        <f t="shared" si="9"/>
-        <v>349.67067764407852</v>
-      </c>
-      <c r="E58" s="8">
-        <f t="shared" si="9"/>
-        <v>349.89226869455001</v>
-      </c>
-      <c r="F58" s="8">
-        <f t="shared" si="9"/>
-        <v>350.11414077362082</v>
-      </c>
-      <c r="G58" s="8">
-        <f t="shared" si="9"/>
-        <v>349.2283364958887</v>
-      </c>
-      <c r="H58" s="9">
-        <f t="shared" si="9"/>
-        <v>351.89929891650729</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="47">
-        <v>16</v>
-      </c>
-      <c r="C77" s="48">
-        <v>32</v>
-      </c>
-      <c r="D77" s="48">
-        <v>64</v>
-      </c>
-      <c r="E77" s="48">
-        <v>128</v>
-      </c>
-      <c r="F77" s="48">
-        <v>256</v>
-      </c>
-      <c r="G77" s="48">
-        <v>512</v>
-      </c>
-      <c r="H77" s="49">
-        <v>1024</v>
-      </c>
-      <c r="I77" s="51">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="44">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="37">
         <v>512</v>
       </c>
       <c r="B78" s="27">
         <f>B52/B$77</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C78" s="28">
+        <f>C52/C$77</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="C78" s="28">
-        <f t="shared" ref="C78:H78" si="10">C52/C$77</f>
+      <c r="D78" s="28">
+        <f t="shared" ref="D78:I78" si="9">D52/D$77</f>
         <v>0.33854166666666669</v>
       </c>
-      <c r="D78" s="28">
+      <c r="E78" s="28">
+        <f t="shared" si="9"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F78" s="28">
+        <f t="shared" si="9"/>
+        <v>5.3453947368421052E-2</v>
+      </c>
+      <c r="G78" s="28">
+        <f t="shared" si="9"/>
+        <v>3.3854166666666664E-2</v>
+      </c>
+      <c r="H78" s="28">
+        <f t="shared" si="9"/>
+        <v>1.8136160714285716E-2</v>
+      </c>
+      <c r="I78" s="29">
+        <f t="shared" si="9"/>
+        <v>2.5390625E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="38">
+        <v>1024</v>
+      </c>
+      <c r="B79" s="30">
+        <f t="shared" ref="B79:C84" si="10">B53/B$77</f>
+        <v>16.875</v>
+      </c>
+      <c r="C79" s="4">
         <f t="shared" si="10"/>
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="E78" s="28">
-        <f t="shared" si="10"/>
-        <v>5.3453947368421052E-2</v>
-      </c>
-      <c r="F78" s="28">
-        <f t="shared" si="10"/>
-        <v>3.3854166666666664E-2</v>
-      </c>
-      <c r="G78" s="28">
-        <f t="shared" si="10"/>
-        <v>1.8136160714285716E-2</v>
-      </c>
-      <c r="H78" s="29">
-        <f t="shared" si="10"/>
-        <v>2.5390625E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="45">
-        <v>1024</v>
-      </c>
-      <c r="B79" s="30">
-        <f t="shared" ref="B79:H79" si="11">B53/B$77</f>
         <v>1.875</v>
       </c>
-      <c r="C79" s="4">
-        <f t="shared" si="11"/>
+      <c r="D79" s="4">
+        <f t="shared" ref="D79:I79" si="11">D53/D$77</f>
         <v>0.88815789473684215</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <f t="shared" si="11"/>
         <v>0.44407894736842107</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <f t="shared" si="11"/>
         <v>0.22203947368421054</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <f t="shared" si="11"/>
         <v>0.1171875</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <f t="shared" si="11"/>
         <v>5.859375E-2</v>
       </c>
-      <c r="H79" s="5">
+      <c r="I79" s="5">
         <f t="shared" si="11"/>
         <v>2.511160714285714E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="45">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="38">
         <v>2048</v>
       </c>
       <c r="B80" s="30">
-        <f t="shared" ref="B80:H80" si="12">B54/B$77</f>
+        <f t="shared" si="10"/>
+        <v>23.736263736263737</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="10"/>
         <v>4.8214285714285721</v>
       </c>
-      <c r="C80" s="4">
-        <f t="shared" si="12"/>
+      <c r="D80" s="4">
+        <f t="shared" ref="D80:I80" si="12">D54/D$77</f>
         <v>1.9852941176470589</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <f t="shared" si="12"/>
         <v>1.205357142857143</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <f t="shared" si="12"/>
         <v>0.5818965517241379</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <f t="shared" si="12"/>
         <v>0.29094827586206895</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <f t="shared" si="12"/>
         <v>0.14547413793103448</v>
       </c>
-      <c r="H80" s="5">
+      <c r="I80" s="5">
         <f t="shared" si="12"/>
         <v>6.3920454545454544E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="45">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="38">
         <v>4096</v>
       </c>
       <c r="B81" s="30">
-        <f t="shared" ref="B81:H81" si="13">B55/B$77</f>
+        <f t="shared" si="10"/>
+        <v>25.218658892128282</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="10"/>
         <v>11.033163265306122</v>
       </c>
-      <c r="C81" s="4">
-        <f t="shared" si="13"/>
+      <c r="D81" s="4">
+        <f t="shared" ref="D81:I81" si="13">D55/D$77</f>
         <v>4.3598790322580641</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <f t="shared" si="13"/>
         <v>2.7582908163265305</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <f t="shared" si="13"/>
         <v>1.3515625</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <f t="shared" si="13"/>
         <v>0.68957270408163263</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <f t="shared" si="13"/>
         <v>0.33126531862745101</v>
       </c>
-      <c r="H81" s="5">
+      <c r="I81" s="5">
         <f t="shared" si="13"/>
         <v>0.14078776041666666</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="45">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="38">
         <v>8192</v>
       </c>
       <c r="B82" s="30">
-        <f t="shared" ref="B82:H82" si="14">B56/B$77</f>
+        <f t="shared" si="10"/>
+        <v>25.796130952380953</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="10"/>
         <v>16.9287109375</v>
       </c>
-      <c r="C82" s="4">
-        <f t="shared" si="14"/>
+      <c r="D82" s="4">
+        <f t="shared" ref="D82:I82" si="14">D56/D$77</f>
         <v>7.8509963768115938</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <f t="shared" si="14"/>
         <v>3.9832261029411766</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <f t="shared" si="14"/>
         <v>2.0996850775193798</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <f t="shared" si="14"/>
         <v>1.0417668269230769</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <f t="shared" si="14"/>
         <v>0.50913416353383456</v>
       </c>
-      <c r="H82" s="5">
+      <c r="I82" s="5">
         <f t="shared" si="14"/>
         <v>0.26659387303149606</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="45">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="38">
         <v>16384</v>
       </c>
       <c r="B83" s="30">
-        <f t="shared" ref="B83:H83" si="15">B57/B$77</f>
+        <f t="shared" si="10"/>
+        <v>25.853749766224048</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="10"/>
         <v>18.227848101265824</v>
       </c>
-      <c r="C83" s="4">
-        <f t="shared" si="15"/>
+      <c r="D83" s="4">
+        <f t="shared" ref="D83:I83" si="15">D57/D$77</f>
         <v>9.9082568807339442</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <f t="shared" si="15"/>
         <v>4.9655172413793105</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <f t="shared" si="15"/>
         <v>2.5653206650831355</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <f t="shared" si="15"/>
         <v>1.2949640287769784</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <f t="shared" si="15"/>
         <v>0.62355658198614328</v>
       </c>
-      <c r="H83" s="5">
+      <c r="I83" s="5">
         <f t="shared" si="15"/>
         <v>0.31542056074766356</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="46">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="39">
         <v>32768</v>
       </c>
       <c r="B84" s="31">
-        <f t="shared" ref="B84:H84" si="16">B58/B$77</f>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="10">
+        <f t="shared" si="10"/>
         <v>18.582727517501347</v>
       </c>
-      <c r="C84" s="10">
-        <f t="shared" si="16"/>
+      <c r="D84" s="10">
+        <f t="shared" ref="D84:I84" si="16">D58/D$77</f>
         <v>10.419119867149758</v>
       </c>
-      <c r="D84" s="10">
+      <c r="E84" s="10">
         <f t="shared" si="16"/>
         <v>5.4636043381887269</v>
       </c>
-      <c r="E84" s="10">
+      <c r="F84" s="10">
         <f t="shared" si="16"/>
         <v>2.733533349176172</v>
       </c>
-      <c r="F84" s="10">
+      <c r="G84" s="10">
         <f t="shared" si="16"/>
         <v>1.3676333623969563</v>
       </c>
-      <c r="G84" s="10">
+      <c r="H84" s="10">
         <f t="shared" si="16"/>
         <v>0.68208659471853261</v>
       </c>
-      <c r="H84" s="11">
+      <c r="I84" s="11">
         <f t="shared" si="16"/>
         <v>0.34365165909815165</v>
       </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$52:$I$58</definedName>
     <definedName name="delete" localSheetId="0">Sheet1!$A$6:$AD$7</definedName>
     <definedName name="delete_1" localSheetId="0">Sheet1!$A$35:$AP$36</definedName>
     <definedName name="delete_2" localSheetId="0">Sheet1!$A$67:$AP$68</definedName>
@@ -394,6 +395,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -620,21 +624,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,21 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -689,21 +664,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1614,7 +1624,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$13:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.1666666666666665</c:v>
@@ -1707,7 +1717,7 @@
             <c:numRef>
               <c:f>Sheet1!$O$13:$O$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.333333333333333</c:v>
@@ -1800,7 +1810,7 @@
             <c:numRef>
               <c:f>Sheet1!$P$13:$P$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.25</c:v>
@@ -2030,7 +2040,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2278,7 +2288,7 @@
             <c:numRef>
               <c:f>Sheet1!$S$13:$S$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0833333333333333</c:v>
@@ -2371,7 +2381,7 @@
             <c:numRef>
               <c:f>Sheet1!$T$13:$T$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0833333333333333</c:v>
@@ -2464,7 +2474,7 @@
             <c:numRef>
               <c:f>Sheet1!$U$13:$U$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.8125</c:v>
@@ -2701,7 +2711,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2949,7 +2959,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$52:$C$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -3042,7 +3052,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$52:$D$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10.833333333333334</c:v>
@@ -3135,7 +3145,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$52:$E$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -3228,7 +3238,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$52:$F$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.8421052631578947</c:v>
@@ -3321,7 +3331,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$52:$G$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -3414,7 +3424,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$52:$H$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.2857142857142865</c:v>
@@ -3509,7 +3519,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$52:$I$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
@@ -3743,7 +3753,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3963,7 +3973,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$78:$B$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -4056,7 +4066,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$78:$C$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.54166666666666663</c:v>
@@ -4149,7 +4159,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$78:$D$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.33854166666666669</c:v>
@@ -4242,7 +4252,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$78:$E$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.13541666666666666</c:v>
@@ -4335,7 +4345,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$78:$F$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.3453947368421052E-2</c:v>
@@ -4428,7 +4438,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$78:$G$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.3854166666666664E-2</c:v>
@@ -4521,7 +4531,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$78:$H$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.8136160714285716E-2</c:v>
@@ -4616,7 +4626,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$78:$I$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.5390625E-2</c:v>
@@ -4845,7 +4855,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5097,7 +5107,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$52:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -5187,7 +5197,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$52:$C$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -5277,7 +5287,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$52:$D$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10.833333333333334</c:v>
@@ -5367,7 +5377,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$52:$E$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -5457,7 +5467,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$52:$F$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.8421052631578947</c:v>
@@ -5547,7 +5557,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$52:$G$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -5639,7 +5649,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$52:$H$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.2857142857142865</c:v>
@@ -5731,7 +5741,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$52:$I$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
@@ -5960,7 +5970,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9785,15 +9795,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10061,8 +10071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10689,53 +10699,53 @@
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="18" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="18" t="s">
+      <c r="P10" s="16"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="23"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="M11" s="26"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="19" t="s">
+      <c r="M11" s="19"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="19" t="s">
+      <c r="P11" s="13"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="20"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="M12" s="25"/>
-      <c r="N12" s="12">
+      <c r="M12" s="18"/>
+      <c r="N12" s="5">
         <v>2</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="5">
         <v>4</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="6">
         <v>8</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="12">
+      <c r="R12" s="17"/>
+      <c r="S12" s="5">
         <v>2</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="5">
         <v>4</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="6">
         <v>8</v>
       </c>
     </row>
@@ -10752,33 +10762,33 @@
       <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="10">
         <v>512</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="33">
         <f t="shared" ref="N13:N19" si="0">$B14/C14</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="34">
         <f t="shared" ref="O13:P13" si="1">$B14/D14</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="35">
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="7">
         <v>512</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="42">
         <f>N13/S$12</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="43">
         <f>O13/T$12</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="44">
         <f>P13/4</f>
         <v>0.8125</v>
       </c>
@@ -10799,35 +10809,35 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="7">
         <f>M13*2</f>
         <v>1024</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="36">
         <f t="shared" si="0"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="37">
         <f>$B15/D15</f>
         <v>3.8571428571428572</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="38">
         <f>$B15/E15</f>
         <v>5.4</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="7">
         <f>R13*2</f>
         <v>1024</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="45">
         <f>N14/S$12</f>
         <v>1.0384615384615385</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="46">
         <f>O14/T$12</f>
         <v>0.9642857142857143</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="47">
         <f t="shared" ref="U14:U19" si="2">P14/4</f>
         <v>1.35</v>
       </c>
@@ -10848,35 +10858,35 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="7">
         <f t="shared" ref="M15:M19" si="3">M14*2</f>
         <v>2048</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="36">
         <f t="shared" si="0"/>
         <v>2.1386138613861387</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="37">
         <f>$B16/D16</f>
         <v>4</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="38">
         <f t="shared" ref="P15:P19" si="4">$B16/E16</f>
         <v>5.4</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="7">
         <f t="shared" ref="R15:R19" si="5">R14*2</f>
         <v>2048</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="45">
         <f t="shared" ref="S15:S19" si="6">N15/S$12</f>
         <v>1.0693069306930694</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="46">
         <f t="shared" ref="T15:T19" si="7">O15/T$12</f>
         <v>1</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="47">
         <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
@@ -10897,35 +10907,35 @@
       <c r="E16">
         <v>40</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="7">
         <f t="shared" si="3"/>
         <v>4096</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="36">
         <f t="shared" si="0"/>
         <v>2.1358024691358026</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="37">
         <f>$B17/D17</f>
         <v>4.0995260663507107</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="38">
         <f t="shared" si="4"/>
         <v>6.1785714285714288</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="7">
         <f t="shared" si="5"/>
         <v>4096</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="45">
         <f t="shared" si="6"/>
         <v>1.0679012345679013</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="46">
         <f t="shared" si="7"/>
         <v>1.0248815165876777</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="47">
         <f t="shared" si="2"/>
         <v>1.5446428571428572</v>
       </c>
@@ -10946,35 +10956,35 @@
       <c r="E17">
         <v>140</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="7">
         <f t="shared" si="3"/>
         <v>8192</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="36">
         <f t="shared" si="0"/>
         <v>2.148079306071871</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="37">
         <f>$B18/D18</f>
         <v>4.1520958083832333</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="38">
         <f t="shared" si="4"/>
         <v>6.3966789667896675</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="7">
         <f t="shared" si="5"/>
         <v>8192</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="45">
         <f t="shared" si="6"/>
         <v>1.0740396530359355</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="46">
         <f t="shared" si="7"/>
         <v>1.0380239520958083</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="47">
         <f t="shared" si="2"/>
         <v>1.5991697416974169</v>
       </c>
@@ -10995,35 +11005,35 @@
       <c r="E18">
         <v>542</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="7">
         <f t="shared" si="3"/>
         <v>16384</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="36">
         <f t="shared" si="0"/>
         <v>2.136960890400371</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="37">
         <f>$B19/D19</f>
         <v>4.0947867298578196</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="38">
         <f t="shared" si="4"/>
         <v>6.355862068965517</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="7">
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="45">
         <f t="shared" si="6"/>
         <v>1.0684804452001855</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="46">
         <f t="shared" si="7"/>
         <v>1.0236966824644549</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="47">
         <f t="shared" si="2"/>
         <v>1.5889655172413792</v>
       </c>
@@ -11044,35 +11054,35 @@
       <c r="E19">
         <v>2175</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="8">
         <f t="shared" si="3"/>
         <v>32768</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="51">
         <f t="shared" si="0"/>
         <v>2.1309532998842147</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="40">
         <f>$B20/D20</f>
         <v>3.9412520522521235</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="41">
         <f t="shared" si="4"/>
         <v>6.3815302820157189</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="8">
         <f t="shared" si="5"/>
         <v>32768</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="39">
         <f t="shared" si="6"/>
         <v>1.0654766499421073</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="48">
         <f t="shared" si="7"/>
         <v>0.98531301306303087</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="49">
         <f t="shared" si="2"/>
         <v>1.5953825705039297</v>
       </c>
@@ -11349,7 +11359,7 @@
     </row>
     <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="43">
+      <c r="B39" s="28">
         <v>1</v>
       </c>
       <c r="C39" s="1">
@@ -11552,7 +11562,7 @@
       <c r="A46" s="1">
         <v>32768</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="29">
         <v>0</v>
       </c>
       <c r="C46">
@@ -11581,601 +11591,601 @@
       <c r="D48" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="32" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="50">
         <v>1</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="23">
         <v>16</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="23">
         <v>32</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="23">
         <v>64</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="23">
         <v>128</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="23">
         <v>256</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="23">
         <v>512</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="32">
         <v>1024</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="37">
+      <c r="A52" s="24">
         <v>512</v>
       </c>
       <c r="B52" s="33">
-        <f>$B14/B40</f>
+        <f t="shared" ref="B52:I52" si="8">$B14/B40</f>
         <v>8.6666666666666661</v>
       </c>
       <c r="C52" s="34">
-        <f>$B14/C40</f>
+        <f t="shared" si="8"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="D52" s="34">
-        <f>$B14/D40</f>
+        <f t="shared" si="8"/>
         <v>10.833333333333334</v>
       </c>
       <c r="E52" s="34">
-        <f>$B14/E40</f>
+        <f t="shared" si="8"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="F52" s="34">
-        <f>$B14/F40</f>
+        <f t="shared" si="8"/>
         <v>6.8421052631578947</v>
       </c>
       <c r="G52" s="34">
-        <f>$B14/G40</f>
+        <f t="shared" si="8"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="H52" s="34">
-        <f>$B14/H40</f>
+        <f t="shared" si="8"/>
         <v>9.2857142857142865</v>
       </c>
       <c r="I52" s="35">
-        <f>$B14/I40</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="25">
         <v>1024</v>
       </c>
       <c r="B53" s="36">
-        <f t="shared" ref="B53:B57" si="8">$B15/B41</f>
+        <f t="shared" ref="B53:B57" si="9">$B15/B41</f>
         <v>16.875</v>
       </c>
-      <c r="C53" s="6">
-        <f>$B15/C41</f>
+      <c r="C53" s="37">
+        <f t="shared" ref="C53:I58" si="10">$B15/C41</f>
         <v>30</v>
       </c>
-      <c r="D53" s="6">
-        <f>$B15/D41</f>
+      <c r="D53" s="37">
+        <f t="shared" si="10"/>
         <v>28.421052631578949</v>
       </c>
-      <c r="E53" s="6">
-        <f>$B15/E41</f>
+      <c r="E53" s="37">
+        <f t="shared" si="10"/>
         <v>28.421052631578949</v>
       </c>
-      <c r="F53" s="6">
-        <f>$B15/F41</f>
+      <c r="F53" s="37">
+        <f t="shared" si="10"/>
         <v>28.421052631578949</v>
       </c>
-      <c r="G53" s="6">
-        <f>$B15/G41</f>
+      <c r="G53" s="37">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="H53" s="6">
-        <f>$B15/H41</f>
+      <c r="H53" s="37">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="I53" s="7">
-        <f>$B15/I41</f>
+      <c r="I53" s="38">
+        <f t="shared" si="10"/>
         <v>25.714285714285712</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="38">
+      <c r="A54" s="25">
         <v>2048</v>
       </c>
       <c r="B54" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.736263736263737</v>
       </c>
-      <c r="C54" s="6">
-        <f>$B16/C42</f>
+      <c r="C54" s="37">
+        <f t="shared" si="10"/>
         <v>77.142857142857153</v>
       </c>
-      <c r="D54" s="6">
-        <f>$B16/D42</f>
+      <c r="D54" s="37">
+        <f t="shared" si="10"/>
         <v>63.529411764705884</v>
       </c>
-      <c r="E54" s="6">
-        <f>$B16/E42</f>
+      <c r="E54" s="37">
+        <f t="shared" si="10"/>
         <v>77.142857142857153</v>
       </c>
-      <c r="F54" s="6">
-        <f>$B16/F42</f>
+      <c r="F54" s="37">
+        <f t="shared" si="10"/>
         <v>74.482758620689651</v>
       </c>
-      <c r="G54" s="6">
-        <f>$B16/G42</f>
+      <c r="G54" s="37">
+        <f t="shared" si="10"/>
         <v>74.482758620689651</v>
       </c>
-      <c r="H54" s="6">
-        <f>$B16/H42</f>
+      <c r="H54" s="37">
+        <f t="shared" si="10"/>
         <v>74.482758620689651</v>
       </c>
-      <c r="I54" s="7">
-        <f>$B16/I42</f>
+      <c r="I54" s="38">
+        <f t="shared" si="10"/>
         <v>65.454545454545453</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="38">
+      <c r="A55" s="25">
         <v>4096</v>
       </c>
       <c r="B55" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.218658892128282</v>
       </c>
-      <c r="C55" s="6">
-        <f>$B17/C43</f>
+      <c r="C55" s="37">
+        <f t="shared" si="10"/>
         <v>176.53061224489795</v>
       </c>
-      <c r="D55" s="6">
-        <f>$B17/D43</f>
+      <c r="D55" s="37">
+        <f t="shared" si="10"/>
         <v>139.51612903225805</v>
       </c>
-      <c r="E55" s="6">
-        <f>$B17/E43</f>
+      <c r="E55" s="37">
+        <f t="shared" si="10"/>
         <v>176.53061224489795</v>
       </c>
-      <c r="F55" s="6">
-        <f>$B17/F43</f>
+      <c r="F55" s="37">
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
-      <c r="G55" s="6">
-        <f>$B17/G43</f>
+      <c r="G55" s="37">
+        <f t="shared" si="10"/>
         <v>176.53061224489795</v>
       </c>
-      <c r="H55" s="6">
-        <f>$B17/H43</f>
+      <c r="H55" s="37">
+        <f t="shared" si="10"/>
         <v>169.60784313725492</v>
       </c>
-      <c r="I55" s="7">
-        <f>$B17/I43</f>
+      <c r="I55" s="38">
+        <f t="shared" si="10"/>
         <v>144.16666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="38">
+      <c r="A56" s="25">
         <v>8192</v>
       </c>
       <c r="B56" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.796130952380953</v>
       </c>
-      <c r="C56" s="6">
-        <f>$B18/C44</f>
+      <c r="C56" s="37">
+        <f t="shared" si="10"/>
         <v>270.859375</v>
       </c>
-      <c r="D56" s="6">
-        <f>$B18/D44</f>
+      <c r="D56" s="37">
+        <f t="shared" si="10"/>
         <v>251.231884057971</v>
       </c>
-      <c r="E56" s="6">
-        <f>$B18/E44</f>
+      <c r="E56" s="37">
+        <f t="shared" si="10"/>
         <v>254.9264705882353</v>
       </c>
-      <c r="F56" s="6">
-        <f>$B18/F44</f>
+      <c r="F56" s="37">
+        <f t="shared" si="10"/>
         <v>268.75968992248062</v>
       </c>
-      <c r="G56" s="6">
-        <f>$B18/G44</f>
+      <c r="G56" s="37">
+        <f t="shared" si="10"/>
         <v>266.69230769230768</v>
       </c>
-      <c r="H56" s="6">
-        <f>$B18/H44</f>
+      <c r="H56" s="37">
+        <f t="shared" si="10"/>
         <v>260.6766917293233</v>
       </c>
-      <c r="I56" s="7">
-        <f>$B18/I44</f>
+      <c r="I56" s="38">
+        <f t="shared" si="10"/>
         <v>272.99212598425197</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="38">
+      <c r="A57" s="25">
         <v>16384</v>
       </c>
       <c r="B57" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.853749766224048</v>
       </c>
-      <c r="C57" s="6">
-        <f>$B19/C45</f>
+      <c r="C57" s="37">
+        <f t="shared" si="10"/>
         <v>291.64556962025318</v>
       </c>
-      <c r="D57" s="6">
-        <f>$B19/D45</f>
+      <c r="D57" s="37">
+        <f t="shared" si="10"/>
         <v>317.06422018348621</v>
       </c>
-      <c r="E57" s="6">
-        <f>$B19/E45</f>
+      <c r="E57" s="37">
+        <f t="shared" si="10"/>
         <v>317.79310344827587</v>
       </c>
-      <c r="F57" s="6">
-        <f>$B19/F45</f>
+      <c r="F57" s="37">
+        <f t="shared" si="10"/>
         <v>328.36104513064134</v>
       </c>
-      <c r="G57" s="6">
-        <f>$B19/G45</f>
+      <c r="G57" s="37">
+        <f t="shared" si="10"/>
         <v>331.51079136690646</v>
       </c>
-      <c r="H57" s="6">
-        <f>$B19/H45</f>
+      <c r="H57" s="37">
+        <f t="shared" si="10"/>
         <v>319.26096997690536</v>
       </c>
-      <c r="I57" s="7">
-        <f>$B19/I45</f>
+      <c r="I57" s="38">
+        <f t="shared" si="10"/>
         <v>322.99065420560748</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+      <c r="A58" s="26">
         <v>32768</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="51">
         <v>0</v>
       </c>
-      <c r="C58" s="8">
-        <f>$B20/C46</f>
+      <c r="C58" s="40">
+        <f t="shared" si="10"/>
         <v>297.32364028002155</v>
       </c>
-      <c r="D58" s="8">
-        <f>$B20/D46</f>
+      <c r="D58" s="40">
+        <f t="shared" si="10"/>
         <v>333.41183574879227</v>
       </c>
-      <c r="E58" s="8">
-        <f>$B20/E46</f>
+      <c r="E58" s="40">
+        <f t="shared" si="10"/>
         <v>349.67067764407852</v>
       </c>
-      <c r="F58" s="8">
-        <f>$B20/F46</f>
+      <c r="F58" s="40">
+        <f t="shared" si="10"/>
         <v>349.89226869455001</v>
       </c>
-      <c r="G58" s="8">
-        <f>$B20/G46</f>
+      <c r="G58" s="40">
+        <f t="shared" si="10"/>
         <v>350.11414077362082</v>
       </c>
-      <c r="H58" s="8">
-        <f>$B20/H46</f>
+      <c r="H58" s="40">
+        <f t="shared" si="10"/>
         <v>349.2283364958887</v>
       </c>
-      <c r="I58" s="9">
-        <f>$B20/I46</f>
+      <c r="I58" s="41">
+        <f t="shared" si="10"/>
         <v>351.89929891650729</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="19" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="46" t="s">
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="27">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="50">
         <v>1</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="23">
         <v>16</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="23">
         <v>32</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="23">
         <v>64</v>
       </c>
-      <c r="F77" s="40">
+      <c r="F77" s="23">
         <v>128</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="23">
         <v>256</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="23">
         <v>512</v>
       </c>
-      <c r="I77" s="41">
+      <c r="I77" s="32">
         <v>1024</v>
       </c>
-      <c r="J77" s="47">
+      <c r="J77" s="31">
         <v>2048</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="37">
+      <c r="A78" s="24">
         <v>512</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="33">
         <f>B52/B$77</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="34">
         <f>C52/C$77</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="D78" s="28">
-        <f t="shared" ref="D78:I78" si="9">D52/D$77</f>
+      <c r="D78" s="34">
+        <f t="shared" ref="D78:I78" si="11">D52/D$77</f>
         <v>0.33854166666666669</v>
       </c>
-      <c r="E78" s="28">
-        <f t="shared" si="9"/>
+      <c r="E78" s="34">
+        <f t="shared" si="11"/>
         <v>0.13541666666666666</v>
       </c>
-      <c r="F78" s="28">
-        <f t="shared" si="9"/>
+      <c r="F78" s="34">
+        <f t="shared" si="11"/>
         <v>5.3453947368421052E-2</v>
       </c>
-      <c r="G78" s="28">
-        <f t="shared" si="9"/>
+      <c r="G78" s="34">
+        <f t="shared" si="11"/>
         <v>3.3854166666666664E-2</v>
       </c>
-      <c r="H78" s="28">
-        <f t="shared" si="9"/>
+      <c r="H78" s="34">
+        <f t="shared" si="11"/>
         <v>1.8136160714285716E-2</v>
       </c>
-      <c r="I78" s="29">
-        <f t="shared" si="9"/>
+      <c r="I78" s="35">
+        <f t="shared" si="11"/>
         <v>2.5390625E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="38">
+      <c r="A79" s="25">
         <v>1024</v>
       </c>
-      <c r="B79" s="30">
-        <f t="shared" ref="B79:C84" si="10">B53/B$77</f>
+      <c r="B79" s="36">
+        <f t="shared" ref="B79:C84" si="12">B53/B$77</f>
         <v>16.875</v>
       </c>
-      <c r="C79" s="4">
-        <f t="shared" si="10"/>
+      <c r="C79" s="37">
+        <f t="shared" si="12"/>
         <v>1.875</v>
       </c>
-      <c r="D79" s="4">
-        <f t="shared" ref="D79:I79" si="11">D53/D$77</f>
+      <c r="D79" s="37">
+        <f t="shared" ref="D79:I79" si="13">D53/D$77</f>
         <v>0.88815789473684215</v>
       </c>
-      <c r="E79" s="4">
-        <f t="shared" si="11"/>
+      <c r="E79" s="37">
+        <f t="shared" si="13"/>
         <v>0.44407894736842107</v>
       </c>
-      <c r="F79" s="4">
-        <f t="shared" si="11"/>
+      <c r="F79" s="37">
+        <f t="shared" si="13"/>
         <v>0.22203947368421054</v>
       </c>
-      <c r="G79" s="4">
-        <f t="shared" si="11"/>
+      <c r="G79" s="37">
+        <f t="shared" si="13"/>
         <v>0.1171875</v>
       </c>
-      <c r="H79" s="4">
-        <f t="shared" si="11"/>
+      <c r="H79" s="37">
+        <f t="shared" si="13"/>
         <v>5.859375E-2</v>
       </c>
-      <c r="I79" s="5">
-        <f t="shared" si="11"/>
+      <c r="I79" s="38">
+        <f t="shared" si="13"/>
         <v>2.511160714285714E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="38">
+      <c r="A80" s="25">
         <v>2048</v>
       </c>
-      <c r="B80" s="30">
-        <f t="shared" si="10"/>
+      <c r="B80" s="36">
+        <f t="shared" si="12"/>
         <v>23.736263736263737</v>
       </c>
-      <c r="C80" s="4">
-        <f t="shared" si="10"/>
+      <c r="C80" s="37">
+        <f t="shared" si="12"/>
         <v>4.8214285714285721</v>
       </c>
-      <c r="D80" s="4">
-        <f t="shared" ref="D80:I80" si="12">D54/D$77</f>
+      <c r="D80" s="37">
+        <f t="shared" ref="D80:I80" si="14">D54/D$77</f>
         <v>1.9852941176470589</v>
       </c>
-      <c r="E80" s="4">
-        <f t="shared" si="12"/>
+      <c r="E80" s="37">
+        <f t="shared" si="14"/>
         <v>1.205357142857143</v>
       </c>
-      <c r="F80" s="4">
-        <f t="shared" si="12"/>
+      <c r="F80" s="37">
+        <f t="shared" si="14"/>
         <v>0.5818965517241379</v>
       </c>
-      <c r="G80" s="4">
-        <f t="shared" si="12"/>
+      <c r="G80" s="37">
+        <f t="shared" si="14"/>
         <v>0.29094827586206895</v>
       </c>
-      <c r="H80" s="4">
-        <f t="shared" si="12"/>
+      <c r="H80" s="37">
+        <f t="shared" si="14"/>
         <v>0.14547413793103448</v>
       </c>
-      <c r="I80" s="5">
-        <f t="shared" si="12"/>
+      <c r="I80" s="38">
+        <f t="shared" si="14"/>
         <v>6.3920454545454544E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="38">
+      <c r="A81" s="25">
         <v>4096</v>
       </c>
-      <c r="B81" s="30">
-        <f t="shared" si="10"/>
+      <c r="B81" s="36">
+        <f t="shared" si="12"/>
         <v>25.218658892128282</v>
       </c>
-      <c r="C81" s="4">
-        <f t="shared" si="10"/>
+      <c r="C81" s="37">
+        <f t="shared" si="12"/>
         <v>11.033163265306122</v>
       </c>
-      <c r="D81" s="4">
-        <f t="shared" ref="D81:I81" si="13">D55/D$77</f>
+      <c r="D81" s="37">
+        <f t="shared" ref="D81:I81" si="15">D55/D$77</f>
         <v>4.3598790322580641</v>
       </c>
-      <c r="E81" s="4">
-        <f t="shared" si="13"/>
+      <c r="E81" s="37">
+        <f t="shared" si="15"/>
         <v>2.7582908163265305</v>
       </c>
-      <c r="F81" s="4">
-        <f t="shared" si="13"/>
+      <c r="F81" s="37">
+        <f t="shared" si="15"/>
         <v>1.3515625</v>
       </c>
-      <c r="G81" s="4">
-        <f t="shared" si="13"/>
+      <c r="G81" s="37">
+        <f t="shared" si="15"/>
         <v>0.68957270408163263</v>
       </c>
-      <c r="H81" s="4">
-        <f t="shared" si="13"/>
+      <c r="H81" s="37">
+        <f t="shared" si="15"/>
         <v>0.33126531862745101</v>
       </c>
-      <c r="I81" s="5">
-        <f t="shared" si="13"/>
+      <c r="I81" s="38">
+        <f t="shared" si="15"/>
         <v>0.14078776041666666</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="38">
+      <c r="A82" s="25">
         <v>8192</v>
       </c>
-      <c r="B82" s="30">
-        <f t="shared" si="10"/>
+      <c r="B82" s="36">
+        <f t="shared" si="12"/>
         <v>25.796130952380953</v>
       </c>
-      <c r="C82" s="4">
-        <f t="shared" si="10"/>
+      <c r="C82" s="37">
+        <f t="shared" si="12"/>
         <v>16.9287109375</v>
       </c>
-      <c r="D82" s="4">
-        <f t="shared" ref="D82:I82" si="14">D56/D$77</f>
+      <c r="D82" s="37">
+        <f t="shared" ref="D82:I82" si="16">D56/D$77</f>
         <v>7.8509963768115938</v>
       </c>
-      <c r="E82" s="4">
-        <f t="shared" si="14"/>
+      <c r="E82" s="37">
+        <f t="shared" si="16"/>
         <v>3.9832261029411766</v>
       </c>
-      <c r="F82" s="4">
-        <f t="shared" si="14"/>
+      <c r="F82" s="37">
+        <f t="shared" si="16"/>
         <v>2.0996850775193798</v>
       </c>
-      <c r="G82" s="4">
-        <f t="shared" si="14"/>
+      <c r="G82" s="37">
+        <f t="shared" si="16"/>
         <v>1.0417668269230769</v>
       </c>
-      <c r="H82" s="4">
-        <f t="shared" si="14"/>
+      <c r="H82" s="37">
+        <f t="shared" si="16"/>
         <v>0.50913416353383456</v>
       </c>
-      <c r="I82" s="5">
-        <f t="shared" si="14"/>
+      <c r="I82" s="38">
+        <f t="shared" si="16"/>
         <v>0.26659387303149606</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="38">
+      <c r="A83" s="25">
         <v>16384</v>
       </c>
-      <c r="B83" s="30">
-        <f t="shared" si="10"/>
+      <c r="B83" s="36">
+        <f t="shared" si="12"/>
         <v>25.853749766224048</v>
       </c>
-      <c r="C83" s="4">
-        <f t="shared" si="10"/>
+      <c r="C83" s="37">
+        <f t="shared" si="12"/>
         <v>18.227848101265824</v>
       </c>
-      <c r="D83" s="4">
-        <f t="shared" ref="D83:I83" si="15">D57/D$77</f>
+      <c r="D83" s="37">
+        <f t="shared" ref="D83:I83" si="17">D57/D$77</f>
         <v>9.9082568807339442</v>
       </c>
-      <c r="E83" s="4">
-        <f t="shared" si="15"/>
+      <c r="E83" s="37">
+        <f t="shared" si="17"/>
         <v>4.9655172413793105</v>
       </c>
-      <c r="F83" s="4">
-        <f t="shared" si="15"/>
+      <c r="F83" s="37">
+        <f t="shared" si="17"/>
         <v>2.5653206650831355</v>
       </c>
-      <c r="G83" s="4">
-        <f t="shared" si="15"/>
+      <c r="G83" s="37">
+        <f t="shared" si="17"/>
         <v>1.2949640287769784</v>
       </c>
-      <c r="H83" s="4">
-        <f t="shared" si="15"/>
+      <c r="H83" s="37">
+        <f t="shared" si="17"/>
         <v>0.62355658198614328</v>
       </c>
-      <c r="I83" s="5">
-        <f t="shared" si="15"/>
+      <c r="I83" s="38">
+        <f t="shared" si="17"/>
         <v>0.31542056074766356</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="39">
+      <c r="A84" s="26">
         <v>32768</v>
       </c>
-      <c r="B84" s="31">
-        <f t="shared" si="10"/>
+      <c r="B84" s="51">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C84" s="10">
-        <f t="shared" si="10"/>
+      <c r="C84" s="40">
+        <f t="shared" si="12"/>
         <v>18.582727517501347</v>
       </c>
-      <c r="D84" s="10">
-        <f t="shared" ref="D84:I84" si="16">D58/D$77</f>
+      <c r="D84" s="40">
+        <f t="shared" ref="D84:I84" si="18">D58/D$77</f>
         <v>10.419119867149758</v>
       </c>
-      <c r="E84" s="10">
-        <f t="shared" si="16"/>
+      <c r="E84" s="40">
+        <f t="shared" si="18"/>
         <v>5.4636043381887269</v>
       </c>
-      <c r="F84" s="10">
-        <f t="shared" si="16"/>
+      <c r="F84" s="40">
+        <f t="shared" si="18"/>
         <v>2.733533349176172</v>
       </c>
-      <c r="G84" s="10">
-        <f t="shared" si="16"/>
+      <c r="G84" s="40">
+        <f t="shared" si="18"/>
         <v>1.3676333623969563</v>
       </c>
-      <c r="H84" s="10">
-        <f t="shared" si="16"/>
+      <c r="H84" s="40">
+        <f t="shared" si="18"/>
         <v>0.68208659471853261</v>
       </c>
-      <c r="I84" s="11">
-        <f t="shared" si="16"/>
+      <c r="I84" s="41">
+        <f t="shared" si="18"/>
         <v>0.34365165909815165</v>
       </c>
     </row>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,6 +713,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3973,7 +4000,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$78:$B$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.6666666666666661</c:v>
@@ -4066,7 +4093,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$78:$C$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.54166666666666663</c:v>
@@ -4159,7 +4186,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$78:$D$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.33854166666666669</c:v>
@@ -4252,7 +4279,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$78:$E$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.13541666666666666</c:v>
@@ -4345,7 +4372,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$78:$F$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.3453947368421052E-2</c:v>
@@ -4438,7 +4465,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$78:$G$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.3854166666666664E-2</c:v>
@@ -4531,7 +4558,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$78:$H$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.8136160714285716E-2</c:v>
@@ -4626,7 +4653,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$78:$I$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.5390625E-2</c:v>
@@ -4855,7 +4882,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9795,15 +9822,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10071,8 +10098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11934,35 +11961,35 @@
       <c r="A78" s="24">
         <v>512</v>
       </c>
-      <c r="B78" s="33">
+      <c r="B78" s="52">
         <f>B52/B$77</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="53">
         <f>C52/C$77</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="D78" s="34">
+      <c r="D78" s="53">
         <f t="shared" ref="D78:I78" si="11">D52/D$77</f>
         <v>0.33854166666666669</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="53">
         <f t="shared" si="11"/>
         <v>0.13541666666666666</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="53">
         <f t="shared" si="11"/>
         <v>5.3453947368421052E-2</v>
       </c>
-      <c r="G78" s="34">
+      <c r="G78" s="53">
         <f t="shared" si="11"/>
         <v>3.3854166666666664E-2</v>
       </c>
-      <c r="H78" s="34">
+      <c r="H78" s="53">
         <f t="shared" si="11"/>
         <v>1.8136160714285716E-2</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="54">
         <f t="shared" si="11"/>
         <v>2.5390625E-2</v>
       </c>
@@ -11971,35 +11998,35 @@
       <c r="A79" s="25">
         <v>1024</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="55">
         <f t="shared" ref="B79:C84" si="12">B53/B$77</f>
         <v>16.875</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="56">
         <f t="shared" si="12"/>
         <v>1.875</v>
       </c>
-      <c r="D79" s="37">
+      <c r="D79" s="56">
         <f t="shared" ref="D79:I79" si="13">D53/D$77</f>
         <v>0.88815789473684215</v>
       </c>
-      <c r="E79" s="37">
+      <c r="E79" s="56">
         <f t="shared" si="13"/>
         <v>0.44407894736842107</v>
       </c>
-      <c r="F79" s="37">
+      <c r="F79" s="56">
         <f t="shared" si="13"/>
         <v>0.22203947368421054</v>
       </c>
-      <c r="G79" s="37">
+      <c r="G79" s="56">
         <f t="shared" si="13"/>
         <v>0.1171875</v>
       </c>
-      <c r="H79" s="37">
+      <c r="H79" s="56">
         <f t="shared" si="13"/>
         <v>5.859375E-2</v>
       </c>
-      <c r="I79" s="38">
+      <c r="I79" s="57">
         <f t="shared" si="13"/>
         <v>2.511160714285714E-2</v>
       </c>
@@ -12008,35 +12035,35 @@
       <c r="A80" s="25">
         <v>2048</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="55">
         <f t="shared" si="12"/>
         <v>23.736263736263737</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="56">
         <f t="shared" si="12"/>
         <v>4.8214285714285721</v>
       </c>
-      <c r="D80" s="37">
+      <c r="D80" s="56">
         <f t="shared" ref="D80:I80" si="14">D54/D$77</f>
         <v>1.9852941176470589</v>
       </c>
-      <c r="E80" s="37">
+      <c r="E80" s="56">
         <f t="shared" si="14"/>
         <v>1.205357142857143</v>
       </c>
-      <c r="F80" s="37">
+      <c r="F80" s="56">
         <f t="shared" si="14"/>
         <v>0.5818965517241379</v>
       </c>
-      <c r="G80" s="37">
+      <c r="G80" s="56">
         <f t="shared" si="14"/>
         <v>0.29094827586206895</v>
       </c>
-      <c r="H80" s="37">
+      <c r="H80" s="56">
         <f t="shared" si="14"/>
         <v>0.14547413793103448</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="57">
         <f t="shared" si="14"/>
         <v>6.3920454545454544E-2</v>
       </c>
@@ -12045,35 +12072,35 @@
       <c r="A81" s="25">
         <v>4096</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="55">
         <f t="shared" si="12"/>
         <v>25.218658892128282</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81" s="56">
         <f t="shared" si="12"/>
         <v>11.033163265306122</v>
       </c>
-      <c r="D81" s="37">
+      <c r="D81" s="56">
         <f t="shared" ref="D81:I81" si="15">D55/D$77</f>
         <v>4.3598790322580641</v>
       </c>
-      <c r="E81" s="37">
+      <c r="E81" s="56">
         <f t="shared" si="15"/>
         <v>2.7582908163265305</v>
       </c>
-      <c r="F81" s="37">
+      <c r="F81" s="56">
         <f t="shared" si="15"/>
         <v>1.3515625</v>
       </c>
-      <c r="G81" s="37">
+      <c r="G81" s="56">
         <f t="shared" si="15"/>
         <v>0.68957270408163263</v>
       </c>
-      <c r="H81" s="37">
+      <c r="H81" s="56">
         <f t="shared" si="15"/>
         <v>0.33126531862745101</v>
       </c>
-      <c r="I81" s="38">
+      <c r="I81" s="57">
         <f t="shared" si="15"/>
         <v>0.14078776041666666</v>
       </c>
@@ -12082,35 +12109,35 @@
       <c r="A82" s="25">
         <v>8192</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="55">
         <f t="shared" si="12"/>
         <v>25.796130952380953</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="56">
         <f t="shared" si="12"/>
         <v>16.9287109375</v>
       </c>
-      <c r="D82" s="37">
+      <c r="D82" s="56">
         <f t="shared" ref="D82:I82" si="16">D56/D$77</f>
         <v>7.8509963768115938</v>
       </c>
-      <c r="E82" s="37">
+      <c r="E82" s="56">
         <f t="shared" si="16"/>
         <v>3.9832261029411766</v>
       </c>
-      <c r="F82" s="37">
+      <c r="F82" s="56">
         <f t="shared" si="16"/>
         <v>2.0996850775193798</v>
       </c>
-      <c r="G82" s="37">
+      <c r="G82" s="56">
         <f t="shared" si="16"/>
         <v>1.0417668269230769</v>
       </c>
-      <c r="H82" s="37">
+      <c r="H82" s="56">
         <f t="shared" si="16"/>
         <v>0.50913416353383456</v>
       </c>
-      <c r="I82" s="38">
+      <c r="I82" s="57">
         <f t="shared" si="16"/>
         <v>0.26659387303149606</v>
       </c>
@@ -12119,35 +12146,35 @@
       <c r="A83" s="25">
         <v>16384</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="55">
         <f t="shared" si="12"/>
         <v>25.853749766224048</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="56">
         <f t="shared" si="12"/>
         <v>18.227848101265824</v>
       </c>
-      <c r="D83" s="37">
+      <c r="D83" s="56">
         <f t="shared" ref="D83:I83" si="17">D57/D$77</f>
         <v>9.9082568807339442</v>
       </c>
-      <c r="E83" s="37">
+      <c r="E83" s="56">
         <f t="shared" si="17"/>
         <v>4.9655172413793105</v>
       </c>
-      <c r="F83" s="37">
+      <c r="F83" s="56">
         <f t="shared" si="17"/>
         <v>2.5653206650831355</v>
       </c>
-      <c r="G83" s="37">
+      <c r="G83" s="56">
         <f t="shared" si="17"/>
         <v>1.2949640287769784</v>
       </c>
-      <c r="H83" s="37">
+      <c r="H83" s="56">
         <f t="shared" si="17"/>
         <v>0.62355658198614328</v>
       </c>
-      <c r="I83" s="38">
+      <c r="I83" s="57">
         <f t="shared" si="17"/>
         <v>0.31542056074766356</v>
       </c>
@@ -12156,35 +12183,35 @@
       <c r="A84" s="26">
         <v>32768</v>
       </c>
-      <c r="B84" s="51">
+      <c r="B84" s="58">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="59">
         <f t="shared" si="12"/>
         <v>18.582727517501347</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="59">
         <f t="shared" ref="D84:I84" si="18">D58/D$77</f>
         <v>10.419119867149758</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="59">
         <f t="shared" si="18"/>
         <v>5.4636043381887269</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F84" s="59">
         <f t="shared" si="18"/>
         <v>2.733533349176172</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="59">
         <f t="shared" si="18"/>
         <v>1.3676333623969563</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="59">
         <f t="shared" si="18"/>
         <v>0.68208659471853261</v>
       </c>
-      <c r="I84" s="41">
+      <c r="I84" s="60">
         <f t="shared" si="18"/>
         <v>0.34365165909815165</v>
       </c>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
   <si>
     <t>Average</t>
   </si>
@@ -390,6 +390,75 @@
   <si>
     <t>Total Cores</t>
   </si>
+  <si>
+    <t>Divergence</t>
+  </si>
+  <si>
+    <t>Without Divergence</t>
+  </si>
+  <si>
+    <t>gpu_data_32768_1</t>
+  </si>
+  <si>
+    <t>gpu_data_8192_32</t>
+  </si>
+  <si>
+    <t>gpu_data_4096_1</t>
+  </si>
+  <si>
+    <t>gpu_data_512_1</t>
+  </si>
+  <si>
+    <t>gpu_data_32768_32</t>
+  </si>
+  <si>
+    <t>gpu_data_8192_16</t>
+  </si>
+  <si>
+    <t>gpu_data_8192_1</t>
+  </si>
+  <si>
+    <t>gpu_data_4096_32</t>
+  </si>
+  <si>
+    <t>gpu_data_2048_1</t>
+  </si>
+  <si>
+    <t>gpu_data_1024_1</t>
+  </si>
+  <si>
+    <t>gpu_data_2048_16</t>
+  </si>
+  <si>
+    <t>gpu_data_16384_32</t>
+  </si>
+  <si>
+    <t>gpu_data_2048_32</t>
+  </si>
+  <si>
+    <t>gpu_data_16384_1</t>
+  </si>
+  <si>
+    <t>gpu_data_16384_16</t>
+  </si>
+  <si>
+    <t>gpu_data_4096_16</t>
+  </si>
+  <si>
+    <t>gpu_data_512_32</t>
+  </si>
+  <si>
+    <t>gpu_data_1024_32</t>
+  </si>
+  <si>
+    <t>gpu_data_1024_16</t>
+  </si>
+  <si>
+    <t>gpu_data_32768_16</t>
+  </si>
+  <si>
+    <t>gpu_data_512_16</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +493,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -616,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -740,6 +817,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2885,7 +2968,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GPU Speedup</a:t>
+              <a:t>GPU Speedup (With Divergence)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2923,8 +3006,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2941,17 +3025,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3012,7 +3094,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3034,17 +3115,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3105,7 +3184,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3127,17 +3205,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3198,7 +3274,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3220,17 +3295,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3291,7 +3364,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3313,17 +3385,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3384,7 +3454,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3406,17 +3475,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3477,7 +3544,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3499,19 +3565,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$52:$A$58</c:f>
@@ -3572,7 +3636,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2B12-4574-B53D-BD8D0AAE732C}"/>
@@ -3587,10 +3650,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="437083216"/>
         <c:axId val="437084856"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="437083216"/>
         <c:scaling>
@@ -3927,7 +3990,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GPU Efficiency - 2048 Available GPU Cores</a:t>
+              <a:t>GPU Efficiency - 2048 Available GPU Cores (With Divergence)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5029,13 +5092,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GPU Time - Threads</a:t>
+              <a:t>GPU Time - Threads Per Block (With Divergence)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Per Block</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5072,16 +5130,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>Sheet1!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5091,18 +5148,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5132,27 +5191,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$58</c:f>
+              <c:f>Sheet1!$B$40:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.875</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.736263736263737</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.218658892128282</c:v>
+                  <c:v>34.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.796130952380953</c:v>
+                  <c:v>134.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.853749766224048</c:v>
+                  <c:v>534.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5160,9 +5219,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000000-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5171,7 +5231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
+              <c:f>Sheet1!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5181,18 +5241,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5222,37 +5284,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$58</c:f>
+              <c:f>Sheet1!$C$40:$C$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.142857142857153</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>270.859375</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291.64556962025318</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>297.32364028002155</c:v>
+                  <c:v>185.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000001-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5261,7 +5324,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$51</c:f>
+              <c:f>Sheet1!$D$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5271,18 +5334,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5312,37 +5377,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$52:$D$58</c:f>
+              <c:f>Sheet1!$D$40:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.833333333333334</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.421052631578949</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.529411764705884</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.51612903225805</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>251.231884057971</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317.06422018348621</c:v>
+                  <c:v>43.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.41183574879227</c:v>
+                  <c:v>165.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000002-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5351,7 +5417,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$51</c:f>
+              <c:f>Sheet1!$E$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5361,18 +5427,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5402,37 +5470,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$E$58</c:f>
+              <c:f>Sheet1!$E$40:$E$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.421052631578949</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.142857142857153</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254.9264705882353</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317.79310344827587</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>349.67067764407852</c:v>
+                  <c:v>157.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000003-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5441,7 +5510,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$51</c:f>
+              <c:f>Sheet1!$F$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5451,18 +5520,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5492,37 +5563,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$52:$F$58</c:f>
+              <c:f>Sheet1!$F$40:$F$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.8421052631578947</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.421052631578949</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.482758620689651</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>268.75968992248062</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>328.36104513064134</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>349.89226869455001</c:v>
+                  <c:v>157.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000004-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5531,7 +5603,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$51</c:f>
+              <c:f>Sheet1!$G$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5541,18 +5613,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5582,37 +5656,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$52:$G$58</c:f>
+              <c:f>Sheet1!$G$40:$G$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.482758620689651</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266.69230769230768</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>331.51079136690646</c:v>
+                  <c:v>41.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350.11414077362082</c:v>
+                  <c:v>157.69999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000005-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5621,7 +5696,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$51</c:f>
+              <c:f>Sheet1!$H$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5631,20 +5706,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5674,37 +5751,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:f>Sheet1!$H$40:$H$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.2857142857142865</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.482758620689651</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169.60784313725492</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.6766917293233</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>319.26096997690536</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>349.2283364958887</c:v>
+                  <c:v>158.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000006-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5713,7 +5791,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$51</c:f>
+              <c:f>Sheet1!$I$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5723,20 +5801,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5766,37 +5846,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$52:$I$58</c:f>
+              <c:f>Sheet1!$I$40:$I$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.714285714285712</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144.16666666666666</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>272.99212598425197</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>322.99065420560748</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>351.89929891650729</c:v>
+                  <c:v>156.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5443-4526-976E-09FBC0323427}"/>
+              <c16:uniqueId val="{00000007-F877-4161-A9FE-AE0C450D92B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5808,13 +5889,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="634866120"/>
-        <c:axId val="634866448"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="445845400"/>
+        <c:axId val="445845728"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="634866120"/>
+        <c:axId val="445845400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634866448"/>
+        <c:crossAx val="445845728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5921,7 +6001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="634866448"/>
+        <c:axId val="445845728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5997,6 +6077,2260 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445845400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Time - Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Per Block (Without Divergence)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$128:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>476.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1888.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$128:$C$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$128:$D$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$128:$E$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$128:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$128:$G$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$128:$H$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$128:$I$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6571-4160-BAEC-C8EAED73C48F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="565888784"/>
+        <c:axId val="565884848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="565888784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565884848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565884848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565888784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Speedup (Without</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Divergence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$140:$B$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.453947368421055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.01255230125523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.035916824196597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.236431029917924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$140:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210.97560975609758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376.84782608695656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>457.74834437086093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455.17724649629019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$140:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.68421052631579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450.25974025974023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>880.50955414012742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>899.23452768729646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$140:$E$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.63157894736844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468.51351351351349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>869.43396226415098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>920.2166666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$140:$F$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.85714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462.26666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>874.9367088607595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>918.6855241264559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$140:$G$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.2857142857142865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210.97560975609758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462.26666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>874.9367088607595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>912.61157024793386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$140:$H$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210.97560975609758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>456.18421052631584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>869.43396226415098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896.31493506493507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$140:$I$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.53061224489795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>380.98901098901098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>877.79014308426076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C59C-437F-9D64-504CDB4F4DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="571563704"/>
+        <c:axId val="571565016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571563704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571565016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571565016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup Multiplier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6028,7 +8362,1139 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634866120"/>
+        <c:crossAx val="571563704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Efficiency (Without Divergence)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$166:$B$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.453947368421055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.01255230125523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.035916824196597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.236431029917924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$166:$C$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1363636363636358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.185975609756099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.552989130434785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.609271523178808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.448577906018137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$166:$D$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.22569444444444445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99264705882352944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5526315789473686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.070616883116882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.515923566878982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.101078990228014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$166:$E$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.40625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5567434210526319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3205236486486482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.584905660377359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.378385416666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$166:$F$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.8125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24816176470588236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80357142857142849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.689453125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6114583333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8354430379746836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1772306572379367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$166:$G$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6272321428571432E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1318359375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82412347560975618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8057291666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4177215189873418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5648889462809916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$166:$H$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1158854166666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.204044117647059E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17578125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41206173780487809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89098478618421062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6981132075471699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7506151075487013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$166:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$166:$I$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5869140625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.515625E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5334821428571438E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17239317602040816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37205958104395603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8572169366057234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2C12-462B-8EA0-C930C05C20F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="605667352"/>
+        <c:axId val="605668664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="605667352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605668664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605668664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605667352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6349,6 +9815,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8930,7 +12516,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9038,6 +12624,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9048,6 +12639,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9079,6 +12675,1557 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9447,114 +14594,35 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>144517</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5677580" y="1409700"/>
-          <a:ext cx="7656059" cy="4762781"/>
-          <a:chOff x="5696790" y="1409700"/>
-          <a:chExt cx="7699282" cy="4741170"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="Chart 4"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="5696790" y="1409700"/>
-          <a:ext cx="7699282" cy="4741170"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7443023" y="5830150"/>
-            <a:ext cx="1365887" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> of Threads: </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1075764</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>386667</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>110937</xdr:rowOff>
+      <xdr:rowOff>258536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9575,94 +14643,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68356</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>570699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:rowOff>249431</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="20654842" y="3783106"/>
-          <a:ext cx="4550389" cy="2748002"/>
-          <a:chOff x="20764500" y="3766297"/>
-          <a:chExt cx="4572000" cy="2743200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="9" name="Chart 8"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="20764500" y="3766297"/>
-          <a:ext cx="4572000" cy="2743200"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="21829059" y="6185646"/>
-            <a:ext cx="713400" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Threads: </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9791,19 +14797,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428623</xdr:colOff>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>159204</xdr:rowOff>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>925286</xdr:colOff>
+      <xdr:colOff>848180</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>35379</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="16" name="Chart 15"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9813,6 +14819,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197301</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>110217</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156480</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1018268</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6802</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1090837</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10096,10 +15192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ86"/>
+  <dimension ref="A1:BQ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:I84"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11134,6 +16230,11 @@
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
+    <row r="34" spans="1:41" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F34" s="61" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
@@ -12235,6 +17336,1190 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
+    <row r="121" spans="1:57" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F121" s="62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" t="s">
+        <v>78</v>
+      </c>
+      <c r="J123" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" t="s">
+        <v>79</v>
+      </c>
+      <c r="L123" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" t="s">
+        <v>80</v>
+      </c>
+      <c r="O123" t="s">
+        <v>19</v>
+      </c>
+      <c r="P123" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>21</v>
+      </c>
+      <c r="R123" t="s">
+        <v>22</v>
+      </c>
+      <c r="S123" t="s">
+        <v>81</v>
+      </c>
+      <c r="T123" t="s">
+        <v>24</v>
+      </c>
+      <c r="U123" t="s">
+        <v>26</v>
+      </c>
+      <c r="V123" t="s">
+        <v>29</v>
+      </c>
+      <c r="W123" t="s">
+        <v>82</v>
+      </c>
+      <c r="X123" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO123" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP123" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR123" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS123" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT123" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU123" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV123" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW123" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX123" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY123" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ123" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA123" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB123" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC123" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD123" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>15.954599999999999</v>
+      </c>
+      <c r="C124">
+        <v>1.3842099999999999</v>
+      </c>
+      <c r="D124">
+        <v>2.6011000000000002</v>
+      </c>
+      <c r="E124">
+        <v>0.501224</v>
+      </c>
+      <c r="F124">
+        <v>1891.05</v>
+      </c>
+      <c r="G124">
+        <v>7.5060200000000004</v>
+      </c>
+      <c r="H124">
+        <v>7.3538199999999998</v>
+      </c>
+      <c r="I124">
+        <v>31.207699999999999</v>
+      </c>
+      <c r="J124">
+        <v>9.1720299999999995</v>
+      </c>
+      <c r="K124">
+        <v>1.9857</v>
+      </c>
+      <c r="L124">
+        <v>16.097899999999999</v>
+      </c>
+      <c r="M124">
+        <v>63.360999999999997</v>
+      </c>
+      <c r="N124">
+        <v>61.8797</v>
+      </c>
+      <c r="O124">
+        <v>2.65909</v>
+      </c>
+      <c r="P124">
+        <v>1.63425</v>
+      </c>
+      <c r="Q124">
+        <v>16.103400000000001</v>
+      </c>
+      <c r="R124">
+        <v>2.3852000000000002</v>
+      </c>
+      <c r="S124">
+        <v>9.1768099999999997</v>
+      </c>
+      <c r="T124">
+        <v>1.38574</v>
+      </c>
+      <c r="U124">
+        <v>3.9222600000000001</v>
+      </c>
+      <c r="V124">
+        <v>16.270499999999998</v>
+      </c>
+      <c r="W124">
+        <v>119.952</v>
+      </c>
+      <c r="X124">
+        <v>5.0902099999999999</v>
+      </c>
+      <c r="Y124">
+        <v>4.7656099999999997</v>
+      </c>
+      <c r="Z124">
+        <v>3.9635500000000001</v>
+      </c>
+      <c r="AA124">
+        <v>9.7220800000000001</v>
+      </c>
+      <c r="AB124">
+        <v>1.49082</v>
+      </c>
+      <c r="AC124">
+        <v>1.5787599999999999</v>
+      </c>
+      <c r="AD124">
+        <v>3.1804899999999998</v>
+      </c>
+      <c r="AE124">
+        <v>2.3404799999999999</v>
+      </c>
+      <c r="AF124">
+        <v>15.918799999999999</v>
+      </c>
+      <c r="AG124">
+        <v>2.35188</v>
+      </c>
+      <c r="AH124">
+        <v>2.90164</v>
+      </c>
+      <c r="AI124">
+        <v>60.926000000000002</v>
+      </c>
+      <c r="AJ124">
+        <v>476.91899999999998</v>
+      </c>
+      <c r="AK124">
+        <v>2.6367799999999999</v>
+      </c>
+      <c r="AL124">
+        <v>7.6082099999999997</v>
+      </c>
+      <c r="AM124">
+        <v>4.0481199999999999</v>
+      </c>
+      <c r="AN124">
+        <v>30.9269</v>
+      </c>
+      <c r="AO124">
+        <v>3.9982700000000002</v>
+      </c>
+      <c r="AP124">
+        <v>1.7604299999999999</v>
+      </c>
+      <c r="AQ124">
+        <v>16.018000000000001</v>
+      </c>
+      <c r="AR124">
+        <v>4.4071199999999999</v>
+      </c>
+      <c r="AS124">
+        <v>7.9732900000000004</v>
+      </c>
+      <c r="AT124">
+        <v>1.33985</v>
+      </c>
+      <c r="AU124">
+        <v>62.400500000000001</v>
+      </c>
+      <c r="AV124">
+        <v>2.3862999999999999</v>
+      </c>
+      <c r="AW124">
+        <v>1.64795</v>
+      </c>
+      <c r="AX124">
+        <v>1.71913</v>
+      </c>
+      <c r="AY124">
+        <v>2.1104500000000002</v>
+      </c>
+      <c r="AZ124">
+        <v>7.3877499999999996</v>
+      </c>
+      <c r="BA124">
+        <v>1.72688</v>
+      </c>
+      <c r="BB124">
+        <v>121.857</v>
+      </c>
+      <c r="BC124">
+        <v>61.021500000000003</v>
+      </c>
+      <c r="BD124">
+        <v>1.41584</v>
+      </c>
+      <c r="BE124">
+        <v>61.128999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="28">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>16</v>
+      </c>
+      <c r="D127" s="1">
+        <v>32</v>
+      </c>
+      <c r="E127" s="1">
+        <v>64</v>
+      </c>
+      <c r="F127" s="1">
+        <v>128</v>
+      </c>
+      <c r="G127" s="1">
+        <v>256</v>
+      </c>
+      <c r="H127" s="1">
+        <v>512</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>512</v>
+      </c>
+      <c r="B128">
+        <v>1.6</v>
+      </c>
+      <c r="C128">
+        <v>0.8</v>
+      </c>
+      <c r="D128">
+        <v>1.8</v>
+      </c>
+      <c r="E128">
+        <v>1.5</v>
+      </c>
+      <c r="F128">
+        <v>1.3</v>
+      </c>
+      <c r="G128">
+        <v>1.4</v>
+      </c>
+      <c r="H128">
+        <v>1.2</v>
+      </c>
+      <c r="I128">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B129">
+        <v>2.9</v>
+      </c>
+      <c r="C129">
+        <v>1.8</v>
+      </c>
+      <c r="D129">
+        <v>1.7</v>
+      </c>
+      <c r="E129">
+        <v>1.5</v>
+      </c>
+      <c r="F129">
+        <v>1.7</v>
+      </c>
+      <c r="G129">
+        <v>1.6</v>
+      </c>
+      <c r="H129">
+        <v>1.7</v>
+      </c>
+      <c r="I129">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D130">
+        <v>1.9</v>
+      </c>
+      <c r="E130">
+        <v>2.4</v>
+      </c>
+      <c r="F130">
+        <v>2.1</v>
+      </c>
+      <c r="G130">
+        <v>2.4</v>
+      </c>
+      <c r="H130">
+        <v>2.4</v>
+      </c>
+      <c r="I130">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B131">
+        <v>30.4</v>
+      </c>
+      <c r="C131">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>3.8</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H131">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I131">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B132">
+        <v>119.5</v>
+      </c>
+      <c r="C132">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D132">
+        <v>7.7</v>
+      </c>
+      <c r="E132">
+        <v>7.4</v>
+      </c>
+      <c r="F132">
+        <v>7.5</v>
+      </c>
+      <c r="G132">
+        <v>7.5</v>
+      </c>
+      <c r="H132">
+        <v>7.6</v>
+      </c>
+      <c r="I132">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B133" s="4">
+        <v>476.1</v>
+      </c>
+      <c r="C133">
+        <v>30.2</v>
+      </c>
+      <c r="D133">
+        <v>15.7</v>
+      </c>
+      <c r="E133">
+        <v>15.9</v>
+      </c>
+      <c r="F133">
+        <v>15.8</v>
+      </c>
+      <c r="G133">
+        <v>15.8</v>
+      </c>
+      <c r="H133">
+        <v>15.9</v>
+      </c>
+      <c r="I133">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>32768</v>
+      </c>
+      <c r="B134" s="29">
+        <v>1888.5</v>
+      </c>
+      <c r="C134">
+        <v>121.3</v>
+      </c>
+      <c r="D134">
+        <v>61.4</v>
+      </c>
+      <c r="E134">
+        <v>60</v>
+      </c>
+      <c r="F134">
+        <v>60.1</v>
+      </c>
+      <c r="G134">
+        <v>60.5</v>
+      </c>
+      <c r="H134">
+        <v>61.6</v>
+      </c>
+      <c r="I134">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D136" s="4"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="20"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="50">
+        <v>1</v>
+      </c>
+      <c r="C139" s="23">
+        <v>16</v>
+      </c>
+      <c r="D139" s="23">
+        <v>32</v>
+      </c>
+      <c r="E139" s="23">
+        <v>64</v>
+      </c>
+      <c r="F139" s="23">
+        <v>128</v>
+      </c>
+      <c r="G139" s="23">
+        <v>256</v>
+      </c>
+      <c r="H139" s="23">
+        <v>512</v>
+      </c>
+      <c r="I139" s="32">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="24">
+        <v>512</v>
+      </c>
+      <c r="B140" s="33">
+        <f>$B14/B128</f>
+        <v>8.125</v>
+      </c>
+      <c r="C140" s="34">
+        <f t="shared" ref="C140:I140" si="19">$B14/C128</f>
+        <v>16.25</v>
+      </c>
+      <c r="D140" s="34">
+        <f t="shared" si="19"/>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="E140" s="34">
+        <f t="shared" si="19"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F140" s="34">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="G140" s="34">
+        <f t="shared" si="19"/>
+        <v>9.2857142857142865</v>
+      </c>
+      <c r="H140" s="34">
+        <f t="shared" si="19"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="I140" s="35">
+        <f>$B14/I128</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="25">
+        <v>1024</v>
+      </c>
+      <c r="B141" s="36">
+        <f t="shared" ref="B141:I141" si="20">$B15/B129</f>
+        <v>18.620689655172413</v>
+      </c>
+      <c r="C141" s="37">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="D141" s="37">
+        <f t="shared" si="20"/>
+        <v>31.764705882352942</v>
+      </c>
+      <c r="E141" s="37">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+      <c r="F141" s="37">
+        <f t="shared" si="20"/>
+        <v>31.764705882352942</v>
+      </c>
+      <c r="G141" s="37">
+        <f t="shared" si="20"/>
+        <v>33.75</v>
+      </c>
+      <c r="H141" s="37">
+        <f t="shared" si="20"/>
+        <v>31.764705882352942</v>
+      </c>
+      <c r="I141" s="38">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="25">
+        <v>2048</v>
+      </c>
+      <c r="B142" s="36">
+        <f t="shared" ref="B142:I142" si="21">$B16/B130</f>
+        <v>24</v>
+      </c>
+      <c r="C142" s="37">
+        <f t="shared" si="21"/>
+        <v>98.181818181818173</v>
+      </c>
+      <c r="D142" s="37">
+        <f t="shared" si="21"/>
+        <v>113.68421052631579</v>
+      </c>
+      <c r="E142" s="37">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="F142" s="37">
+        <f t="shared" si="21"/>
+        <v>102.85714285714285</v>
+      </c>
+      <c r="G142" s="37">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="H142" s="37">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="I142" s="38">
+        <f t="shared" si="21"/>
+        <v>77.142857142857153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="25">
+        <v>4096</v>
+      </c>
+      <c r="B143" s="36">
+        <f t="shared" ref="B143:I143" si="22">$B17/B131</f>
+        <v>28.453947368421055</v>
+      </c>
+      <c r="C143" s="37">
+        <f t="shared" si="22"/>
+        <v>210.97560975609758</v>
+      </c>
+      <c r="D143" s="37">
+        <f t="shared" si="22"/>
+        <v>216.25</v>
+      </c>
+      <c r="E143" s="37">
+        <f t="shared" si="22"/>
+        <v>227.63157894736844</v>
+      </c>
+      <c r="F143" s="37">
+        <f t="shared" si="22"/>
+        <v>216.25</v>
+      </c>
+      <c r="G143" s="37">
+        <f t="shared" si="22"/>
+        <v>210.97560975609758</v>
+      </c>
+      <c r="H143" s="37">
+        <f t="shared" si="22"/>
+        <v>210.97560975609758</v>
+      </c>
+      <c r="I143" s="38">
+        <f t="shared" si="22"/>
+        <v>176.53061224489795</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="25">
+        <v>8192</v>
+      </c>
+      <c r="B144" s="36">
+        <f t="shared" ref="B144:I144" si="23">$B18/B132</f>
+        <v>29.01255230125523</v>
+      </c>
+      <c r="C144" s="37">
+        <f t="shared" si="23"/>
+        <v>376.84782608695656</v>
+      </c>
+      <c r="D144" s="37">
+        <f t="shared" si="23"/>
+        <v>450.25974025974023</v>
+      </c>
+      <c r="E144" s="37">
+        <f t="shared" si="23"/>
+        <v>468.51351351351349</v>
+      </c>
+      <c r="F144" s="37">
+        <f t="shared" si="23"/>
+        <v>462.26666666666665</v>
+      </c>
+      <c r="G144" s="37">
+        <f t="shared" si="23"/>
+        <v>462.26666666666665</v>
+      </c>
+      <c r="H144" s="37">
+        <f t="shared" si="23"/>
+        <v>456.18421052631584</v>
+      </c>
+      <c r="I144" s="38">
+        <f t="shared" si="23"/>
+        <v>380.98901098901098</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="25">
+        <v>16384</v>
+      </c>
+      <c r="B145" s="36">
+        <f t="shared" ref="B145:I145" si="24">$B19/B133</f>
+        <v>29.035916824196597</v>
+      </c>
+      <c r="C145" s="37">
+        <f t="shared" si="24"/>
+        <v>457.74834437086093</v>
+      </c>
+      <c r="D145" s="37">
+        <f t="shared" si="24"/>
+        <v>880.50955414012742</v>
+      </c>
+      <c r="E145" s="37">
+        <f t="shared" si="24"/>
+        <v>869.43396226415098</v>
+      </c>
+      <c r="F145" s="37">
+        <f t="shared" si="24"/>
+        <v>874.9367088607595</v>
+      </c>
+      <c r="G145" s="37">
+        <f t="shared" si="24"/>
+        <v>874.9367088607595</v>
+      </c>
+      <c r="H145" s="37">
+        <f t="shared" si="24"/>
+        <v>869.43396226415098</v>
+      </c>
+      <c r="I145" s="38">
+        <f t="shared" si="24"/>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="26">
+        <v>32768</v>
+      </c>
+      <c r="B146" s="51">
+        <f t="shared" ref="B146:I146" si="25">$B20/B134</f>
+        <v>29.236431029917924</v>
+      </c>
+      <c r="C146" s="40">
+        <f t="shared" si="25"/>
+        <v>455.17724649629019</v>
+      </c>
+      <c r="D146" s="40">
+        <f t="shared" si="25"/>
+        <v>899.23452768729646</v>
+      </c>
+      <c r="E146" s="40">
+        <f t="shared" si="25"/>
+        <v>920.2166666666667</v>
+      </c>
+      <c r="F146" s="40">
+        <f t="shared" si="25"/>
+        <v>918.6855241264559</v>
+      </c>
+      <c r="G146" s="40">
+        <f t="shared" si="25"/>
+        <v>912.61157024793386</v>
+      </c>
+      <c r="H146" s="40">
+        <f t="shared" si="25"/>
+        <v>896.31493506493507</v>
+      </c>
+      <c r="I146" s="41">
+        <f t="shared" si="25"/>
+        <v>877.79014308426076</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="9"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="50">
+        <v>1</v>
+      </c>
+      <c r="C165" s="23">
+        <v>16</v>
+      </c>
+      <c r="D165" s="23">
+        <v>32</v>
+      </c>
+      <c r="E165" s="23">
+        <v>64</v>
+      </c>
+      <c r="F165" s="23">
+        <v>128</v>
+      </c>
+      <c r="G165" s="23">
+        <v>256</v>
+      </c>
+      <c r="H165" s="23">
+        <v>512</v>
+      </c>
+      <c r="I165" s="32">
+        <v>1024</v>
+      </c>
+      <c r="J165" s="31">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="24">
+        <v>512</v>
+      </c>
+      <c r="B166" s="52">
+        <f>B140/B$165</f>
+        <v>8.125</v>
+      </c>
+      <c r="C166" s="53">
+        <f t="shared" ref="C166:I166" si="26">C140/C$165</f>
+        <v>1.015625</v>
+      </c>
+      <c r="D166" s="53">
+        <f t="shared" si="26"/>
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="E166" s="53">
+        <f t="shared" si="26"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F166" s="53">
+        <f t="shared" si="26"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="G166" s="53">
+        <f t="shared" si="26"/>
+        <v>3.6272321428571432E-2</v>
+      </c>
+      <c r="H166" s="53">
+        <f t="shared" si="26"/>
+        <v>2.1158854166666668E-2</v>
+      </c>
+      <c r="I166" s="54">
+        <f t="shared" si="26"/>
+        <v>1.5869140625E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="25">
+        <v>1024</v>
+      </c>
+      <c r="B167" s="55">
+        <f t="shared" ref="B167:I167" si="27">B141/B$165</f>
+        <v>18.620689655172413</v>
+      </c>
+      <c r="C167" s="56">
+        <f t="shared" si="27"/>
+        <v>1.875</v>
+      </c>
+      <c r="D167" s="56">
+        <f t="shared" si="27"/>
+        <v>0.99264705882352944</v>
+      </c>
+      <c r="E167" s="56">
+        <f t="shared" si="27"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F167" s="56">
+        <f t="shared" si="27"/>
+        <v>0.24816176470588236</v>
+      </c>
+      <c r="G167" s="56">
+        <f t="shared" si="27"/>
+        <v>0.1318359375</v>
+      </c>
+      <c r="H167" s="56">
+        <f t="shared" si="27"/>
+        <v>6.204044117647059E-2</v>
+      </c>
+      <c r="I167" s="57">
+        <f t="shared" si="27"/>
+        <v>3.515625E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="25">
+        <v>2048</v>
+      </c>
+      <c r="B168" s="55">
+        <f t="shared" ref="B168:I168" si="28">B142/B$165</f>
+        <v>24</v>
+      </c>
+      <c r="C168" s="56">
+        <f t="shared" si="28"/>
+        <v>6.1363636363636358</v>
+      </c>
+      <c r="D168" s="56">
+        <f t="shared" si="28"/>
+        <v>3.5526315789473686</v>
+      </c>
+      <c r="E168" s="56">
+        <f t="shared" si="28"/>
+        <v>1.40625</v>
+      </c>
+      <c r="F168" s="56">
+        <f t="shared" si="28"/>
+        <v>0.80357142857142849</v>
+      </c>
+      <c r="G168" s="56">
+        <f t="shared" si="28"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="H168" s="56">
+        <f t="shared" si="28"/>
+        <v>0.17578125</v>
+      </c>
+      <c r="I168" s="57">
+        <f t="shared" si="28"/>
+        <v>7.5334821428571438E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="25">
+        <v>4096</v>
+      </c>
+      <c r="B169" s="55">
+        <f t="shared" ref="B169:I169" si="29">B143/B$165</f>
+        <v>28.453947368421055</v>
+      </c>
+      <c r="C169" s="56">
+        <f t="shared" si="29"/>
+        <v>13.185975609756099</v>
+      </c>
+      <c r="D169" s="56">
+        <f t="shared" si="29"/>
+        <v>6.7578125</v>
+      </c>
+      <c r="E169" s="56">
+        <f t="shared" si="29"/>
+        <v>3.5567434210526319</v>
+      </c>
+      <c r="F169" s="56">
+        <f t="shared" si="29"/>
+        <v>1.689453125</v>
+      </c>
+      <c r="G169" s="56">
+        <f t="shared" si="29"/>
+        <v>0.82412347560975618</v>
+      </c>
+      <c r="H169" s="56">
+        <f t="shared" si="29"/>
+        <v>0.41206173780487809</v>
+      </c>
+      <c r="I169" s="57">
+        <f t="shared" si="29"/>
+        <v>0.17239317602040816</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="25">
+        <v>8192</v>
+      </c>
+      <c r="B170" s="55">
+        <f t="shared" ref="B170:I170" si="30">B144/B$165</f>
+        <v>29.01255230125523</v>
+      </c>
+      <c r="C170" s="56">
+        <f t="shared" si="30"/>
+        <v>23.552989130434785</v>
+      </c>
+      <c r="D170" s="56">
+        <f t="shared" si="30"/>
+        <v>14.070616883116882</v>
+      </c>
+      <c r="E170" s="56">
+        <f t="shared" si="30"/>
+        <v>7.3205236486486482</v>
+      </c>
+      <c r="F170" s="56">
+        <f t="shared" si="30"/>
+        <v>3.6114583333333332</v>
+      </c>
+      <c r="G170" s="56">
+        <f t="shared" si="30"/>
+        <v>1.8057291666666666</v>
+      </c>
+      <c r="H170" s="56">
+        <f t="shared" si="30"/>
+        <v>0.89098478618421062</v>
+      </c>
+      <c r="I170" s="57">
+        <f t="shared" si="30"/>
+        <v>0.37205958104395603</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="25">
+        <v>16384</v>
+      </c>
+      <c r="B171" s="55">
+        <f t="shared" ref="B171:I171" si="31">B145/B$165</f>
+        <v>29.035916824196597</v>
+      </c>
+      <c r="C171" s="56">
+        <f t="shared" si="31"/>
+        <v>28.609271523178808</v>
+      </c>
+      <c r="D171" s="56">
+        <f t="shared" si="31"/>
+        <v>27.515923566878982</v>
+      </c>
+      <c r="E171" s="56">
+        <f t="shared" si="31"/>
+        <v>13.584905660377359</v>
+      </c>
+      <c r="F171" s="56">
+        <f t="shared" si="31"/>
+        <v>6.8354430379746836</v>
+      </c>
+      <c r="G171" s="56">
+        <f t="shared" si="31"/>
+        <v>3.4177215189873418</v>
+      </c>
+      <c r="H171" s="56">
+        <f t="shared" si="31"/>
+        <v>1.6981132075471699</v>
+      </c>
+      <c r="I171" s="57">
+        <f t="shared" si="31"/>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="26">
+        <v>32768</v>
+      </c>
+      <c r="B172" s="58">
+        <f t="shared" ref="B172:I172" si="32">B146/B$165</f>
+        <v>29.236431029917924</v>
+      </c>
+      <c r="C172" s="59">
+        <f t="shared" si="32"/>
+        <v>28.448577906018137</v>
+      </c>
+      <c r="D172" s="59">
+        <f t="shared" si="32"/>
+        <v>28.101078990228014</v>
+      </c>
+      <c r="E172" s="59">
+        <f t="shared" si="32"/>
+        <v>14.378385416666667</v>
+      </c>
+      <c r="F172" s="59">
+        <f t="shared" si="32"/>
+        <v>7.1772306572379367</v>
+      </c>
+      <c r="G172" s="59">
+        <f t="shared" si="32"/>
+        <v>3.5648889462809916</v>
+      </c>
+      <c r="H172" s="59">
+        <f t="shared" si="32"/>
+        <v>1.7506151075487013</v>
+      </c>
+      <c r="I172" s="60">
+        <f t="shared" si="32"/>
+        <v>0.8572169366057234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nbody/Results/Analysis.xlsx
+++ b/nbody/Results/Analysis.xlsx
@@ -527,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -689,11 +689,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -744,12 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,28 +804,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,6 +812,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2968,2130 +2980,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GPU Speedup (With Divergence)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$52:$C$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.142857142857153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>270.859375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>291.64556962025318</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>297.32364028002155</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$52:$D$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.529411764705884</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>139.51612903225805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>251.231884057971</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>317.06422018348621</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>333.41183574879227</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$52:$E$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.142857142857153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>254.9264705882353</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>317.79310344827587</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>349.67067764407852</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$52:$F$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6.8421052631578947</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.482758620689651</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>268.75968992248062</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>328.36104513064134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>349.89226869455001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$52:$G$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.482758620689651</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>266.69230769230768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>331.51079136690646</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350.11414077362082</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$52:$H$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.2857142857142865</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.482758620689651</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>169.60784313725492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>260.6766917293233</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>319.26096997690536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>349.2283364958887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$52:$I$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.714285714285712</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>144.16666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>272.99212598425197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>322.99065420560748</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>351.89929891650729</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2B12-4574-B53D-BD8D0AAE732C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="437083216"/>
-        <c:axId val="437084856"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="437083216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Particles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437084856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="437084856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Multiplier</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437083216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>GPU Efficiency - 2048 Available GPU Cores (With Divergence)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$78:$B$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.736263736263737</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.218658892128282</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.796130952380953</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.853749766224048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E951-4685-AEC8-A6D401D8500C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$78:$C$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.54166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8214285714285721</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.033163265306122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.9287109375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.227848101265824</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.582727517501347</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$78:$D$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.33854166666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88815789473684215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9852941176470589</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3598790322580641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.8509963768115938</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9082568807339442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.419119867149758</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$78:$E$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.13541666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44407894736842107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.205357142857143</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7582908163265305</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9832261029411766</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9655172413793105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4636043381887269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$78:$F$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.3453947368421052E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22203947368421054</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5818965517241379</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3515625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0996850775193798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5653206650831355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.733533349176172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$78:$G$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.3854166666666664E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1171875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29094827586206895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68957270408163263</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0417668269230769</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2949640287769784</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3676333623969563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$78:$H$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.8136160714285716E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.859375E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14547413793103448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33126531862745101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50913416353383456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62355658198614328</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.68208659471853261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$78:$A$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$78:$I$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.5390625E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.511160714285714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3920454545454544E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14078776041666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26659387303149606</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.31542056074766356</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34365165909815165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-756D-4540-BB90-582EDF4ADE84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="554412472"/>
-        <c:axId val="554398696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="554412472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Particles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554398696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="554398696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Efficiency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554412472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>GPU Time - Threads Per Block (With Divergence)</a:t>
             </a:r>
           </a:p>
@@ -6189,7 +4077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7326,1124 +5214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>GPU Speedup (Without</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Divergence</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$140:$B$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.620689655172413</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.453947368421055</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.01255230125523</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.035916824196597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.236431029917924</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$140:$C$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.181818181818173</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.97560975609758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>376.84782608695656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>457.74834437086093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>455.17724649629019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$140:$D$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113.68421052631579</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>450.25974025974023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>880.50955414012742</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>899.23452768729646</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$140:$E$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>227.63157894736844</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>468.51351351351349</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>869.43396226415098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>920.2166666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$140:$F$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102.85714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>462.26666666666665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>874.9367088607595</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>918.6855241264559</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$140:$G$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.2857142857142865</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.97560975609758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>462.26666666666665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>874.9367088607595</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>912.61157024793386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$140:$H$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.97560975609758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>456.18421052631584</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>869.43396226415098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>896.31493506493507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$139</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$140:$A$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$140:$I$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.142857142857153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>176.53061224489795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>380.98901098901098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>877.79014308426076</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C59C-437F-9D64-504CDB4F4DFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="571563704"/>
-        <c:axId val="571565016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="571563704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Particles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="571565016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="571565016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Speedup Multiplier</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="571563704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8528,7 +5299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8582,25 +5353,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.620689655172413</c:v>
+                  <c:v>0.10069444444444443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>0.25568181818181818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.453947368421055</c:v>
+                  <c:v>0.46341463414634149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.01255230125523</c:v>
+                  <c:v>0.81182065217391308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.035916824196597</c:v>
+                  <c:v>0.98530629139072856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.236431029917924</c:v>
+                  <c:v>0.97305234954657871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8608,7 +5379,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{00000001-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8621,7 +5392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8638,36 +5409,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$166:$C$172</c:f>
@@ -8675,25 +5416,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.015625</c:v>
+                  <c:v>2.777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.875</c:v>
+                  <c:v>5.3308823529411763E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1363636363636358</c:v>
+                  <c:v>0.1480263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.185975609756099</c:v>
+                  <c:v>0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.552989130434785</c:v>
+                  <c:v>0.48498376623376621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.609271523178808</c:v>
+                  <c:v>0.94765127388535042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.448577906018137</c:v>
+                  <c:v>0.96116653094462545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8701,7 +5442,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{00000008-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8714,7 +5455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8731,36 +5472,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$166:$D$172</c:f>
@@ -8768,25 +5479,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.22569444444444445</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99264705882352944</c:v>
+                  <c:v>3.0208333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5526315789473686</c:v>
+                  <c:v>5.859375E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7578125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.070616883116882</c:v>
+                  <c:v>0.25232263513513514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.515923566878982</c:v>
+                  <c:v>0.46786556603773588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.101078990228014</c:v>
+                  <c:v>0.49179687500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8794,7 +5505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{00000009-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8807,7 +5518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8824,36 +5535,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$166:$E$172</c:f>
@@ -8861,25 +5542,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>9.6153846153846159E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5625</c:v>
+                  <c:v>1.3327205882352941E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.40625</c:v>
+                  <c:v>3.3482142857142856E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5567434210526319</c:v>
+                  <c:v>5.9374999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3205236486486482</c:v>
+                  <c:v>0.12447916666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.584905660377359</c:v>
+                  <c:v>0.23541337025316456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.378385416666667</c:v>
+                  <c:v>0.24548928868552411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8887,7 +5568,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{0000000A-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8900,7 +5581,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8917,36 +5598,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$166:$F$172</c:f>
@@ -8954,25 +5605,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.8125E-2</c:v>
+                  <c:v>4.4642857142857149E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24816176470588236</c:v>
+                  <c:v>7.0800781249999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80357142857142849</c:v>
+                  <c:v>1.46484375E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.689453125</c:v>
+                  <c:v>2.8963414634146343E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6114583333333332</c:v>
+                  <c:v>6.2239583333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8354430379746836</c:v>
+                  <c:v>0.11770668512658228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1772306572379367</c:v>
+                  <c:v>0.12193310950413223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8980,7 +5631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{0000000B-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8993,7 +5644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9010,36 +5661,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$166:$G$172</c:f>
@@ -9047,25 +5668,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.6272321428571432E-2</c:v>
+                  <c:v>2.604166666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1318359375</c:v>
+                  <c:v>3.3318014705882352E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3515625</c:v>
+                  <c:v>7.32421875E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82412347560975618</c:v>
+                  <c:v>1.4481707317073171E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8057291666666666</c:v>
+                  <c:v>3.0710320723684213E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4177215189873418</c:v>
+                  <c:v>5.8483195754716985E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5648889462809916</c:v>
+                  <c:v>5.9877866274350648E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9073,7 +5694,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{0000000C-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9086,7 +5707,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9105,36 +5726,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$166:$H$172</c:f>
@@ -9142,25 +5733,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.1158854166666668E-2</c:v>
+                  <c:v>1.953125E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.204044117647059E-2</c:v>
+                  <c:v>1.8880208333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17578125</c:v>
+                  <c:v>3.138950892857143E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41206173780487809</c:v>
+                  <c:v>6.058673469387754E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89098478618421062</c:v>
+                  <c:v>1.2824089972527474E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6981132075471699</c:v>
+                  <c:v>2.9058837890625001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7506151075487013</c:v>
+                  <c:v>2.9320163453895071E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9168,102 +5759,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2C12-462B-8EA0-C930C05C20F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$165</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$166:$A$172</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$166:$I$172</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.5869140625E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.515625E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5334821428571438E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17239317602040816</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37205958104395603</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8572169366057234</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2C12-462B-8EA0-C930C05C20F3}"/>
+              <c16:uniqueId val="{0000000D-055F-495D-AB5E-016F451FEAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9495,6 +5991,3114 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="605667352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Speedup (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Without </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Divergence)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$140:$B$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4146341463414638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.989130434782609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.764900662251657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.568837592745259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$140:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.88888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7368421052631584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.519480519480519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.324840764331213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.757328990228014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$140:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.148648648648649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.943396226415096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.475000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$140:$E$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.132911392405063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.422628951747086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$140:$F$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4146341463414638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.132911392405063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.214876033057852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$140:$G$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4146341463414638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.723684210526317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.943396226415096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.657467532467532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$140:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$140:$H$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2040816326530601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.131868131868133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.756250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.023847376788552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-513A-4B45-A19F-4BF046539897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564307440"/>
+        <c:axId val="569446448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="564307440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569446448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="569446448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup Multiplier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564307440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Speedup (With</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Divergence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.28059071729958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6842105263157896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6764705882352939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5322580645161281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7391304347826093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.263761467889909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$52:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6842105263157896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.291954022988508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.78947368421052633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6842105263157896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1379310344827585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.418604651162791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.700712589073635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1379310344827585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.338461538461539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.82254196642686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1379310344827585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7254901960784315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.105263157894736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.348729792147807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7575757575757578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7166666666666659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.582677165354331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.49299065420561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AEF5-40F7-9003-3C98F2260A39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="672745936"/>
+        <c:axId val="672746920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="672745936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Particles</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672746920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672746920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup Multiplier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672745936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Efficiency </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>(With Divergence)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43749999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70503691983122374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$78:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.90625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2631578947368425E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3639705882352935E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.172883064516129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30434782608695654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38324254587155965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$78:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6315789473684213E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.078125E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10937499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15441176470588236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19206178160919543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$78:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.1677631578947369E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3157894736842106E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.451508620689655E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3593749999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1395348837209308E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9224317102137777E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$78:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9444444444444449E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2257543103448275E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7343749999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0384615384615387E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.008805455635492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$78:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0926339285714285E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1287715517241376E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3135723039215686E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9736842105263157E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4118612875288686E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$78:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$78:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9296875E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.488095238095238E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.692945075757576E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5826822916666659E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0334645669291339E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200186185747666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-76FC-48E6-B3DB-F255E2A200DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="675999112"/>
+        <c:axId val="676001736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="675999112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45407309715052729"/>
+              <c:y val="0.91075743880473992"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676001736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676001736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675999112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13032,7 +12636,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13140,11 +12744,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13155,11 +12754,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13191,9 +12785,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13548,7 +13139,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13656,11 +13247,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13671,11 +13257,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13707,9 +13288,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14673,129 +14251,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>814253</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15789889" y="6185967"/>
-          <a:ext cx="713400" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Threads: </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1197429</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74837</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>84363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1158876</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -14818,7 +14273,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14848,37 +14303,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>156480</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>29935</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1018268</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14908,6 +14333,96 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>827770</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1229180</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61230</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1179285</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
@@ -14918,15 +14433,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="delete" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15194,8 +14709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15888,30 +15403,30 @@
       <c r="M13" s="10">
         <v>512</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="31">
         <f t="shared" ref="N13:N19" si="0">$B14/C14</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="32">
         <f t="shared" ref="O13:P13" si="1">$B14/D14</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="33">
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="R13" s="7">
         <v>512</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="40">
         <f>N13/S$12</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="41">
         <f>O13/T$12</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="U13" s="44">
+      <c r="U13" s="42">
         <f>P13/4</f>
         <v>0.8125</v>
       </c>
@@ -15936,15 +15451,15 @@
         <f>M13*2</f>
         <v>1024</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="34">
         <f t="shared" si="0"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="35">
         <f>$B15/D15</f>
         <v>3.8571428571428572</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="36">
         <f>$B15/E15</f>
         <v>5.4</v>
       </c>
@@ -15952,15 +15467,15 @@
         <f>R13*2</f>
         <v>1024</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="43">
         <f>N14/S$12</f>
         <v>1.0384615384615385</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="44">
         <f>O14/T$12</f>
         <v>0.9642857142857143</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="45">
         <f t="shared" ref="U14:U19" si="2">P14/4</f>
         <v>1.35</v>
       </c>
@@ -15985,15 +15500,15 @@
         <f t="shared" ref="M15:M19" si="3">M14*2</f>
         <v>2048</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="34">
         <f t="shared" si="0"/>
         <v>2.1386138613861387</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="35">
         <f>$B16/D16</f>
         <v>4</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
         <f t="shared" ref="P15:P19" si="4">$B16/E16</f>
         <v>5.4</v>
       </c>
@@ -16001,15 +15516,15 @@
         <f t="shared" ref="R15:R19" si="5">R14*2</f>
         <v>2048</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="43">
         <f t="shared" ref="S15:S19" si="6">N15/S$12</f>
         <v>1.0693069306930694</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="44">
         <f t="shared" ref="T15:T19" si="7">O15/T$12</f>
         <v>1</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="45">
         <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
@@ -16034,15 +15549,15 @@
         <f t="shared" si="3"/>
         <v>4096</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="34">
         <f t="shared" si="0"/>
         <v>2.1358024691358026</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="35">
         <f>$B17/D17</f>
         <v>4.0995260663507107</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="36">
         <f t="shared" si="4"/>
         <v>6.1785714285714288</v>
       </c>
@@ -16050,15 +15565,15 @@
         <f t="shared" si="5"/>
         <v>4096</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="43">
         <f t="shared" si="6"/>
         <v>1.0679012345679013</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="44">
         <f t="shared" si="7"/>
         <v>1.0248815165876777</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="45">
         <f t="shared" si="2"/>
         <v>1.5446428571428572</v>
       </c>
@@ -16083,15 +15598,15 @@
         <f t="shared" si="3"/>
         <v>8192</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="34">
         <f t="shared" si="0"/>
         <v>2.148079306071871</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="35">
         <f>$B18/D18</f>
         <v>4.1520958083832333</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="36">
         <f t="shared" si="4"/>
         <v>6.3966789667896675</v>
       </c>
@@ -16099,15 +15614,15 @@
         <f t="shared" si="5"/>
         <v>8192</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="43">
         <f t="shared" si="6"/>
         <v>1.0740396530359355</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="44">
         <f t="shared" si="7"/>
         <v>1.0380239520958083</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="45">
         <f t="shared" si="2"/>
         <v>1.5991697416974169</v>
       </c>
@@ -16132,15 +15647,15 @@
         <f t="shared" si="3"/>
         <v>16384</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="34">
         <f t="shared" si="0"/>
         <v>2.136960890400371</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="35">
         <f>$B19/D19</f>
         <v>4.0947867298578196</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="36">
         <f t="shared" si="4"/>
         <v>6.355862068965517</v>
       </c>
@@ -16148,15 +15663,15 @@
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="43">
         <f t="shared" si="6"/>
         <v>1.0684804452001855</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="44">
         <f t="shared" si="7"/>
         <v>1.0236966824644549</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="45">
         <f t="shared" si="2"/>
         <v>1.5889655172413792</v>
       </c>
@@ -16181,15 +15696,15 @@
         <f t="shared" si="3"/>
         <v>32768</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="49">
         <f t="shared" si="0"/>
         <v>2.1309532998842147</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="38">
         <f>$B20/D20</f>
         <v>3.9412520522521235</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="39">
         <f t="shared" si="4"/>
         <v>6.3815302820157189</v>
       </c>
@@ -16197,15 +15712,15 @@
         <f t="shared" si="5"/>
         <v>32768</v>
       </c>
-      <c r="S19" s="39">
+      <c r="S19" s="37">
         <f t="shared" si="6"/>
         <v>1.0654766499421073</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="46">
         <f t="shared" si="7"/>
         <v>0.98531301306303087</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="47">
         <f t="shared" si="2"/>
         <v>1.5953825705039297</v>
       </c>
@@ -16231,7 +15746,7 @@
       <c r="A21" s="2"/>
     </row>
     <row r="34" spans="1:41" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="52" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16717,6 +16232,9 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
@@ -16727,292 +16245,276 @@
         <v>72</v>
       </c>
       <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="50">
-        <v>1</v>
+      <c r="B51" s="48">
+        <v>16</v>
       </c>
       <c r="C51" s="23">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D51" s="23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E51" s="23">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F51" s="23">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G51" s="23">
-        <v>256</v>
-      </c>
-      <c r="H51" s="23">
         <v>512</v>
       </c>
-      <c r="I51" s="32">
+      <c r="H51" s="30">
         <v>1024</v>
       </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>512</v>
       </c>
-      <c r="B52" s="33">
-        <f t="shared" ref="B52:I52" si="8">$B14/B40</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="C52" s="34">
+      <c r="B52" s="31">
+        <f>$B40/C40</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="31">
+        <f t="shared" ref="C52:H52" si="8">$B40/D40</f>
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="31">
         <f t="shared" si="8"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="D52" s="34">
+        <v>1</v>
+      </c>
+      <c r="E52" s="31">
         <f t="shared" si="8"/>
-        <v>10.833333333333334</v>
-      </c>
-      <c r="E52" s="34">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="F52" s="31">
         <f t="shared" si="8"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="F52" s="34">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31">
         <f t="shared" si="8"/>
-        <v>6.8421052631578947</v>
-      </c>
-      <c r="G52" s="34">
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="H52" s="54">
         <f t="shared" si="8"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="H52" s="34">
-        <f t="shared" si="8"/>
-        <v>9.2857142857142865</v>
-      </c>
-      <c r="I52" s="35">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>1024</v>
       </c>
-      <c r="B53" s="36">
-        <f t="shared" ref="B53:B57" si="9">$B15/B41</f>
-        <v>16.875</v>
-      </c>
-      <c r="C53" s="37">
-        <f t="shared" ref="C53:I58" si="10">$B15/C41</f>
-        <v>30</v>
-      </c>
-      <c r="D53" s="37">
-        <f t="shared" si="10"/>
-        <v>28.421052631578949</v>
-      </c>
-      <c r="E53" s="37">
-        <f t="shared" si="10"/>
-        <v>28.421052631578949</v>
-      </c>
-      <c r="F53" s="37">
-        <f t="shared" si="10"/>
-        <v>28.421052631578949</v>
-      </c>
-      <c r="G53" s="37">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="H53" s="37">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I53" s="38">
-        <f t="shared" si="10"/>
-        <v>25.714285714285712</v>
-      </c>
+      <c r="B53" s="31">
+        <f t="shared" ref="B53:H53" si="9">$B41/C41</f>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="C53" s="31">
+        <f t="shared" si="9"/>
+        <v>1.6842105263157896</v>
+      </c>
+      <c r="D53" s="31">
+        <f t="shared" si="9"/>
+        <v>1.6842105263157896</v>
+      </c>
+      <c r="E53" s="31">
+        <f t="shared" si="9"/>
+        <v>1.6842105263157896</v>
+      </c>
+      <c r="F53" s="31">
+        <f t="shared" si="9"/>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="G53" s="31">
+        <f t="shared" si="9"/>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="H53" s="54">
+        <f t="shared" si="9"/>
+        <v>1.5238095238095237</v>
+      </c>
+      <c r="I53" s="35"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>2048</v>
       </c>
-      <c r="B54" s="36">
-        <f t="shared" si="9"/>
-        <v>23.736263736263737</v>
-      </c>
-      <c r="C54" s="37">
+      <c r="B54" s="31">
+        <f t="shared" ref="B54:H54" si="10">$B42/C42</f>
+        <v>3.25</v>
+      </c>
+      <c r="C54" s="31">
         <f t="shared" si="10"/>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="D54" s="37">
+        <v>2.6764705882352939</v>
+      </c>
+      <c r="D54" s="31">
         <f t="shared" si="10"/>
-        <v>63.529411764705884</v>
-      </c>
-      <c r="E54" s="37">
+        <v>3.25</v>
+      </c>
+      <c r="E54" s="31">
         <f t="shared" si="10"/>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="F54" s="37">
+        <v>3.1379310344827585</v>
+      </c>
+      <c r="F54" s="31">
         <f t="shared" si="10"/>
-        <v>74.482758620689651</v>
-      </c>
-      <c r="G54" s="37">
+        <v>3.1379310344827585</v>
+      </c>
+      <c r="G54" s="31">
         <f t="shared" si="10"/>
-        <v>74.482758620689651</v>
-      </c>
-      <c r="H54" s="37">
+        <v>3.1379310344827585</v>
+      </c>
+      <c r="H54" s="54">
         <f t="shared" si="10"/>
-        <v>74.482758620689651</v>
-      </c>
-      <c r="I54" s="38">
-        <f t="shared" si="10"/>
-        <v>65.454545454545453</v>
-      </c>
+        <v>2.7575757575757578</v>
+      </c>
+      <c r="I54" s="35"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>4096</v>
       </c>
-      <c r="B55" s="36">
-        <f t="shared" si="9"/>
-        <v>25.218658892128282</v>
-      </c>
-      <c r="C55" s="37">
-        <f t="shared" si="10"/>
-        <v>176.53061224489795</v>
-      </c>
-      <c r="D55" s="37">
-        <f t="shared" si="10"/>
-        <v>139.51612903225805</v>
-      </c>
-      <c r="E55" s="37">
-        <f t="shared" si="10"/>
-        <v>176.53061224489795</v>
-      </c>
-      <c r="F55" s="37">
-        <f t="shared" si="10"/>
-        <v>173</v>
-      </c>
-      <c r="G55" s="37">
-        <f t="shared" si="10"/>
-        <v>176.53061224489795</v>
-      </c>
-      <c r="H55" s="37">
-        <f t="shared" si="10"/>
-        <v>169.60784313725492</v>
-      </c>
-      <c r="I55" s="38">
-        <f t="shared" si="10"/>
-        <v>144.16666666666666</v>
-      </c>
+      <c r="B55" s="31">
+        <f t="shared" ref="B55:H55" si="11">$B43/C43</f>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="C55" s="31">
+        <f t="shared" si="11"/>
+        <v>5.5322580645161281</v>
+      </c>
+      <c r="D55" s="31">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="E55" s="31">
+        <f t="shared" si="11"/>
+        <v>6.8599999999999994</v>
+      </c>
+      <c r="F55" s="31">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="G55" s="31">
+        <f t="shared" si="11"/>
+        <v>6.7254901960784315</v>
+      </c>
+      <c r="H55" s="54">
+        <f t="shared" si="11"/>
+        <v>5.7166666666666659</v>
+      </c>
+      <c r="I55" s="35"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>8192</v>
       </c>
-      <c r="B56" s="36">
-        <f t="shared" si="9"/>
-        <v>25.796130952380953</v>
-      </c>
-      <c r="C56" s="37">
-        <f t="shared" si="10"/>
-        <v>270.859375</v>
-      </c>
-      <c r="D56" s="37">
-        <f t="shared" si="10"/>
-        <v>251.231884057971</v>
-      </c>
-      <c r="E56" s="37">
-        <f t="shared" si="10"/>
-        <v>254.9264705882353</v>
-      </c>
-      <c r="F56" s="37">
-        <f t="shared" si="10"/>
-        <v>268.75968992248062</v>
-      </c>
-      <c r="G56" s="37">
-        <f t="shared" si="10"/>
-        <v>266.69230769230768</v>
-      </c>
-      <c r="H56" s="37">
-        <f t="shared" si="10"/>
-        <v>260.6766917293233</v>
-      </c>
-      <c r="I56" s="38">
-        <f t="shared" si="10"/>
-        <v>272.99212598425197</v>
-      </c>
+      <c r="B56" s="31">
+        <f t="shared" ref="B56:H56" si="12">$B44/C44</f>
+        <v>10.5</v>
+      </c>
+      <c r="C56" s="31">
+        <f t="shared" si="12"/>
+        <v>9.7391304347826093</v>
+      </c>
+      <c r="D56" s="31">
+        <f t="shared" si="12"/>
+        <v>9.882352941176471</v>
+      </c>
+      <c r="E56" s="31">
+        <f t="shared" si="12"/>
+        <v>10.418604651162791</v>
+      </c>
+      <c r="F56" s="31">
+        <f t="shared" si="12"/>
+        <v>10.338461538461539</v>
+      </c>
+      <c r="G56" s="31">
+        <f t="shared" si="12"/>
+        <v>10.105263157894736</v>
+      </c>
+      <c r="H56" s="54">
+        <f t="shared" si="12"/>
+        <v>10.582677165354331</v>
+      </c>
+      <c r="I56" s="35"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>16384</v>
       </c>
-      <c r="B57" s="36">
-        <f t="shared" si="9"/>
-        <v>25.853749766224048</v>
-      </c>
-      <c r="C57" s="37">
-        <f t="shared" si="10"/>
-        <v>291.64556962025318</v>
-      </c>
-      <c r="D57" s="37">
-        <f t="shared" si="10"/>
-        <v>317.06422018348621</v>
-      </c>
-      <c r="E57" s="37">
-        <f t="shared" si="10"/>
-        <v>317.79310344827587</v>
-      </c>
-      <c r="F57" s="37">
-        <f t="shared" si="10"/>
-        <v>328.36104513064134</v>
-      </c>
-      <c r="G57" s="37">
-        <f t="shared" si="10"/>
-        <v>331.51079136690646</v>
-      </c>
-      <c r="H57" s="37">
-        <f t="shared" si="10"/>
-        <v>319.26096997690536</v>
-      </c>
-      <c r="I57" s="38">
-        <f t="shared" si="10"/>
-        <v>322.99065420560748</v>
-      </c>
+      <c r="B57" s="31">
+        <f t="shared" ref="B57:H57" si="13">$B45/C45</f>
+        <v>11.28059071729958</v>
+      </c>
+      <c r="C57" s="31">
+        <f t="shared" si="13"/>
+        <v>12.263761467889909</v>
+      </c>
+      <c r="D57" s="31">
+        <f t="shared" si="13"/>
+        <v>12.291954022988508</v>
+      </c>
+      <c r="E57" s="31">
+        <f t="shared" si="13"/>
+        <v>12.700712589073635</v>
+      </c>
+      <c r="F57" s="31">
+        <f t="shared" si="13"/>
+        <v>12.82254196642686</v>
+      </c>
+      <c r="G57" s="31">
+        <f t="shared" si="13"/>
+        <v>12.348729792147807</v>
+      </c>
+      <c r="H57" s="54">
+        <f t="shared" si="13"/>
+        <v>12.49299065420561</v>
+      </c>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>32768</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="55">
+        <f t="shared" ref="B58:H58" si="14">$B46/C46</f>
         <v>0</v>
       </c>
-      <c r="C58" s="40">
-        <f t="shared" si="10"/>
-        <v>297.32364028002155</v>
-      </c>
-      <c r="D58" s="40">
-        <f t="shared" si="10"/>
-        <v>333.41183574879227</v>
-      </c>
-      <c r="E58" s="40">
-        <f t="shared" si="10"/>
-        <v>349.67067764407852</v>
-      </c>
-      <c r="F58" s="40">
-        <f t="shared" si="10"/>
-        <v>349.89226869455001</v>
-      </c>
-      <c r="G58" s="40">
-        <f t="shared" si="10"/>
-        <v>350.11414077362082</v>
-      </c>
-      <c r="H58" s="40">
-        <f t="shared" si="10"/>
-        <v>349.2283364958887</v>
-      </c>
-      <c r="I58" s="41">
-        <f t="shared" si="10"/>
-        <v>351.89929891650729</v>
-      </c>
+      <c r="C58" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
@@ -17023,38 +16525,36 @@
         <v>70</v>
       </c>
       <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="30" t="s">
+      <c r="H76" s="13"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="60" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="50">
-        <v>1</v>
+      <c r="B77" s="48">
+        <v>16</v>
       </c>
       <c r="C77" s="23">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D77" s="23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E77" s="23">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F77" s="23">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G77" s="23">
-        <v>256</v>
-      </c>
-      <c r="H77" s="23">
         <v>512</v>
       </c>
-      <c r="I77" s="32">
+      <c r="H77" s="30">
         <v>1024</v>
       </c>
-      <c r="J77" s="31">
+      <c r="I77" s="4"/>
+      <c r="J77" s="61">
         <v>2048</v>
       </c>
     </row>
@@ -17062,260 +16562,239 @@
       <c r="A78" s="24">
         <v>512</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="50">
         <f>B52/B$77</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="C78" s="53">
-        <f>C52/C$77</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D78" s="53">
-        <f t="shared" ref="D78:I78" si="11">D52/D$77</f>
-        <v>0.33854166666666669</v>
-      </c>
-      <c r="E78" s="53">
-        <f t="shared" si="11"/>
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="F78" s="53">
-        <f t="shared" si="11"/>
-        <v>5.3453947368421052E-2</v>
-      </c>
-      <c r="G78" s="53">
-        <f t="shared" si="11"/>
-        <v>3.3854166666666664E-2</v>
-      </c>
-      <c r="H78" s="53">
-        <f t="shared" si="11"/>
-        <v>1.8136160714285716E-2</v>
-      </c>
-      <c r="I78" s="54">
-        <f t="shared" si="11"/>
-        <v>2.5390625E-2</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C78" s="50">
+        <f t="shared" ref="C78:H78" si="15">C52/C$77</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="D78" s="50">
+        <f t="shared" si="15"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E78" s="50">
+        <f t="shared" si="15"/>
+        <v>6.1677631578947369E-3</v>
+      </c>
+      <c r="F78" s="50">
+        <f t="shared" si="15"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G78" s="50">
+        <f t="shared" si="15"/>
+        <v>2.0926339285714285E-3</v>
+      </c>
+      <c r="H78" s="57">
+        <f t="shared" si="15"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="I78" s="51"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>1024</v>
       </c>
-      <c r="B79" s="55">
-        <f t="shared" ref="B79:C84" si="12">B53/B$77</f>
-        <v>16.875</v>
-      </c>
-      <c r="C79" s="56">
-        <f t="shared" si="12"/>
-        <v>1.875</v>
-      </c>
-      <c r="D79" s="56">
-        <f t="shared" ref="D79:I79" si="13">D53/D$77</f>
-        <v>0.88815789473684215</v>
-      </c>
-      <c r="E79" s="56">
-        <f t="shared" si="13"/>
-        <v>0.44407894736842107</v>
-      </c>
-      <c r="F79" s="56">
-        <f t="shared" si="13"/>
-        <v>0.22203947368421054</v>
-      </c>
-      <c r="G79" s="56">
-        <f t="shared" si="13"/>
-        <v>0.1171875</v>
-      </c>
-      <c r="H79" s="56">
-        <f t="shared" si="13"/>
-        <v>5.859375E-2</v>
-      </c>
-      <c r="I79" s="57">
-        <f t="shared" si="13"/>
-        <v>2.511160714285714E-2</v>
-      </c>
+      <c r="B79" s="50">
+        <f t="shared" ref="B79:H84" si="16">B53/B$77</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="C79" s="50">
+        <f t="shared" si="16"/>
+        <v>5.2631578947368425E-2</v>
+      </c>
+      <c r="D79" s="50">
+        <f t="shared" si="16"/>
+        <v>2.6315789473684213E-2</v>
+      </c>
+      <c r="E79" s="50">
+        <f t="shared" si="16"/>
+        <v>1.3157894736842106E-2</v>
+      </c>
+      <c r="F79" s="50">
+        <f t="shared" si="16"/>
+        <v>6.9444444444444449E-3</v>
+      </c>
+      <c r="G79" s="50">
+        <f t="shared" si="16"/>
+        <v>3.4722222222222225E-3</v>
+      </c>
+      <c r="H79" s="57">
+        <f t="shared" si="16"/>
+        <v>1.488095238095238E-3</v>
+      </c>
+      <c r="I79" s="51"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>2048</v>
       </c>
-      <c r="B80" s="55">
-        <f t="shared" si="12"/>
-        <v>23.736263736263737</v>
-      </c>
-      <c r="C80" s="56">
-        <f t="shared" si="12"/>
-        <v>4.8214285714285721</v>
-      </c>
-      <c r="D80" s="56">
-        <f t="shared" ref="D80:I80" si="14">D54/D$77</f>
-        <v>1.9852941176470589</v>
-      </c>
-      <c r="E80" s="56">
-        <f t="shared" si="14"/>
-        <v>1.205357142857143</v>
-      </c>
-      <c r="F80" s="56">
-        <f t="shared" si="14"/>
-        <v>0.5818965517241379</v>
-      </c>
-      <c r="G80" s="56">
-        <f t="shared" si="14"/>
-        <v>0.29094827586206895</v>
-      </c>
-      <c r="H80" s="56">
-        <f t="shared" si="14"/>
-        <v>0.14547413793103448</v>
-      </c>
-      <c r="I80" s="57">
-        <f t="shared" si="14"/>
-        <v>6.3920454545454544E-2</v>
-      </c>
+      <c r="B80" s="50">
+        <f t="shared" si="16"/>
+        <v>0.203125</v>
+      </c>
+      <c r="C80" s="50">
+        <f t="shared" si="16"/>
+        <v>8.3639705882352935E-2</v>
+      </c>
+      <c r="D80" s="50">
+        <f t="shared" si="16"/>
+        <v>5.078125E-2</v>
+      </c>
+      <c r="E80" s="50">
+        <f t="shared" si="16"/>
+        <v>2.451508620689655E-2</v>
+      </c>
+      <c r="F80" s="50">
+        <f t="shared" si="16"/>
+        <v>1.2257543103448275E-2</v>
+      </c>
+      <c r="G80" s="50">
+        <f t="shared" si="16"/>
+        <v>6.1287715517241376E-3</v>
+      </c>
+      <c r="H80" s="57">
+        <f t="shared" si="16"/>
+        <v>2.692945075757576E-3</v>
+      </c>
+      <c r="I80" s="51"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>4096</v>
       </c>
-      <c r="B81" s="55">
-        <f t="shared" si="12"/>
-        <v>25.218658892128282</v>
-      </c>
-      <c r="C81" s="56">
-        <f t="shared" si="12"/>
-        <v>11.033163265306122</v>
-      </c>
-      <c r="D81" s="56">
-        <f t="shared" ref="D81:I81" si="15">D55/D$77</f>
-        <v>4.3598790322580641</v>
-      </c>
-      <c r="E81" s="56">
-        <f t="shared" si="15"/>
-        <v>2.7582908163265305</v>
-      </c>
-      <c r="F81" s="56">
-        <f t="shared" si="15"/>
-        <v>1.3515625</v>
-      </c>
-      <c r="G81" s="56">
-        <f t="shared" si="15"/>
-        <v>0.68957270408163263</v>
-      </c>
-      <c r="H81" s="56">
-        <f t="shared" si="15"/>
-        <v>0.33126531862745101</v>
-      </c>
-      <c r="I81" s="57">
-        <f t="shared" si="15"/>
-        <v>0.14078776041666666</v>
-      </c>
+      <c r="B81" s="50">
+        <f t="shared" si="16"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="C81" s="50">
+        <f t="shared" si="16"/>
+        <v>0.172883064516129</v>
+      </c>
+      <c r="D81" s="50">
+        <f t="shared" si="16"/>
+        <v>0.10937499999999999</v>
+      </c>
+      <c r="E81" s="50">
+        <f t="shared" si="16"/>
+        <v>5.3593749999999996E-2</v>
+      </c>
+      <c r="F81" s="50">
+        <f t="shared" si="16"/>
+        <v>2.7343749999999997E-2</v>
+      </c>
+      <c r="G81" s="50">
+        <f t="shared" si="16"/>
+        <v>1.3135723039215686E-2</v>
+      </c>
+      <c r="H81" s="57">
+        <f t="shared" si="16"/>
+        <v>5.5826822916666659E-3</v>
+      </c>
+      <c r="I81" s="51"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>8192</v>
       </c>
-      <c r="B82" s="55">
-        <f t="shared" si="12"/>
-        <v>25.796130952380953</v>
-      </c>
-      <c r="C82" s="56">
-        <f t="shared" si="12"/>
-        <v>16.9287109375</v>
-      </c>
-      <c r="D82" s="56">
-        <f t="shared" ref="D82:I82" si="16">D56/D$77</f>
-        <v>7.8509963768115938</v>
-      </c>
-      <c r="E82" s="56">
+      <c r="B82" s="50">
         <f t="shared" si="16"/>
-        <v>3.9832261029411766</v>
-      </c>
-      <c r="F82" s="56">
+        <v>0.65625</v>
+      </c>
+      <c r="C82" s="50">
         <f t="shared" si="16"/>
-        <v>2.0996850775193798</v>
-      </c>
-      <c r="G82" s="56">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="D82" s="50">
         <f t="shared" si="16"/>
-        <v>1.0417668269230769</v>
-      </c>
-      <c r="H82" s="56">
+        <v>0.15441176470588236</v>
+      </c>
+      <c r="E82" s="50">
         <f t="shared" si="16"/>
-        <v>0.50913416353383456</v>
-      </c>
-      <c r="I82" s="57">
+        <v>8.1395348837209308E-2</v>
+      </c>
+      <c r="F82" s="50">
         <f t="shared" si="16"/>
-        <v>0.26659387303149606</v>
-      </c>
+        <v>4.0384615384615387E-2</v>
+      </c>
+      <c r="G82" s="50">
+        <f t="shared" si="16"/>
+        <v>1.9736842105263157E-2</v>
+      </c>
+      <c r="H82" s="57">
+        <f t="shared" si="16"/>
+        <v>1.0334645669291339E-2</v>
+      </c>
+      <c r="I82" s="51"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>16384</v>
       </c>
-      <c r="B83" s="55">
-        <f t="shared" si="12"/>
-        <v>25.853749766224048</v>
-      </c>
-      <c r="C83" s="56">
-        <f t="shared" si="12"/>
-        <v>18.227848101265824</v>
-      </c>
-      <c r="D83" s="56">
-        <f t="shared" ref="D83:I83" si="17">D57/D$77</f>
-        <v>9.9082568807339442</v>
-      </c>
-      <c r="E83" s="56">
-        <f t="shared" si="17"/>
-        <v>4.9655172413793105</v>
-      </c>
-      <c r="F83" s="56">
-        <f t="shared" si="17"/>
-        <v>2.5653206650831355</v>
-      </c>
-      <c r="G83" s="56">
-        <f t="shared" si="17"/>
-        <v>1.2949640287769784</v>
-      </c>
-      <c r="H83" s="56">
-        <f t="shared" si="17"/>
-        <v>0.62355658198614328</v>
-      </c>
-      <c r="I83" s="57">
-        <f t="shared" si="17"/>
-        <v>0.31542056074766356</v>
-      </c>
+      <c r="B83" s="50">
+        <f t="shared" si="16"/>
+        <v>0.70503691983122374</v>
+      </c>
+      <c r="C83" s="50">
+        <f t="shared" si="16"/>
+        <v>0.38324254587155965</v>
+      </c>
+      <c r="D83" s="50">
+        <f t="shared" si="16"/>
+        <v>0.19206178160919543</v>
+      </c>
+      <c r="E83" s="50">
+        <f t="shared" si="16"/>
+        <v>9.9224317102137777E-2</v>
+      </c>
+      <c r="F83" s="50">
+        <f t="shared" si="16"/>
+        <v>5.008805455635492E-2</v>
+      </c>
+      <c r="G83" s="50">
+        <f t="shared" si="16"/>
+        <v>2.4118612875288686E-2</v>
+      </c>
+      <c r="H83" s="57">
+        <f t="shared" si="16"/>
+        <v>1.2200186185747666E-2</v>
+      </c>
+      <c r="I83" s="51"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>32768</v>
       </c>
       <c r="B84" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C84" s="59">
-        <f t="shared" si="12"/>
-        <v>18.582727517501347</v>
-      </c>
-      <c r="D84" s="59">
-        <f t="shared" ref="D84:I84" si="18">D58/D$77</f>
-        <v>10.419119867149758</v>
-      </c>
-      <c r="E84" s="59">
-        <f t="shared" si="18"/>
-        <v>5.4636043381887269</v>
-      </c>
-      <c r="F84" s="59">
-        <f t="shared" si="18"/>
-        <v>2.733533349176172</v>
-      </c>
-      <c r="G84" s="59">
-        <f t="shared" si="18"/>
-        <v>1.3676333623969563</v>
+      <c r="C84" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="58">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="H84" s="59">
-        <f t="shared" si="18"/>
-        <v>0.68208659471853261</v>
-      </c>
-      <c r="I84" s="60">
-        <f t="shared" si="18"/>
-        <v>0.34365165909815165</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="51"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
@@ -17337,7 +16816,7 @@
       <c r="H86" s="4"/>
     </row>
     <row r="121" spans="1:57" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F121" s="62" t="s">
+      <c r="F121" s="53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -17920,302 +17399,288 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D136" s="4"/>
     </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="4"/>
+    </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="20"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="23" t="s">
+      <c r="B138" s="9"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="22"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="50">
-        <v>1</v>
+      <c r="B139" s="48">
+        <v>16</v>
       </c>
       <c r="C139" s="23">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D139" s="23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E139" s="23">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F139" s="23">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G139" s="23">
-        <v>256</v>
-      </c>
-      <c r="H139" s="23">
         <v>512</v>
       </c>
-      <c r="I139" s="32">
+      <c r="H139" s="30">
         <v>1024</v>
       </c>
+      <c r="I139" s="4"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>512</v>
       </c>
-      <c r="B140" s="33">
-        <f>$B14/B128</f>
-        <v>8.125</v>
-      </c>
-      <c r="C140" s="34">
-        <f t="shared" ref="C140:I140" si="19">$B14/C128</f>
-        <v>16.25</v>
-      </c>
-      <c r="D140" s="34">
-        <f t="shared" si="19"/>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="E140" s="34">
-        <f t="shared" si="19"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="F140" s="34">
-        <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="G140" s="34">
-        <f t="shared" si="19"/>
-        <v>9.2857142857142865</v>
-      </c>
-      <c r="H140" s="34">
-        <f t="shared" si="19"/>
-        <v>10.833333333333334</v>
-      </c>
-      <c r="I140" s="35">
-        <f>$B14/I128</f>
-        <v>16.25</v>
-      </c>
+      <c r="B140" s="31">
+        <f>$B128/C128</f>
+        <v>2</v>
+      </c>
+      <c r="C140" s="31">
+        <f t="shared" ref="C140:G140" si="17">$B128/D128</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="D140" s="31">
+        <f t="shared" si="17"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="E140" s="31">
+        <f t="shared" si="17"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="F140" s="31">
+        <f t="shared" si="17"/>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="G140" s="31">
+        <f t="shared" si="17"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="H140" s="54">
+        <f>$B128/I128</f>
+        <v>2</v>
+      </c>
+      <c r="I140" s="35"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="25">
         <v>1024</v>
       </c>
-      <c r="B141" s="36">
-        <f t="shared" ref="B141:I141" si="20">$B15/B129</f>
-        <v>18.620689655172413</v>
-      </c>
-      <c r="C141" s="37">
-        <f t="shared" si="20"/>
-        <v>30</v>
-      </c>
-      <c r="D141" s="37">
-        <f t="shared" si="20"/>
-        <v>31.764705882352942</v>
-      </c>
-      <c r="E141" s="37">
-        <f t="shared" si="20"/>
-        <v>36</v>
-      </c>
-      <c r="F141" s="37">
-        <f t="shared" si="20"/>
-        <v>31.764705882352942</v>
-      </c>
-      <c r="G141" s="37">
-        <f t="shared" si="20"/>
-        <v>33.75</v>
-      </c>
-      <c r="H141" s="37">
-        <f t="shared" si="20"/>
-        <v>31.764705882352942</v>
-      </c>
-      <c r="I141" s="38">
-        <f t="shared" si="20"/>
-        <v>36</v>
-      </c>
+      <c r="B141" s="31">
+        <f t="shared" ref="B141:H141" si="18">$B129/C129</f>
+        <v>1.6111111111111109</v>
+      </c>
+      <c r="C141" s="31">
+        <f t="shared" si="18"/>
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="D141" s="31">
+        <f t="shared" si="18"/>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="E141" s="31">
+        <f t="shared" si="18"/>
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="F141" s="31">
+        <f t="shared" si="18"/>
+        <v>1.8124999999999998</v>
+      </c>
+      <c r="G141" s="31">
+        <f t="shared" si="18"/>
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="H141" s="54">
+        <f t="shared" si="18"/>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="I141" s="35"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="25">
         <v>2048</v>
       </c>
-      <c r="B142" s="36">
-        <f t="shared" ref="B142:I142" si="21">$B16/B130</f>
-        <v>24</v>
-      </c>
-      <c r="C142" s="37">
-        <f t="shared" si="21"/>
-        <v>98.181818181818173</v>
-      </c>
-      <c r="D142" s="37">
-        <f t="shared" si="21"/>
-        <v>113.68421052631579</v>
-      </c>
-      <c r="E142" s="37">
-        <f t="shared" si="21"/>
-        <v>90</v>
-      </c>
-      <c r="F142" s="37">
-        <f t="shared" si="21"/>
-        <v>102.85714285714285</v>
-      </c>
-      <c r="G142" s="37">
-        <f t="shared" si="21"/>
-        <v>90</v>
-      </c>
-      <c r="H142" s="37">
-        <f t="shared" si="21"/>
-        <v>90</v>
-      </c>
-      <c r="I142" s="38">
-        <f t="shared" si="21"/>
-        <v>77.142857142857153</v>
-      </c>
+      <c r="B142" s="31">
+        <f t="shared" ref="B142:H142" si="19">$B130/C130</f>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="C142" s="31">
+        <f t="shared" si="19"/>
+        <v>4.7368421052631584</v>
+      </c>
+      <c r="D142" s="31">
+        <f t="shared" si="19"/>
+        <v>3.75</v>
+      </c>
+      <c r="E142" s="31">
+        <f t="shared" si="19"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F142" s="31">
+        <f t="shared" si="19"/>
+        <v>3.75</v>
+      </c>
+      <c r="G142" s="31">
+        <f t="shared" si="19"/>
+        <v>3.75</v>
+      </c>
+      <c r="H142" s="54">
+        <f t="shared" si="19"/>
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="I142" s="35"/>
     </row>
     <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="25">
         <v>4096</v>
       </c>
-      <c r="B143" s="36">
-        <f t="shared" ref="B143:I143" si="22">$B17/B131</f>
-        <v>28.453947368421055</v>
-      </c>
-      <c r="C143" s="37">
-        <f t="shared" si="22"/>
-        <v>210.97560975609758</v>
-      </c>
-      <c r="D143" s="37">
-        <f t="shared" si="22"/>
-        <v>216.25</v>
-      </c>
-      <c r="E143" s="37">
-        <f t="shared" si="22"/>
-        <v>227.63157894736844</v>
-      </c>
-      <c r="F143" s="37">
-        <f t="shared" si="22"/>
-        <v>216.25</v>
-      </c>
-      <c r="G143" s="37">
-        <f t="shared" si="22"/>
-        <v>210.97560975609758</v>
-      </c>
-      <c r="H143" s="37">
-        <f t="shared" si="22"/>
-        <v>210.97560975609758</v>
-      </c>
-      <c r="I143" s="38">
-        <f t="shared" si="22"/>
-        <v>176.53061224489795</v>
-      </c>
+      <c r="B143" s="31">
+        <f t="shared" ref="B143:H143" si="20">$B131/C131</f>
+        <v>7.4146341463414638</v>
+      </c>
+      <c r="C143" s="31">
+        <f t="shared" si="20"/>
+        <v>7.6</v>
+      </c>
+      <c r="D143" s="31">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="E143" s="31">
+        <f t="shared" si="20"/>
+        <v>7.6</v>
+      </c>
+      <c r="F143" s="31">
+        <f t="shared" si="20"/>
+        <v>7.4146341463414638</v>
+      </c>
+      <c r="G143" s="31">
+        <f t="shared" si="20"/>
+        <v>7.4146341463414638</v>
+      </c>
+      <c r="H143" s="54">
+        <f t="shared" si="20"/>
+        <v>6.2040816326530601</v>
+      </c>
+      <c r="I143" s="35"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="25">
         <v>8192</v>
       </c>
-      <c r="B144" s="36">
-        <f t="shared" ref="B144:I144" si="23">$B18/B132</f>
-        <v>29.01255230125523</v>
-      </c>
-      <c r="C144" s="37">
-        <f t="shared" si="23"/>
-        <v>376.84782608695656</v>
-      </c>
-      <c r="D144" s="37">
-        <f t="shared" si="23"/>
-        <v>450.25974025974023</v>
-      </c>
-      <c r="E144" s="37">
-        <f t="shared" si="23"/>
-        <v>468.51351351351349</v>
-      </c>
-      <c r="F144" s="37">
-        <f t="shared" si="23"/>
-        <v>462.26666666666665</v>
-      </c>
-      <c r="G144" s="37">
-        <f t="shared" si="23"/>
-        <v>462.26666666666665</v>
-      </c>
-      <c r="H144" s="37">
-        <f t="shared" si="23"/>
-        <v>456.18421052631584</v>
-      </c>
-      <c r="I144" s="38">
-        <f t="shared" si="23"/>
-        <v>380.98901098901098</v>
-      </c>
+      <c r="B144" s="31">
+        <f t="shared" ref="B144:H144" si="21">$B132/C132</f>
+        <v>12.989130434782609</v>
+      </c>
+      <c r="C144" s="31">
+        <f t="shared" si="21"/>
+        <v>15.519480519480519</v>
+      </c>
+      <c r="D144" s="31">
+        <f t="shared" si="21"/>
+        <v>16.148648648648649</v>
+      </c>
+      <c r="E144" s="31">
+        <f t="shared" si="21"/>
+        <v>15.933333333333334</v>
+      </c>
+      <c r="F144" s="31">
+        <f t="shared" si="21"/>
+        <v>15.933333333333334</v>
+      </c>
+      <c r="G144" s="31">
+        <f t="shared" si="21"/>
+        <v>15.723684210526317</v>
+      </c>
+      <c r="H144" s="54">
+        <f t="shared" si="21"/>
+        <v>13.131868131868133</v>
+      </c>
+      <c r="I144" s="35"/>
     </row>
     <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="25">
         <v>16384</v>
       </c>
-      <c r="B145" s="36">
-        <f t="shared" ref="B145:I145" si="24">$B19/B133</f>
-        <v>29.035916824196597</v>
-      </c>
-      <c r="C145" s="37">
-        <f t="shared" si="24"/>
-        <v>457.74834437086093</v>
-      </c>
-      <c r="D145" s="37">
-        <f t="shared" si="24"/>
-        <v>880.50955414012742</v>
-      </c>
-      <c r="E145" s="37">
-        <f t="shared" si="24"/>
-        <v>869.43396226415098</v>
-      </c>
-      <c r="F145" s="37">
-        <f t="shared" si="24"/>
-        <v>874.9367088607595</v>
-      </c>
-      <c r="G145" s="37">
-        <f t="shared" si="24"/>
-        <v>874.9367088607595</v>
-      </c>
-      <c r="H145" s="37">
-        <f t="shared" si="24"/>
-        <v>869.43396226415098</v>
-      </c>
-      <c r="I145" s="38">
-        <f t="shared" si="24"/>
-        <v>864</v>
-      </c>
+      <c r="B145" s="31">
+        <f t="shared" ref="B145:H145" si="22">$B133/C133</f>
+        <v>15.764900662251657</v>
+      </c>
+      <c r="C145" s="31">
+        <f t="shared" si="22"/>
+        <v>30.324840764331213</v>
+      </c>
+      <c r="D145" s="31">
+        <f t="shared" si="22"/>
+        <v>29.943396226415096</v>
+      </c>
+      <c r="E145" s="31">
+        <f t="shared" si="22"/>
+        <v>30.132911392405063</v>
+      </c>
+      <c r="F145" s="31">
+        <f t="shared" si="22"/>
+        <v>30.132911392405063</v>
+      </c>
+      <c r="G145" s="31">
+        <f t="shared" si="22"/>
+        <v>29.943396226415096</v>
+      </c>
+      <c r="H145" s="54">
+        <f t="shared" si="22"/>
+        <v>29.756250000000001</v>
+      </c>
+      <c r="I145" s="35"/>
     </row>
     <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="26">
         <v>32768</v>
       </c>
-      <c r="B146" s="51">
-        <f t="shared" ref="B146:I146" si="25">$B20/B134</f>
-        <v>29.236431029917924</v>
-      </c>
-      <c r="C146" s="40">
-        <f t="shared" si="25"/>
-        <v>455.17724649629019</v>
-      </c>
-      <c r="D146" s="40">
-        <f t="shared" si="25"/>
-        <v>899.23452768729646</v>
-      </c>
-      <c r="E146" s="40">
-        <f t="shared" si="25"/>
-        <v>920.2166666666667</v>
-      </c>
-      <c r="F146" s="40">
-        <f t="shared" si="25"/>
-        <v>918.6855241264559</v>
-      </c>
-      <c r="G146" s="40">
-        <f t="shared" si="25"/>
-        <v>912.61157024793386</v>
-      </c>
-      <c r="H146" s="40">
-        <f t="shared" si="25"/>
-        <v>896.31493506493507</v>
-      </c>
-      <c r="I146" s="41">
-        <f t="shared" si="25"/>
-        <v>877.79014308426076</v>
-      </c>
+      <c r="B146" s="55">
+        <f t="shared" ref="B146:H146" si="23">$B134/C134</f>
+        <v>15.568837592745259</v>
+      </c>
+      <c r="C146" s="55">
+        <f t="shared" si="23"/>
+        <v>30.757328990228014</v>
+      </c>
+      <c r="D146" s="55">
+        <f t="shared" si="23"/>
+        <v>31.475000000000001</v>
+      </c>
+      <c r="E146" s="55">
+        <f t="shared" si="23"/>
+        <v>31.422628951747086</v>
+      </c>
+      <c r="F146" s="55">
+        <f t="shared" si="23"/>
+        <v>31.214876033057852</v>
+      </c>
+      <c r="G146" s="55">
+        <f t="shared" si="23"/>
+        <v>30.657467532467532</v>
+      </c>
+      <c r="H146" s="56">
+        <f t="shared" si="23"/>
+        <v>30.023847376788552</v>
+      </c>
+      <c r="I146" s="35"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="4"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
@@ -18226,38 +17691,36 @@
         <v>70</v>
       </c>
       <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="30" t="s">
+      <c r="H164" s="13"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="60" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="50">
-        <v>1</v>
+      <c r="B165" s="48">
+        <v>16</v>
       </c>
       <c r="C165" s="23">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D165" s="23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E165" s="23">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F165" s="23">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G165" s="23">
-        <v>256</v>
-      </c>
-      <c r="H165" s="23">
         <v>512</v>
       </c>
-      <c r="I165" s="32">
+      <c r="H165" s="30">
         <v>1024</v>
       </c>
-      <c r="J165" s="31">
+      <c r="I165" s="4"/>
+      <c r="J165" s="61">
         <v>2048</v>
       </c>
     </row>
@@ -18265,260 +17728,239 @@
       <c r="A166" s="24">
         <v>512</v>
       </c>
-      <c r="B166" s="52">
+      <c r="B166" s="50">
         <f>B140/B$165</f>
-        <v>8.125</v>
-      </c>
-      <c r="C166" s="53">
-        <f t="shared" ref="C166:I166" si="26">C140/C$165</f>
-        <v>1.015625</v>
-      </c>
-      <c r="D166" s="53">
-        <f t="shared" si="26"/>
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="E166" s="53">
-        <f t="shared" si="26"/>
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="F166" s="53">
-        <f t="shared" si="26"/>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="G166" s="53">
-        <f t="shared" si="26"/>
-        <v>3.6272321428571432E-2</v>
-      </c>
-      <c r="H166" s="53">
-        <f t="shared" si="26"/>
-        <v>2.1158854166666668E-2</v>
-      </c>
-      <c r="I166" s="54">
-        <f t="shared" si="26"/>
-        <v>1.5869140625E-2</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="C166" s="50">
+        <f t="shared" ref="C166:H166" si="24">C140/C$165</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="D166" s="50">
+        <f t="shared" si="24"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E166" s="50">
+        <f t="shared" si="24"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="F166" s="50">
+        <f t="shared" si="24"/>
+        <v>4.4642857142857149E-3</v>
+      </c>
+      <c r="G166" s="50">
+        <f t="shared" si="24"/>
+        <v>2.604166666666667E-3</v>
+      </c>
+      <c r="H166" s="57">
+        <f t="shared" si="24"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I166" s="51"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="25">
         <v>1024</v>
       </c>
-      <c r="B167" s="55">
-        <f t="shared" ref="B167:I167" si="27">B141/B$165</f>
-        <v>18.620689655172413</v>
-      </c>
-      <c r="C167" s="56">
-        <f t="shared" si="27"/>
-        <v>1.875</v>
-      </c>
-      <c r="D167" s="56">
-        <f t="shared" si="27"/>
-        <v>0.99264705882352944</v>
-      </c>
-      <c r="E167" s="56">
-        <f t="shared" si="27"/>
-        <v>0.5625</v>
-      </c>
-      <c r="F167" s="56">
-        <f t="shared" si="27"/>
-        <v>0.24816176470588236</v>
-      </c>
-      <c r="G167" s="56">
-        <f t="shared" si="27"/>
-        <v>0.1318359375</v>
-      </c>
-      <c r="H167" s="56">
-        <f t="shared" si="27"/>
-        <v>6.204044117647059E-2</v>
-      </c>
-      <c r="I167" s="57">
-        <f t="shared" si="27"/>
-        <v>3.515625E-2</v>
-      </c>
+      <c r="B167" s="50">
+        <f t="shared" ref="B167:H172" si="25">B141/B$165</f>
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="C167" s="50">
+        <f t="shared" si="25"/>
+        <v>5.3308823529411763E-2</v>
+      </c>
+      <c r="D167" s="50">
+        <f t="shared" si="25"/>
+        <v>3.0208333333333334E-2</v>
+      </c>
+      <c r="E167" s="50">
+        <f t="shared" si="25"/>
+        <v>1.3327205882352941E-2</v>
+      </c>
+      <c r="F167" s="50">
+        <f t="shared" si="25"/>
+        <v>7.0800781249999991E-3</v>
+      </c>
+      <c r="G167" s="50">
+        <f t="shared" si="25"/>
+        <v>3.3318014705882352E-3</v>
+      </c>
+      <c r="H167" s="57">
+        <f t="shared" si="25"/>
+        <v>1.8880208333333333E-3</v>
+      </c>
+      <c r="I167" s="51"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="25">
         <v>2048</v>
       </c>
-      <c r="B168" s="55">
-        <f t="shared" ref="B168:I168" si="28">B142/B$165</f>
-        <v>24</v>
-      </c>
-      <c r="C168" s="56">
-        <f t="shared" si="28"/>
-        <v>6.1363636363636358</v>
-      </c>
-      <c r="D168" s="56">
-        <f t="shared" si="28"/>
-        <v>3.5526315789473686</v>
-      </c>
-      <c r="E168" s="56">
-        <f t="shared" si="28"/>
-        <v>1.40625</v>
-      </c>
-      <c r="F168" s="56">
-        <f t="shared" si="28"/>
-        <v>0.80357142857142849</v>
-      </c>
-      <c r="G168" s="56">
-        <f t="shared" si="28"/>
-        <v>0.3515625</v>
-      </c>
-      <c r="H168" s="56">
-        <f t="shared" si="28"/>
-        <v>0.17578125</v>
-      </c>
-      <c r="I168" s="57">
-        <f t="shared" si="28"/>
-        <v>7.5334821428571438E-2</v>
-      </c>
+      <c r="B168" s="50">
+        <f t="shared" si="25"/>
+        <v>0.25568181818181818</v>
+      </c>
+      <c r="C168" s="50">
+        <f t="shared" si="25"/>
+        <v>0.1480263157894737</v>
+      </c>
+      <c r="D168" s="50">
+        <f t="shared" si="25"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="E168" s="50">
+        <f t="shared" si="25"/>
+        <v>3.3482142857142856E-2</v>
+      </c>
+      <c r="F168" s="50">
+        <f t="shared" si="25"/>
+        <v>1.46484375E-2</v>
+      </c>
+      <c r="G168" s="50">
+        <f t="shared" si="25"/>
+        <v>7.32421875E-3</v>
+      </c>
+      <c r="H168" s="57">
+        <f t="shared" si="25"/>
+        <v>3.138950892857143E-3</v>
+      </c>
+      <c r="I168" s="51"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="25">
         <v>4096</v>
       </c>
-      <c r="B169" s="55">
-        <f t="shared" ref="B169:I169" si="29">B143/B$165</f>
-        <v>28.453947368421055</v>
-      </c>
-      <c r="C169" s="56">
-        <f t="shared" si="29"/>
-        <v>13.185975609756099</v>
-      </c>
-      <c r="D169" s="56">
-        <f t="shared" si="29"/>
-        <v>6.7578125</v>
-      </c>
-      <c r="E169" s="56">
-        <f t="shared" si="29"/>
-        <v>3.5567434210526319</v>
-      </c>
-      <c r="F169" s="56">
-        <f t="shared" si="29"/>
-        <v>1.689453125</v>
-      </c>
-      <c r="G169" s="56">
-        <f t="shared" si="29"/>
-        <v>0.82412347560975618</v>
-      </c>
-      <c r="H169" s="56">
-        <f t="shared" si="29"/>
-        <v>0.41206173780487809</v>
-      </c>
-      <c r="I169" s="57">
-        <f t="shared" si="29"/>
-        <v>0.17239317602040816</v>
-      </c>
+      <c r="B169" s="50">
+        <f t="shared" si="25"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="C169" s="50">
+        <f t="shared" si="25"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="D169" s="50">
+        <f t="shared" si="25"/>
+        <v>0.125</v>
+      </c>
+      <c r="E169" s="50">
+        <f t="shared" si="25"/>
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="F169" s="50">
+        <f t="shared" si="25"/>
+        <v>2.8963414634146343E-2</v>
+      </c>
+      <c r="G169" s="50">
+        <f t="shared" si="25"/>
+        <v>1.4481707317073171E-2</v>
+      </c>
+      <c r="H169" s="57">
+        <f t="shared" si="25"/>
+        <v>6.058673469387754E-3</v>
+      </c>
+      <c r="I169" s="51"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="25">
         <v>8192</v>
       </c>
-      <c r="B170" s="55">
-        <f t="shared" ref="B170:I170" si="30">B144/B$165</f>
-        <v>29.01255230125523</v>
-      </c>
-      <c r="C170" s="56">
-        <f t="shared" si="30"/>
-        <v>23.552989130434785</v>
-      </c>
-      <c r="D170" s="56">
-        <f t="shared" si="30"/>
-        <v>14.070616883116882</v>
-      </c>
-      <c r="E170" s="56">
-        <f t="shared" si="30"/>
-        <v>7.3205236486486482</v>
-      </c>
-      <c r="F170" s="56">
-        <f t="shared" si="30"/>
-        <v>3.6114583333333332</v>
-      </c>
-      <c r="G170" s="56">
-        <f t="shared" si="30"/>
-        <v>1.8057291666666666</v>
-      </c>
-      <c r="H170" s="56">
-        <f t="shared" si="30"/>
-        <v>0.89098478618421062</v>
-      </c>
-      <c r="I170" s="57">
-        <f t="shared" si="30"/>
-        <v>0.37205958104395603</v>
-      </c>
+      <c r="B170" s="50">
+        <f t="shared" si="25"/>
+        <v>0.81182065217391308</v>
+      </c>
+      <c r="C170" s="50">
+        <f t="shared" si="25"/>
+        <v>0.48498376623376621</v>
+      </c>
+      <c r="D170" s="50">
+        <f t="shared" si="25"/>
+        <v>0.25232263513513514</v>
+      </c>
+      <c r="E170" s="50">
+        <f t="shared" si="25"/>
+        <v>0.12447916666666667</v>
+      </c>
+      <c r="F170" s="50">
+        <f t="shared" si="25"/>
+        <v>6.2239583333333334E-2</v>
+      </c>
+      <c r="G170" s="50">
+        <f t="shared" si="25"/>
+        <v>3.0710320723684213E-2</v>
+      </c>
+      <c r="H170" s="57">
+        <f t="shared" si="25"/>
+        <v>1.2824089972527474E-2</v>
+      </c>
+      <c r="I170" s="51"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="25">
         <v>16384</v>
       </c>
-      <c r="B171" s="55">
-        <f t="shared" ref="B171:I171" si="31">B145/B$165</f>
-        <v>29.035916824196597</v>
-      </c>
-      <c r="C171" s="56">
-        <f t="shared" si="31"/>
-        <v>28.609271523178808</v>
-      </c>
-      <c r="D171" s="56">
-        <f t="shared" si="31"/>
-        <v>27.515923566878982</v>
-      </c>
-      <c r="E171" s="56">
-        <f t="shared" si="31"/>
-        <v>13.584905660377359</v>
-      </c>
-      <c r="F171" s="56">
-        <f t="shared" si="31"/>
-        <v>6.8354430379746836</v>
-      </c>
-      <c r="G171" s="56">
-        <f t="shared" si="31"/>
-        <v>3.4177215189873418</v>
-      </c>
-      <c r="H171" s="56">
-        <f t="shared" si="31"/>
-        <v>1.6981132075471699</v>
-      </c>
-      <c r="I171" s="57">
-        <f t="shared" si="31"/>
-        <v>0.84375</v>
-      </c>
+      <c r="B171" s="50">
+        <f t="shared" si="25"/>
+        <v>0.98530629139072856</v>
+      </c>
+      <c r="C171" s="50">
+        <f t="shared" si="25"/>
+        <v>0.94765127388535042</v>
+      </c>
+      <c r="D171" s="50">
+        <f t="shared" si="25"/>
+        <v>0.46786556603773588</v>
+      </c>
+      <c r="E171" s="50">
+        <f t="shared" si="25"/>
+        <v>0.23541337025316456</v>
+      </c>
+      <c r="F171" s="50">
+        <f t="shared" si="25"/>
+        <v>0.11770668512658228</v>
+      </c>
+      <c r="G171" s="50">
+        <f t="shared" si="25"/>
+        <v>5.8483195754716985E-2</v>
+      </c>
+      <c r="H171" s="57">
+        <f t="shared" si="25"/>
+        <v>2.9058837890625001E-2</v>
+      </c>
+      <c r="I171" s="51"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="26">
         <v>32768</v>
       </c>
       <c r="B172" s="58">
-        <f t="shared" ref="B172:I172" si="32">B146/B$165</f>
-        <v>29.236431029917924</v>
-      </c>
-      <c r="C172" s="59">
-        <f t="shared" si="32"/>
-        <v>28.448577906018137</v>
-      </c>
-      <c r="D172" s="59">
-        <f t="shared" si="32"/>
-        <v>28.101078990228014</v>
-      </c>
-      <c r="E172" s="59">
-        <f t="shared" si="32"/>
-        <v>14.378385416666667</v>
-      </c>
-      <c r="F172" s="59">
-        <f t="shared" si="32"/>
-        <v>7.1772306572379367</v>
-      </c>
-      <c r="G172" s="59">
-        <f t="shared" si="32"/>
-        <v>3.5648889462809916</v>
+        <f t="shared" si="25"/>
+        <v>0.97305234954657871</v>
+      </c>
+      <c r="C172" s="58">
+        <f t="shared" si="25"/>
+        <v>0.96116653094462545</v>
+      </c>
+      <c r="D172" s="58">
+        <f t="shared" si="25"/>
+        <v>0.49179687500000002</v>
+      </c>
+      <c r="E172" s="58">
+        <f t="shared" si="25"/>
+        <v>0.24548928868552411</v>
+      </c>
+      <c r="F172" s="58">
+        <f t="shared" si="25"/>
+        <v>0.12193310950413223</v>
+      </c>
+      <c r="G172" s="58">
+        <f t="shared" si="25"/>
+        <v>5.9877866274350648E-2</v>
       </c>
       <c r="H172" s="59">
-        <f t="shared" si="32"/>
-        <v>1.7506151075487013</v>
-      </c>
-      <c r="I172" s="60">
-        <f t="shared" si="32"/>
-        <v>0.8572169366057234</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>2.9320163453895071E-2</v>
+      </c>
+      <c r="I172" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
